--- a/Pubmed/CCHF/CCHF_P_G_Combined_12_11.xlsx
+++ b/Pubmed/CCHF/CCHF_P_G_Combined_12_11.xlsx
@@ -712,7 +712,7 @@
       </c>
       <c r="S2" s="3" t="inlineStr">
         <is>
-          <t>2012 (15)</t>
+          <t>2012.0 (15)</t>
         </is>
       </c>
       <c r="T2" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="W2" s="3" t="inlineStr">
         <is>
-          <t>M (5)
+          <t>NA (5)
 L (5)
 S (5)</t>
         </is>
@@ -757,18 +757,8 @@
           <t>KC344856, KC344855, JX908640, KC344856, KC344855, JX908640, JX908640, KC344856, KC344855, JX908640, KC344856, KC344855, JX908640, KC344855, KC344856</t>
         </is>
       </c>
-      <c r="AD2" s="3" t="inlineStr">
-        <is>
-          <t>5052 (5)
-11923 (5)
-1678 (5)</t>
-        </is>
-      </c>
-      <c r="AE2" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (15)</t>
-        </is>
-      </c>
+      <c r="AD2" s="3" t="inlineStr"/>
+      <c r="AE2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -903,22 +893,8 @@
           <t>DQ076418, AY947890, DQ076416, DQ076413, AY947891, DQ076417, DQ076415, DQ076414, DQ076412, DQ076418, AY947890, DQ076416, DQ076413, AY947891, DQ076417, DQ076415, DQ076414, DQ076412, DQ076418, AY947890, DQ076416, DQ076413, AY947891, DQ076417, DQ076415, DQ076414, DQ076412, DQ076418, AY947890, DQ076416, DQ076413, AY947891, DQ076417, DQ076415, DQ076414, DQ076412, DQ076418, DQ076416, DQ076413, DQ076417, DQ076415, DQ076414, DQ076412, AY947890, AY947891</t>
         </is>
       </c>
-      <c r="AD3" s="3" t="inlineStr">
-        <is>
-          <t>&gt;10000 (23)
-1000-3000 (15)
-100-500 (5)
-11952 (1)
-12098 (1)</t>
-        </is>
-      </c>
-      <c r="AE3" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (20)
-90%-95% (20)
-95%-100% (5)</t>
-        </is>
-      </c>
+      <c r="AD3" s="3" t="inlineStr"/>
+      <c r="AE3" s="3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -1027,8 +1003,7 @@
       </c>
       <c r="W4" s="3" t="inlineStr">
         <is>
-          <t>M (32)
-S (28)</t>
+          <t>NA (60)</t>
         </is>
       </c>
       <c r="X4" s="3" t="inlineStr">
@@ -1050,18 +1025,8 @@
           <t>AY366387, AY366386, AY366385, AY366384, AY366383, AY366382, AY366381, AY366380, AY366379, AY366378, AY366377, AY366376, AY366375, AY366374, AY366373, AY366387, AY366386, AY366385, AY366384, AY366383, AY366382, AY366381, AY366380, AY366379, AY366378, AY366377, AY366376, AY366375, AY366374, AY366373, AY366387, AY366386, AY366385, AY366384, AY366383, AY366382, AY366381, AY366380, AY366379, AY366378, AY366377, AY366376, AY366375, AY366374, AY366373, AY366373, AY366374, AY366375, AY366376, AY366377, AY366378, AY366379, AY366380, AY366381, AY366382, AY366383, AY366384, AY366385, AY366386, AY366387</t>
         </is>
       </c>
-      <c r="AD4" s="3" t="inlineStr">
-        <is>
-          <t>520 (32)
-498 (28)</t>
-        </is>
-      </c>
-      <c r="AE4" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (32)
-95%-100% (28)</t>
-        </is>
-      </c>
+      <c r="AD4" s="3" t="inlineStr"/>
+      <c r="AE4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
@@ -1155,7 +1120,7 @@
       </c>
       <c r="S5" s="3" t="inlineStr">
         <is>
-          <t>2008 (10)</t>
+          <t>2008.0 (10)</t>
         </is>
       </c>
       <c r="T5" s="3" t="inlineStr">
@@ -1196,16 +1161,8 @@
           <t>FJ445749, FJ160262, FJ445749, FJ160262, FJ445749, FJ160262, FJ445749, FJ160262, FJ445749, FJ160262</t>
         </is>
       </c>
-      <c r="AD5" s="3" t="inlineStr">
-        <is>
-          <t>261 (10)</t>
-        </is>
-      </c>
-      <c r="AE5" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (10)</t>
-        </is>
-      </c>
+      <c r="AD5" s="3" t="inlineStr"/>
+      <c r="AE5" s="3" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -1294,7 +1251,7 @@
       </c>
       <c r="S6" s="3" t="inlineStr">
         <is>
-          <t>2015 (372)</t>
+          <t>2015.0 (372)</t>
         </is>
       </c>
       <c r="T6" s="3" t="inlineStr">
@@ -1334,23 +1291,8 @@
           <t>OQ866633, OQ866632, OQ866631, OQ454691, OQ454692, OQ454693, OQ454694, OQ454695, OQ454696, OQ454697, OQ454698, OQ454699, OQ454700, OQ454701, OQ454702, OQ454703, OQ454704, OQ454705, OQ454706, OQ454707, OQ454708, OQ454709, OQ454710, OQ454711, OQ454712, OQ454713, OQ454714, OQ454715, OQ454716, OQ454717, OQ454718, OQ454719, OQ454720, OQ454721, OQ454722, OQ454723, OQ454724, OQ454725, OQ454726, OQ454727, OQ454728, OQ454729, OQ454730, OQ454731, OQ454732, OQ454733, OQ454734, OQ454735, OQ454736, OQ454737, OQ454738, OQ454739, OQ454740, OQ454741, OQ454742, OQ454743, OQ454744, OQ454745, OQ454746, OQ454747, OQ454748, OQ454749, OQ454750, OQ454777, OQ454778, OQ454779, OQ454780, OQ454781, OQ454782, OQ454783, OQ454784, OQ454785, OQ454786, OQ454787, OQ454788, OQ454789, OQ454790, OQ454791, OQ454792, OQ454793, OQ454794, OQ454795, OQ454796, OQ454797, OQ454798, OQ454799, OQ454800, OQ454801, OQ454802, OQ454803, OQ454804, OQ454805, OQ454806, OQ454807, OQ454808, OQ454809, OQ454810, OQ454811, OQ454812, OQ454813, OQ454814, OQ454815, OQ454816, OQ454817, OQ454818, OQ454819, OQ454820, OQ454821, OQ454822, OQ454823, OQ454824, OQ454825, OQ454826, OQ454827, OQ454828, OQ454829, OQ454830, OQ454831, OQ454832, OQ454833, OQ454834, OQ454835, OQ454836, OQ866631, OQ866632, OQ866633, OQ454691, OQ454692, OQ454693, OQ454694, OQ454695, OQ454696, OQ454697, OQ454698, OQ454699, OQ454700, OQ454701, OQ454702, OQ454703, OQ454704, OQ454705, OQ454706, OQ454707, OQ454708, OQ454709, OQ454710, OQ454711, OQ454712, OQ454713, OQ454714, OQ454715, OQ454716, OQ454717, OQ454718, OQ454719, OQ454720, OQ454721, OQ454722, OQ454723, OQ454724, OQ454725, OQ454726, OQ454727, OQ454728, OQ454729, OQ454730, OQ454731, OQ454732, OQ454733, OQ454734, OQ454735, OQ454736, OQ454737, OQ454738, OQ454739, OQ454740, OQ454741, OQ454742, OQ454743, OQ454744, OQ454745, OQ454746, OQ454747, OQ454748, OQ454749, OQ454750, OQ454777, OQ454778, OQ454779, OQ454780, OQ454781, OQ454782, OQ454783, OQ454784, OQ454785, OQ454786, OQ454787, OQ454788, OQ454789, OQ454790, OQ454791, OQ454792, OQ454793, OQ454794, OQ454795, OQ454796, OQ454797, OQ454798, OQ454799, OQ454800, OQ454801, OQ454802, OQ454803, OQ454804, OQ454805, OQ454806, OQ454807, OQ454808, OQ454809, OQ454810, OQ454811, OQ454812, OQ454813, OQ454814, OQ454815, OQ454816, OQ454817, OQ454818, OQ454819, OQ454820, OQ454821, OQ454822, OQ454823, OQ454824, OQ454825, OQ454826, OQ454827, OQ454828, OQ454829, OQ454830, OQ454831, OQ454832, OQ454833, OQ454834, OQ454835, OQ454836, OQ866631, OQ866632, OQ866633, OQ454691, OQ454692, OQ454693, OQ454694, OQ454695, OQ454696, OQ454697, OQ454698, OQ454699, OQ454700, OQ454701, OQ454702, OQ454703, OQ454704, OQ454705, OQ454706, OQ454707, OQ454708, OQ454709, OQ454710, OQ454711, OQ454712, OQ454713, OQ454714, OQ454715, OQ454716, OQ454717, OQ454718, OQ454719, OQ454720, OQ454721, OQ454722, OQ454723, OQ454724, OQ454725, OQ454726, OQ454727, OQ454728, OQ454729, OQ454730, OQ454731, OQ454732, OQ454733, OQ454734, OQ454735, OQ454736, OQ454737, OQ454738, OQ454739, OQ454740, OQ454741, OQ454742, OQ454743, OQ454744, OQ454745, OQ454746, OQ454747, OQ454748, OQ454749, OQ454750, OQ454777, OQ454778, OQ454779, OQ454780, OQ454781, OQ454782, OQ454783, OQ454784, OQ454785, OQ454786, OQ454787, OQ454788, OQ454789, OQ454790, OQ454791, OQ454792, OQ454793, OQ454794, OQ454795, OQ454796, OQ454797, OQ454798, OQ454799, OQ454800, OQ454801, OQ454802, OQ454803, OQ454804, OQ454805, OQ454806, OQ454807, OQ454808, OQ454809, OQ454810, OQ454811, OQ454812, OQ454813, OQ454814, OQ454815, OQ454816, OQ454817, OQ454818, OQ454819, OQ454820, OQ454821, OQ454822, OQ454823, OQ454824, OQ454825, OQ454826, OQ454827, OQ454828, OQ454829, OQ454830, OQ454831, OQ454832, OQ454833, OQ454834, OQ454835, OQ454836, OQ866631, OQ866632, OQ866633</t>
         </is>
       </c>
-      <c r="AD6" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (123)
-3000-5000 (123)
-5000-10000 (120)
-&gt;10000 (3)
-11885 (1)
-5163 (1)
-1663 (1)</t>
-        </is>
-      </c>
-      <c r="AE6" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (258)
-90%-95% (114)</t>
-        </is>
-      </c>
+      <c r="AD6" s="3" t="inlineStr"/>
+      <c r="AE6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
@@ -1442,8 +1384,8 @@
       </c>
       <c r="S7" s="3" t="inlineStr">
         <is>
-          <t>2017 (189)
-2013 (28)</t>
+          <t>2017.0 (189)
+2013.0 (28)</t>
         </is>
       </c>
       <c r="T7" s="3" t="inlineStr">
@@ -1463,9 +1405,10 @@
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>L (94)
-S (66)
-M (57)</t>
+          <t>NA (72)
+L (67)
+M (39)
+S (39)</t>
         </is>
       </c>
       <c r="X7" s="3" t="inlineStr">
@@ -1486,24 +1429,8 @@
           <t>MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, NC_078322, NC_078321, NC_078320, NC_078325, NC_078324, NC_078323, MN792653, MN792652, MN792651, MN829807, MN829806, MN972596, MN972595, MN972594, MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, NC_078322, NC_078321, NC_078320, NC_078325, NC_078324, NC_078323, MN792653, MN792652, MN792651, MN829807, MN829806, MN972596, MN972595, MN972594, MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, NC_078322, NC_078321, NC_078320, NC_078325, NC_078324, NC_078323, MN792653, MN792652, MN792651, MN829807, MN829806, MN972596, MN972595, MN972594, MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, NC_078322, NC_078321, NC_078320, NC_078325, NC_078324, NC_078323, MN792653, MN792652, MN792651, MN829807, MN829806, MN972596, MN972595, MN972594, MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, NC_078322, NC_078321, NC_078320, NC_078325, NC_078324, NC_078323, MN792653, MN792652, MN792651, MN829807, MN829806, MN972596, MN972595, MN972594, MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, NC_078322, NC_078321, NC_078320, NC_078325, NC_078324, NC_078323, MN792653, MN792652, MN792651, MN829807, MN829806, MN972596, MN972595, MN972594, MN792651, MN792652, MN792653, MN829806, MN829807, MN972594, MN972595, MN972596, NC_078320, NC_078321, NC_078322, NC_078323, NC_078324, NC_078325, MN792651, MN792652, MN792653, MN829806, MN829807, MN972594, MN972595, MN972596, NC_078320, NC_078321, NC_078322, NC_078323, NC_078324, NC_078325, MN792651, MN792652, MN792653, MN829806, MN829807, MN972594, MN972595, MN972596, NC_078320, NC_078321, NC_078322, NC_078323, NC_078324, NC_078325</t>
         </is>
       </c>
-      <c r="AD7" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (93)
-&gt;10000 (57)
-100-500 (46)
-3000-5000 (14)
-5000-10000 (7)</t>
-        </is>
-      </c>
-      <c r="AE7" s="3" t="inlineStr">
-        <is>
-          <t>25%-50% (72)
-75%-90% (70)
-50%-75% (54)
-95%-100% (14)
-90%-95% (7)</t>
-        </is>
-      </c>
+      <c r="AD7" s="3" t="inlineStr"/>
+      <c r="AE7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
@@ -1620,7 +1547,8 @@
         <is>
           <t>M (40)
 S (40)
-L (40)</t>
+L (32)
+large segment (8)</t>
         </is>
       </c>
       <c r="X8" s="3" t="inlineStr">
@@ -1643,34 +1571,8 @@
           <t>AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY573568, AY573567, AY573566, AY573565, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AJ620685, AJ620684, AJ620683, AJ620682, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY223476, AY223475</t>
         </is>
       </c>
-      <c r="AD8" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (42)
-1000-3000 (21)
-5000-10000 (21)
-100-500 (14)
-3000-5000 (7)
-573 (2)
-5370 (2)
-1674 (2)
-432 (1)
-433 (1)
-5374 (1)
-1678 (1)
-3998 (1)
-908 (1)
-995 (1)
-944 (1)
-993 (1)</t>
-        </is>
-      </c>
-      <c r="AE8" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (88)
-95%-100% (24)
-90%-95% (8)</t>
-        </is>
-      </c>
+      <c r="AD8" s="3" t="inlineStr"/>
+      <c r="AE8" s="3" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -1760,18 +1662,18 @@
       </c>
       <c r="S9" s="3" t="inlineStr">
         <is>
-          <t>2012 (218)
-2011 (16)
-2010 (10)
-2013 (8)
-2006 (4)
-2003 (4)
-2008 (4)
-2009 (2)
-2004 (2)
-2007 (2)
-2005 (2)
-2001 (2)</t>
+          <t>2012.0 (218)
+2011.0 (16)
+2010.0 (10)
+2013.0 (8)
+2006.0 (4)
+2003.0 (4)
+2008.0 (4)
+2009.0 (2)
+2004.0 (2)
+2007.0 (2)
+2005.0 (2)
+2001.0 (2)</t>
         </is>
       </c>
       <c r="T9" s="3" t="inlineStr">
@@ -1791,8 +1693,9 @@
       </c>
       <c r="W9" s="3" t="inlineStr">
         <is>
-          <t>S (262)
-M (12)</t>
+          <t>NA (190)
+S (80)
+M (4)</t>
         </is>
       </c>
       <c r="X9" s="3" t="inlineStr">
@@ -1813,19 +1716,8 @@
           <t>KR136202, KR136201, KR136200, KR136199, KR136198, KR136197, KR136196, KR136195, KR136194, KR136193, KR136192, KR136191, KR136190, KR136189, KR136188, KR136187, KR136186, KR136185, KR136184, KR136183, KR136182, KR136181, KR136180, KR136179, KR136178, KR136177, KR136176, KR136175, KR136174, KR136202, KR136201, KR136200, KR136199, KR136198, KR136197, KR136196, KR136195, KR136194, KR136193, KR136192, KR136191, KR136190, KR136189, KR136188, KR136187, KR136186, KR136185, KR136184, KR136183, KR136182, KR136181, KR136180, KR136179, KR136178, KR136177, KR136176, KR136175, KR136174, KR136202, KR136201, KR136200, KR136199, KR136198, KR136197, KR136196, KR136195, KR136194, KR136193, KR136192, KR136191, KR136190, KR136189, KR136188, KR136187, KR136186, KR136185, KR136184, KR136183, KR136182, KR136181, KR136180, KR136179, KR136178, KR136177, KR136176, KR136175, KR136174, KR136202, KR136201, KR136200, KR136199, KR136198, KR136197, KR136196, KR136195, KR136194, KR136193, KR136192, KR136191, KR136190, KR136189, KR136188, KR136187, KR136186, KR136185, KR136184, KR136183, KR136182, KR136181, KR136180, KR136179, KR136178, KR136177, KR136176, KR136175, KR136174, KM401454, KP075635, KP075636, KP075637, KP075638, KP075639, KP075640, KP075641, KP075642, KP075643, KP075644, KP075645, KP075646, KP075647, KP075648, KP075649, KP075650, KP075651, KP075652, KP075653, KP075654, KP075655, KP075656, KP075657, KP075658, KP075659, KP075660, KP075661, KP075662, KP075663, KP075664, KP075665, KP075666, KP075667, KP075668, KP075669, KP075670, KP075671, KP075672, KP075673, KP075674, KP075675, KP075676, KP075677, KP075678, KP075679, KP075680, KP075681, KP075682, KP075683, KR136174, KR136175, KR136176, KR136177, KR136178, KR136179, KR136180, KR136181, KR136182, KR136183, KR136184, KR136185, KR136186, KR136187, KR136188, KR136189, KR136190, KR136191, KR136192, KR136193, KR136194, KR136195, KR136196, KR136197, KR136198, KR136199, KR136200, KR136201, KR136202, KM401454, KP075635, KP075636, KP075637, KP075638, KP075639, KP075640, KP075641, KP075642, KP075643, KP075644, KP075645, KP075646, KP075647, KP075648, KP075649, KP075650, KP075651, KP075652, KP075653, KP075654, KP075655, KP075656, KP075657, KP075658, KP075659, KP075660, KP075661, KP075662, KP075663, KP075664, KP075665, KP075666, KP075667, KP075668, KP075669, KP075670, KP075671, KP075672, KP075673, KP075674, KP075675, KP075676, KP075677, KP075678, KP075679, KP075680, KP075681, KP075682, KP075683, KR136174, KR136175, KR136176, KR136177, KR136178, KR136179, KR136180, KR136181, KR136182, KR136183, KR136184, KR136185, KR136186, KR136187, KR136188, KR136189, KR136190, KR136191, KR136192, KR136193, KR136194, KR136195, KR136196, KR136197, KR136198, KR136199, KR136200, KR136201, KR136202</t>
         </is>
       </c>
-      <c r="AD9" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (146)
-500-1000 (128)</t>
-        </is>
-      </c>
-      <c r="AE9" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (156)
-75%-90% (98)
-90%-95% (20)</t>
-        </is>
-      </c>
+      <c r="AD9" s="3" t="inlineStr"/>
+      <c r="AE9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -1943,16 +1835,8 @@
           <t>NC_005301, AY389361, NC_005301, AY389361, NC_005301, AY389361, NC_005301, AY389361, NC_005301, AY389361</t>
         </is>
       </c>
-      <c r="AD10" s="3" t="inlineStr">
-        <is>
-          <t>12108 (10)</t>
-        </is>
-      </c>
-      <c r="AE10" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (10)</t>
-        </is>
-      </c>
+      <c r="AD10" s="3" t="inlineStr"/>
+      <c r="AE10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
@@ -2045,14 +1929,14 @@
       </c>
       <c r="S11" s="3" t="inlineStr">
         <is>
-          <t>1988 (68)
-1989 (40)
-1986 (24)
-1990 (20)
-1985 (18)
-1987 (18)
-2002 (16)
-2001 (8)</t>
+          <t>1988.0 (68)
+1989.0 (40)
+1986.0 (24)
+1990.0 (20)
+1985.0 (18)
+1987.0 (18)
+2002.0 (16)
+2001.0 (8)</t>
         </is>
       </c>
       <c r="T11" s="3" t="inlineStr">
@@ -2074,9 +1958,7 @@
       </c>
       <c r="W11" s="3" t="inlineStr">
         <is>
-          <t>M (138)
-L (46)
-S (28)</t>
+          <t>NA (212)</t>
         </is>
       </c>
       <c r="X11" s="3" t="inlineStr">
@@ -2097,19 +1979,8 @@
           <t>FJ435409, FJ435408, FJ435407, FJ435406, FJ435405, FJ435404, FJ435403, FJ435402, FJ435401, FJ435400, FJ435399, FJ435398, FJ435397, FJ435396, FJ435395, FJ435394, FJ435393, FJ435392, FJ435391, FJ435390, FJ435389, FJ435388, FJ435387, FJ435409, FJ435408, FJ435407, FJ435406, FJ435405, FJ435404, FJ435403, FJ435402, FJ435401, FJ435400, FJ435399, FJ435398, FJ435397, FJ435396, FJ435395, FJ435394, FJ435393, FJ435392, FJ435391, FJ435390, FJ435389, FJ435388, FJ435387, FJ435409, FJ435408, FJ435407, FJ435406, FJ435405, FJ435404, FJ435403, FJ435402, FJ435401, FJ435400, FJ435399, FJ435398, FJ435397, FJ435396, FJ435395, FJ435394, FJ435393, FJ435392, FJ435391, FJ435390, FJ435389, FJ435388, FJ435387, FJ435409, FJ435408, FJ435407, FJ435406, FJ435405, FJ435404, FJ435403, FJ435402, FJ435401, FJ435400, FJ435399, FJ435398, FJ435397, FJ435396, FJ435395, FJ435394, FJ435393, FJ435392, FJ435391, FJ435390, FJ435389, FJ435388, FJ435387, FJ435364, FJ435365, FJ435366, FJ435367, FJ435368, FJ435369, FJ435370, FJ435371, FJ435372, FJ435373, FJ435374, FJ435375, FJ435376, FJ435377, FJ435378, FJ435379, FJ435380, FJ435381, FJ435382, FJ435383, FJ435384, FJ435385, FJ435386, FJ435387, FJ435388, FJ435389, FJ435390, FJ435391, FJ435392, FJ435393, FJ435394, FJ435395, FJ435396, FJ435397, FJ435398, FJ435399, FJ435400, FJ435401, FJ435402, FJ435403, FJ435404, FJ435405, FJ435406, FJ435407, FJ435408, FJ435409, FJ435410, FJ435411, FJ435412, FJ435413, FJ435414, FJ435415, FJ435416, FJ435417, FJ435418, FJ435419, FJ435420, FJ435421, FJ435422, FJ435423, FJ435364, FJ435365, FJ435366, FJ435367, FJ435368, FJ435369, FJ435370, FJ435371, FJ435372, FJ435373, FJ435374, FJ435375, FJ435376, FJ435377, FJ435378, FJ435379, FJ435380, FJ435381, FJ435382, FJ435383, FJ435384, FJ435385, FJ435386, FJ435387, FJ435388, FJ435389, FJ435390, FJ435391, FJ435392, FJ435393, FJ435394, FJ435395, FJ435396, FJ435397, FJ435398, FJ435399, FJ435400, FJ435401, FJ435402, FJ435403, FJ435404, FJ435405, FJ435406, FJ435407, FJ435408, FJ435409, FJ435410, FJ435411, FJ435412, FJ435413, FJ435414, FJ435415, FJ435416, FJ435417, FJ435418, FJ435419, FJ435420, FJ435421, FJ435422, FJ435423</t>
         </is>
       </c>
-      <c r="AD11" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (166)
-500-1000 (46)</t>
-        </is>
-      </c>
-      <c r="AE11" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (126)
-75%-90% (62)
-95%-100% (24)</t>
-        </is>
-      </c>
+      <c r="AD11" s="3" t="inlineStr"/>
+      <c r="AE11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
@@ -2227,7 +2098,8 @@
       <c r="W12" s="3" t="inlineStr">
         <is>
           <t>M (183)
-S (179)</t>
+S (172)
+NA (7)</t>
         </is>
       </c>
       <c r="X12" s="3" t="inlineStr">
@@ -2254,30 +2126,8 @@
           <t>AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF481801, AF481800, AF481802, AF481799, AF481804, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF481806, AF481807, AF492421, AF492422, AF492423, AF492424, AF481806, AF481807, AF492421, AF492422, AF492423, AF492424</t>
         </is>
       </c>
-      <c r="AD12" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (240)
-1000-3000 (39)
-402 (36)
-294 (16)
-420 (10)
-462 (8)
-285 (8)
-468 (2)
-1675 (1)
-1676 (1)
-219 (1)</t>
-        </is>
-      </c>
-      <c r="AE12" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (201)
-25%-50% (54)
-90%-95% (47)
-95%-100% (44)
-50%-75% (16)</t>
-        </is>
-      </c>
+      <c r="AD12" s="3" t="inlineStr"/>
+      <c r="AE12" s="3" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
@@ -2387,7 +2237,7 @@
       </c>
       <c r="W13" s="3" t="inlineStr">
         <is>
-          <t>S (8)</t>
+          <t>NA (8)</t>
         </is>
       </c>
       <c r="X13" s="3" t="inlineStr">
@@ -2412,18 +2262,8 @@
           <t>M86625, M86624, M86625, M86624, M86625, M86624, M86625, M86624</t>
         </is>
       </c>
-      <c r="AD13" s="3" t="inlineStr">
-        <is>
-          <t>1676 (4)
-1455 (4)</t>
-        </is>
-      </c>
-      <c r="AE13" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (4)
-75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD13" s="3" t="inlineStr"/>
+      <c r="AE13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
@@ -2515,7 +2355,7 @@
       </c>
       <c r="S14" s="3" t="inlineStr">
         <is>
-          <t>2005 (56)</t>
+          <t>2005.0 (56)</t>
         </is>
       </c>
       <c r="T14" s="3" t="inlineStr">
@@ -2556,17 +2396,8 @@
           <t>EF189753, EF189752, EF189751, EF189750, EF189749, EF189748, EF189747, EF189746, EF189745, EF189744, EF189743, EF189742, EF189741, EF189740, EF189753, EF189752, EF189751, EF189750, EF189749, EF189748, EF189747, EF189746, EF189745, EF189744, EF189743, EF189742, EF189741, EF189740, EF189753, EF189752, EF189751, EF189750, EF189749, EF189748, EF189747, EF189746, EF189745, EF189744, EF189743, EF189742, EF189741, EF189740, EF189740, EF189741, EF189742, EF189743, EF189744, EF189745, EF189746, EF189747, EF189748, EF189749, EF189750, EF189751, EF189752, EF189753</t>
         </is>
       </c>
-      <c r="AD14" s="3" t="inlineStr">
-        <is>
-          <t>399 (56)</t>
-        </is>
-      </c>
-      <c r="AE14" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (44)
-90%-95% (12)</t>
-        </is>
-      </c>
+      <c r="AD14" s="3" t="inlineStr"/>
+      <c r="AE14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
@@ -2678,8 +2509,7 @@
       </c>
       <c r="W15" s="3" t="inlineStr">
         <is>
-          <t>S (6)
-M (4)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="X15" s="3" t="inlineStr">
@@ -2700,18 +2530,8 @@
           <t>AY675511, AY675511, AY675511, AY550253, AY550254, AY550255, AY550256, AY550257, AY550258, AY675511</t>
         </is>
       </c>
-      <c r="AD15" s="3" t="inlineStr">
-        <is>
-          <t>255 (6)
-5375 (4)</t>
-        </is>
-      </c>
-      <c r="AE15" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (6)
-75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD15" s="3" t="inlineStr"/>
+      <c r="AE15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
@@ -2816,7 +2636,7 @@
       </c>
       <c r="W16" s="3" t="inlineStr">
         <is>
-          <t>M (4)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="X16" s="3" t="inlineStr">
@@ -2837,16 +2657,8 @@
           <t>NC_014661, GU911519, NC_014661, GU911519</t>
         </is>
       </c>
-      <c r="AD16" s="3" t="inlineStr">
-        <is>
-          <t>102 (4)</t>
-        </is>
-      </c>
-      <c r="AE16" s="3" t="inlineStr">
-        <is>
-          <t>25%-50% (4)</t>
-        </is>
-      </c>
+      <c r="AD16" s="3" t="inlineStr"/>
+      <c r="AE16" s="3" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
@@ -2963,7 +2775,8 @@
       </c>
       <c r="W17" s="3" t="inlineStr">
         <is>
-          <t>M (16)</t>
+          <t>M (15)
+NA (1)</t>
         </is>
       </c>
       <c r="X17" s="3" t="inlineStr"/>
@@ -2980,19 +2793,8 @@
           <t>NC_005300, AF467769, AF467768, NC_005300, AF467769, AF467768, NC_005300, AF467768, NC_005300, AF467769, AF467768, NC_005300, AF467769, AF467768, AF467769, U39455</t>
         </is>
       </c>
-      <c r="AD17" s="3" t="inlineStr">
-        <is>
-          <t>5366 (10)
-5389 (5)
-5097 (1)</t>
-        </is>
-      </c>
-      <c r="AE17" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (11)
-75%-90% (5)</t>
-        </is>
-      </c>
+      <c r="AD17" s="3" t="inlineStr"/>
+      <c r="AE17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
@@ -3101,7 +2903,7 @@
       </c>
       <c r="W18" s="3" t="inlineStr">
         <is>
-          <t>S (4)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="X18" s="3" t="inlineStr"/>
@@ -3114,17 +2916,8 @@
           <t>S82581, S82580, S82581, S82580</t>
         </is>
       </c>
-      <c r="AD18" s="3" t="inlineStr">
-        <is>
-          <t>219 (4)</t>
-        </is>
-      </c>
-      <c r="AE18" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)
-95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD18" s="3" t="inlineStr"/>
+      <c r="AE18" s="3" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
@@ -3241,8 +3034,9 @@
       </c>
       <c r="W19" s="3" t="inlineStr">
         <is>
-          <t>S (174)
-M (60)</t>
+          <t>S (160)
+M (60)
+NA (14)</t>
         </is>
       </c>
       <c r="X19" s="3" t="inlineStr"/>
@@ -3259,26 +3053,8 @@
           <t>AY297690, AY297689, AY297688, AY277677, AY297691, AY297692, AY297690, AY297689, AY297688, AY277677, AY297691, AY297692, AY297690, AY297689, AY297688, AY277677, AY297691, AY297692, AY297690, AY297689, AY297688, AY277677, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416</t>
         </is>
       </c>
-      <c r="AD19" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (168)
-1000-3000 (42)
-497 (8)
-495 (4)
-466 (4)
-1675 (4)
-1674 (4)</t>
-        </is>
-      </c>
-      <c r="AE19" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (138)
-90%-95% (42)
-95%-100% (40)
-25%-50% (10)
-50%-75% (4)</t>
-        </is>
-      </c>
+      <c r="AD19" s="3" t="inlineStr"/>
+      <c r="AE19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
@@ -3371,8 +3147,8 @@
       </c>
       <c r="S20" s="3" t="inlineStr">
         <is>
-          <t>2013 (30)
-2014 (15)</t>
+          <t>2013.0 (30)
+2014.0 (15)</t>
         </is>
       </c>
       <c r="T20" s="3" t="inlineStr">
@@ -3416,20 +3192,8 @@
           <t>NC_029124, NC_029123, NC_029122, LC030115, LC030114, LC030113, LC008512, LC008511, LC008510, NC_029124, NC_029123, NC_029122, LC030115, LC030114, LC030113, LC008512, LC008511, LC008510, NC_029124, NC_029123, NC_029122, LC008512, LC008511, LC008510, LC030115, LC030114, LC030113, NC_029124, NC_029123, NC_029122, LC030115, LC030114, LC030113, LC008512, LC008511, LC008510, NC_029124, NC_029123, NC_029122, LC030115, LC030114, LC030113, LC008512, LC008511, LC008510</t>
         </is>
       </c>
-      <c r="AD20" s="3" t="inlineStr">
-        <is>
-          <t>2031 (15)
-1455 (15)
-10581 (10)
-11898 (5)</t>
-        </is>
-      </c>
-      <c r="AE20" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (30)
-25%-50% (15)</t>
-        </is>
-      </c>
+      <c r="AD20" s="3" t="inlineStr"/>
+      <c r="AE20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
@@ -3511,9 +3275,9 @@
       </c>
       <c r="S21" s="3" t="inlineStr">
         <is>
-          <t>2006 (16)
-1999 (1)
-2008 (1)</t>
+          <t>2006.0 (16)
+1999.0 (1)
+2008.0 (1)</t>
         </is>
       </c>
       <c r="T21" s="3" t="inlineStr">
@@ -3533,7 +3297,7 @@
       </c>
       <c r="W21" s="3" t="inlineStr">
         <is>
-          <t>S (18)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="X21" s="3" t="inlineStr">
@@ -3554,16 +3318,8 @@
           <t>GU324993, GU324992, GU324991, GU324990, GU324993, GU324992, GU324991, GU324990, GU324993, GU324992, GU324991, GU324990, GU324989, GU324990, GU324991, GU324992, GU324993, GU324994</t>
         </is>
       </c>
-      <c r="AD21" s="3" t="inlineStr">
-        <is>
-          <t>429 (18)</t>
-        </is>
-      </c>
-      <c r="AE21" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (18)</t>
-        </is>
-      </c>
+      <c r="AD21" s="3" t="inlineStr"/>
+      <c r="AE21" s="3" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
@@ -3644,9 +3400,9 @@
       </c>
       <c r="S22" s="3" t="inlineStr">
         <is>
-          <t>2015 (62)
-2013 (40)
-2014 (18)</t>
+          <t>2015.0 (62)
+2013.0 (40)
+2014.0 (18)</t>
         </is>
       </c>
       <c r="T22" s="3" t="inlineStr">
@@ -3668,7 +3424,8 @@
         <is>
           <t>L (46)
 M (38)
-S (36)</t>
+S (30)
+NA (6)</t>
         </is>
       </c>
       <c r="X22" s="3" t="inlineStr"/>
@@ -3687,22 +3444,8 @@
           <t>KT384403, KT384402, KT384401, KT384399, KT384398, KT384396, KT384394, KT384395, KT384393, KT384392, KT384391, KT384390, KT384389, KT384387, KT384386, KT384385, KT384384, KT384383, KT384403, KT384402, KT384401, KT384399, KT384398, KT384396, KT384394, KT384395, KT384393, KT384392, KT384391, KT384390, KT384389, KT384387, KT384386, KT384385, KT384384, KT384383, KT384403, KT384402, KT384401, KT384399, KT384398, KT384396, KT384394, KT384395, KT384393, KT384392, KT384391, KT384390, KT384389, KT384387, KT384386, KT384385, KT384384, KT384383, KT384403, KT384402, KT384401, KT384399, KT384398, KT384396, KT384394, KT384395, KT384393, KT384392, KT384391, KT384390, KT384389, KT384387, KT384386, KT384385, KT384384, KT384383, KT384382, KT384383, KT384384, KT384385, KT384386, KT384387, KT384388, KT384389, KT384390, KT384391, KT384392, KT384393, KT384394, KT384395, KT384396, KT384397, KT384398, KT384399, KT384400, KT384401, KT384402, KT384403, KT384404, KT724950, KT384382, KT384383, KT384384, KT384385, KT384386, KT384387, KT384388, KT384389, KT384390, KT384391, KT384392, KT384393, KT384394, KT384395, KT384396, KT384397, KT384398, KT384399, KT384400, KT384401, KT384402, KT384403, KT384404, KT724950</t>
         </is>
       </c>
-      <c r="AD22" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (46)
-500-1000 (40)
-100-500 (28)
-3000-5000 (6)</t>
-        </is>
-      </c>
-      <c r="AE22" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (70)
-90%-95% (30)
-95%-100% (12)
-50%-75% (8)</t>
-        </is>
-      </c>
+      <c r="AD22" s="3" t="inlineStr"/>
+      <c r="AE22" s="3" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
@@ -3783,7 +3526,7 @@
       </c>
       <c r="S23" s="3" t="inlineStr">
         <is>
-          <t>2016 (12)</t>
+          <t>2016.0 (12)</t>
         </is>
       </c>
       <c r="T23" s="3" t="inlineStr">
@@ -3826,18 +3569,8 @@
           <t>KY213714, KY213713, KY213712, KY213714, KY213713, KY213712, KY213714, KY213713, KY213712, KY213714, KY213713, KY213712</t>
         </is>
       </c>
-      <c r="AD23" s="3" t="inlineStr">
-        <is>
-          <t>1671 (4)
-5354 (4)
-11923 (4)</t>
-        </is>
-      </c>
-      <c r="AE23" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (12)</t>
-        </is>
-      </c>
+      <c r="AD23" s="3" t="inlineStr"/>
+      <c r="AE23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -3954,8 +3687,9 @@
       </c>
       <c r="W24" s="3" t="inlineStr">
         <is>
-          <t>S (108)
-M (95)</t>
+          <t>S (101)
+M (95)
+NA (7)</t>
         </is>
       </c>
       <c r="X24" s="3" t="inlineStr">
@@ -3976,22 +3710,8 @@
           <t>AF401650, AF401649, AF401648, AF401647, AY093625, AY093624, AY093623, AY093622, AY093621, AY093620, AF401650, AF401649, AF401648, AF401647, AY093625, AY093624, AY093623, AY093622, AY093621, AY093620, AF401650, AF401649, AF401648, AF401647, AY093625, AY093624, AY093623, AY093622, AY093621, AY093620, AF401650, AF401649, AF401648, AF401647, AY093625, AY093624, AY093623, AY093622, AY093621, AY093620, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416</t>
         </is>
       </c>
-      <c r="AD24" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (136)
-321 (40)
-1000-3000 (27)</t>
-        </is>
-      </c>
-      <c r="AE24" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (135)
-90%-95% (28)
-95%-100% (26)
-25%-50% (10)
-50%-75% (4)</t>
-        </is>
-      </c>
+      <c r="AD24" s="3" t="inlineStr"/>
+      <c r="AE24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
@@ -4128,21 +3848,8 @@
           <t>MG974100, MG974101, MG974102, MG974103, MG974104, MG974100, MG974101, MG974102, MG974103, MG974104, MG974100, MG974101, MG974102, MG974103, MG974104</t>
         </is>
       </c>
-      <c r="AD25" s="3" t="inlineStr">
-        <is>
-          <t>180 (6)
-648 (3)
-672 (3)
-181 (3)</t>
-        </is>
-      </c>
-      <c r="AE25" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (9)
-75%-90% (3)
-90%-95% (3)</t>
-        </is>
-      </c>
+      <c r="AD25" s="3" t="inlineStr"/>
+      <c r="AE25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
@@ -4272,23 +3979,8 @@
           <t>AY900141, AY900142, AY900143, AY900144, AY900145, AY900141, AY900142, AY900143, AY900144, AY900145, AY900141, AY900142, AY900143, AY900144, AY900145</t>
         </is>
       </c>
-      <c r="AD26" s="3" t="inlineStr">
-        <is>
-          <t>5052 (3)
-5062 (3)
-5148 (3)
-5056 (3)
-5055 (3)</t>
-        </is>
-      </c>
-      <c r="AE26" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)
-50%-75% (3)
-90%-95% (3)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD26" s="3" t="inlineStr"/>
+      <c r="AE26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -4377,7 +4069,7 @@
       </c>
       <c r="S27" s="3" t="inlineStr">
         <is>
-          <t>2008 (18)</t>
+          <t>2008.0 (18)</t>
         </is>
       </c>
       <c r="T27" s="3" t="inlineStr">
@@ -4397,7 +4089,7 @@
       </c>
       <c r="W27" s="3" t="inlineStr">
         <is>
-          <t>S (18)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="X27" s="3" t="inlineStr">
@@ -4418,17 +4110,8 @@
           <t>KC869988, KC869989, KC869990, KC869991, KC869992, KC869993, KC869988, KC869989, KC869990, KC869991, KC869992, KC869993, KC869988, KC869989, KC869990, KC869991, KC869992, KC869993</t>
         </is>
       </c>
-      <c r="AD27" s="3" t="inlineStr">
-        <is>
-          <t>231 (18)</t>
-        </is>
-      </c>
-      <c r="AE27" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (12)
-90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD27" s="3" t="inlineStr"/>
+      <c r="AE27" s="3" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
@@ -4505,8 +4188,8 @@
       <c r="R28" s="3" t="inlineStr"/>
       <c r="S28" s="3" t="inlineStr">
         <is>
-          <t>2004 (3)
-1998 (3)</t>
+          <t>2004.0 (3)
+1998.0 (3)</t>
         </is>
       </c>
       <c r="T28" s="3" t="inlineStr">
@@ -4527,7 +4210,7 @@
       </c>
       <c r="W28" s="3" t="inlineStr">
         <is>
-          <t>M (6)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="X28" s="3" t="inlineStr">
@@ -4552,17 +4235,8 @@
           <t>KR864901, KR864902, KR864901, KR864902, KR864901, KR864902</t>
         </is>
       </c>
-      <c r="AD28" s="3" t="inlineStr">
-        <is>
-          <t>5404 (3)
-5052 (3)</t>
-        </is>
-      </c>
-      <c r="AE28" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD28" s="3" t="inlineStr"/>
+      <c r="AE28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
@@ -4639,8 +4313,8 @@
       <c r="R29" s="3" t="inlineStr"/>
       <c r="S29" s="3" t="inlineStr">
         <is>
-          <t>2018 (3)
-2012 (3)</t>
+          <t>2018.0 (3)
+2012.0 (3)</t>
         </is>
       </c>
       <c r="T29" s="3" t="inlineStr">
@@ -4685,17 +4359,8 @@
           <t>MK309333, MK309334, MK309333, MK309334, MK309333, MK309334</t>
         </is>
       </c>
-      <c r="AD29" s="3" t="inlineStr">
-        <is>
-          <t>1367 (3)
-1361 (3)</t>
-        </is>
-      </c>
-      <c r="AE29" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD29" s="3" t="inlineStr"/>
+      <c r="AE29" s="3" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
@@ -4776,7 +4441,7 @@
       </c>
       <c r="S30" s="3" t="inlineStr">
         <is>
-          <t>2011 (3)</t>
+          <t>2011.0 (3)</t>
         </is>
       </c>
       <c r="T30" s="3" t="inlineStr">
@@ -4796,7 +4461,7 @@
       </c>
       <c r="W30" s="3" t="inlineStr">
         <is>
-          <t>S (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X30" s="3" t="inlineStr">
@@ -4817,16 +4482,8 @@
           <t>JX227939, JX227939, JX227939</t>
         </is>
       </c>
-      <c r="AD30" s="3" t="inlineStr">
-        <is>
-          <t>991 (3)</t>
-        </is>
-      </c>
-      <c r="AE30" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD30" s="3" t="inlineStr"/>
+      <c r="AE30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
@@ -4915,7 +4572,7 @@
       </c>
       <c r="S31" s="3" t="inlineStr">
         <is>
-          <t>2021 (9)</t>
+          <t>2021.0 (9)</t>
         </is>
       </c>
       <c r="T31" s="3" t="inlineStr">
@@ -4935,7 +4592,7 @@
       </c>
       <c r="W31" s="3" t="inlineStr">
         <is>
-          <t>S (9)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="X31" s="3" t="inlineStr">
@@ -4956,19 +4613,8 @@
           <t>ON783803, ON783804, ON783805, ON783803, ON783804, ON783805, ON783803, ON783804, ON783805</t>
         </is>
       </c>
-      <c r="AD31" s="3" t="inlineStr">
-        <is>
-          <t>488 (3)
-148 (3)
-489 (3)</t>
-        </is>
-      </c>
-      <c r="AE31" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD31" s="3" t="inlineStr"/>
+      <c r="AE31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
@@ -5049,7 +4695,7 @@
       </c>
       <c r="S32" s="3" t="inlineStr">
         <is>
-          <t>2008 (12)</t>
+          <t>2008.0 (12)</t>
         </is>
       </c>
       <c r="T32" s="3" t="inlineStr">
@@ -5069,7 +4715,7 @@
       </c>
       <c r="W32" s="3" t="inlineStr">
         <is>
-          <t>S (12)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="X32" s="3" t="inlineStr">
@@ -5090,16 +4736,8 @@
           <t>GU550068, GU550069, GU550070, GU550071, GU550068, GU550069, GU550070, GU550071, GU550068, GU550069, GU550070, GU550071</t>
         </is>
       </c>
-      <c r="AD32" s="3" t="inlineStr">
-        <is>
-          <t>513 (12)</t>
-        </is>
-      </c>
-      <c r="AE32" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (12)</t>
-        </is>
-      </c>
+      <c r="AD32" s="3" t="inlineStr"/>
+      <c r="AE32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -5228,20 +4866,8 @@
           <t>AY905625, AY905626, AY905627, AY905628, AY905629, AY905630, AY905631, AY905632, AY905633, AY905634, AY905635, AY905636, AY905637, AY905638, AY905639, AY905640, AY905641, AY905642, AY905643, AY905644, AY905645, AY905646, AY905647, AY905648, AY905649, AY905650, AY905651, AY905652, AY905653, AY905654, AY905655, AY905656, AY905657, AY905658, AY905659, AY905660, AY905661, AY905662, AY905663, AY905625, AY905626, AY905627, AY905628, AY905629, AY905630, AY905631, AY905632, AY905633, AY905634, AY905635, AY905636, AY905637, AY905638, AY905639, AY905640, AY905641, AY905642, AY905643, AY905644, AY905645, AY905646, AY905647, AY905648, AY905649, AY905650, AY905651, AY905652, AY905653, AY905654, AY905655, AY905656, AY905657, AY905658, AY905659, AY905660, AY905661, AY905662, AY905663</t>
         </is>
       </c>
-      <c r="AD33" s="3" t="inlineStr">
-        <is>
-          <t>450 (46)
-448 (18)
-447 (14)</t>
-        </is>
-      </c>
-      <c r="AE33" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (44)
-75%-90% (22)
-95%-100% (12)</t>
-        </is>
-      </c>
+      <c r="AD33" s="3" t="inlineStr"/>
+      <c r="AE33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
@@ -5330,7 +4956,7 @@
       </c>
       <c r="S34" s="3" t="inlineStr">
         <is>
-          <t>2019 (60)</t>
+          <t>2019.0 (60)</t>
         </is>
       </c>
       <c r="T34" s="3" t="inlineStr">
@@ -5373,19 +4999,8 @@
           <t>MW548490, MW548491, MW548492, MW548493, MW548494, MW548495, MW548496, MW548497, MW548498, MW548499, MW548500, MW548501, MW548502, MW548503, MW548504, MW548490, MW548491, MW548492, MW548493, MW548494, MW548495, MW548496, MW548497, MW548498, MW548499, MW548500, MW548501, MW548502, MW548503, MW548504, MW548490, MW548491, MW548492, MW548493, MW548494, MW548495, MW548496, MW548497, MW548498, MW548499, MW548500, MW548501, MW548502, MW548503, MW548504, MW548490, MW548491, MW548492, MW548493, MW548494, MW548495, MW548496, MW548497, MW548498, MW548499, MW548500, MW548501, MW548502, MW548503, MW548504</t>
         </is>
       </c>
-      <c r="AD34" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (20)
-5000-10000 (20)
-&gt;10000 (20)</t>
-        </is>
-      </c>
-      <c r="AE34" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (40)
-50%-75% (20)</t>
-        </is>
-      </c>
+      <c r="AD34" s="3" t="inlineStr"/>
+      <c r="AE34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
@@ -5475,18 +5090,18 @@
       </c>
       <c r="S35" s="3" t="inlineStr">
         <is>
-          <t>2012 (66)
-2013 (14)
-2011 (13)
-2010 (5)
-2006 (2)
-2003 (2)
-2008 (2)
-2009 (1)
-2004 (1)
-2007 (1)
-2005 (1)
-2001 (1)</t>
+          <t>2012.0 (66)
+2013.0 (14)
+2011.0 (13)
+2010.0 (5)
+2006.0 (2)
+2003.0 (2)
+2008.0 (2)
+2009.0 (1)
+2004.0 (1)
+2007.0 (1)
+2005.0 (1)
+2001.0 (1)</t>
         </is>
       </c>
       <c r="T35" s="3" t="inlineStr">
@@ -5506,8 +5121,9 @@
       </c>
       <c r="W35" s="3" t="inlineStr">
         <is>
-          <t>S (103)
-M (6)</t>
+          <t>S (70)
+NA (37)
+M (2)</t>
         </is>
       </c>
       <c r="X35" s="3" t="inlineStr">
@@ -5528,24 +5144,8 @@
           <t>KM401454, KP075635, KP075636, KP075637, KP075638, KP075639, KP075640, KP075641, KP075642, KP075643, KP075644, KP075645, KP075646, KP075647, KP075648, KP075649, KP075650, KP075651, KP075652, KP075653, KP075654, KP075655, KP075656, KP075657, KP075658, KP075659, KP075660, KP075661, KP075662, KP075663, KP075664, KP075665, KP075666, KP075667, KP075668, KP075669, KP075670, KP075671, KP075672, KP075673, KP075674, KP075675, KP075676, KP075677, KP075678, KP075679, KP075680, KP075681, KP075682, KP075683, KR136174, KR136175, KR136176, KR136177, KR136178, KR136179, KR136180, KR136181, KR136182, KR136183, KR136184, KR136185, KR136186, KR136187, KR136188, KR136189, KR136190, KR136191, KR136192, KR136193, KR136194, KR136195, KR136196, KR136197, KR136198, KR136199, KR136200, KR136201, KR136202, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542</t>
         </is>
       </c>
-      <c r="AD35" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (57)
-500-1000 (22)
-1677 (10)
-1673 (5)
-1450 (5)
-1680 (5)
-1675 (5)</t>
-        </is>
-      </c>
-      <c r="AE35" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (52)
-75%-90% (49)
-90%-95% (8)</t>
-        </is>
-      </c>
+      <c r="AD35" s="3" t="inlineStr"/>
+      <c r="AE35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
@@ -5678,20 +5278,8 @@
           <t>KP223318, KP223319, KP223320, KP223321, KP223318, KP223319, KP223320, KP223321, KP223318, KP223319, KP223320, KP223321</t>
         </is>
       </c>
-      <c r="AD36" s="3" t="inlineStr">
-        <is>
-          <t>519 (3)
-496 (3)
-510 (3)
-492 (3)</t>
-        </is>
-      </c>
-      <c r="AE36" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (9)
-75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD36" s="3" t="inlineStr"/>
+      <c r="AE36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
@@ -5780,9 +5368,9 @@
       </c>
       <c r="S37" s="3" t="inlineStr">
         <is>
-          <t>2012 (21)
-2013 (14)
-2011 (7)</t>
+          <t>2012.0 (21)
+2013.0 (14)
+2011.0 (7)</t>
         </is>
       </c>
       <c r="T37" s="3" t="inlineStr">
@@ -5823,20 +5411,8 @@
           <t>KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542, KJ027521, KJ027522, KJ196326, KJ485700, KJ566219, KJ676542</t>
         </is>
       </c>
-      <c r="AD37" s="3" t="inlineStr">
-        <is>
-          <t>1677 (14)
-1673 (7)
-1450 (7)
-1680 (7)
-1675 (7)</t>
-        </is>
-      </c>
-      <c r="AE37" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (42)</t>
-        </is>
-      </c>
+      <c r="AD37" s="3" t="inlineStr"/>
+      <c r="AE37" s="3" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
@@ -5925,7 +5501,7 @@
       </c>
       <c r="S38" s="3" t="inlineStr">
         <is>
-          <t>2009 (3)</t>
+          <t>2009.0 (3)</t>
         </is>
       </c>
       <c r="T38" s="3" t="inlineStr">
@@ -5945,7 +5521,7 @@
       </c>
       <c r="W38" s="3" t="inlineStr">
         <is>
-          <t>S (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X38" s="3" t="inlineStr">
@@ -5966,16 +5542,8 @@
           <t>JF706233, JF706233, JF706233</t>
         </is>
       </c>
-      <c r="AD38" s="3" t="inlineStr">
-        <is>
-          <t>229 (3)</t>
-        </is>
-      </c>
-      <c r="AE38" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD38" s="3" t="inlineStr"/>
+      <c r="AE38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
@@ -6064,7 +5632,7 @@
       </c>
       <c r="S39" s="3" t="inlineStr">
         <is>
-          <t>2013 (3)</t>
+          <t>2013.0 (3)</t>
         </is>
       </c>
       <c r="T39" s="3" t="inlineStr">
@@ -6084,7 +5652,7 @@
       </c>
       <c r="W39" s="3" t="inlineStr">
         <is>
-          <t>S (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X39" s="3" t="inlineStr"/>
@@ -6101,16 +5669,8 @@
           <t>KJ000206, KJ000206, KJ000206</t>
         </is>
       </c>
-      <c r="AD39" s="3" t="inlineStr">
-        <is>
-          <t>261 (3)</t>
-        </is>
-      </c>
-      <c r="AE39" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (3)</t>
-        </is>
-      </c>
+      <c r="AD39" s="3" t="inlineStr"/>
+      <c r="AE39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
@@ -6204,17 +5764,17 @@
       </c>
       <c r="S40" s="3" t="inlineStr">
         <is>
-          <t>1975 (18)
-1985 (18)
-1967 (18)
-1956 (9)
-2003 (9)
-1987 (9)
-1997 (9)
-1968 (9)
-1984 (9)
-1972 (9)
-1969 (9)</t>
+          <t>1975.0 (18)
+1985.0 (18)
+1967.0 (18)
+1956.0 (9)
+2003.0 (9)
+1987.0 (9)
+1997.0 (9)
+1968.0 (9)
+1984.0 (9)
+1972.0 (9)
+1969.0 (9)</t>
         </is>
       </c>
       <c r="T40" s="3" t="inlineStr">
@@ -6265,22 +5825,8 @@
           <t>DQ211612, DQ211613, DQ211614, DQ211615, DQ211616, DQ211617, DQ211618, DQ211619, DQ211620, DQ211621, DQ211622, DQ211623, DQ211624, DQ211625, DQ211626, DQ211627, DQ211628, DQ211629, DQ211630, DQ211631, DQ211632, DQ211633, DQ211634, DQ211635, DQ211636, DQ211637, DQ211638, DQ211639, DQ211640, DQ211641, DQ211642, DQ211643, DQ211644, DQ211645, DQ211646, DQ211647, DQ211648, DQ211649, DQ211650, NC_078225, NC_078226, NC_078227, DQ211612, DQ211613, DQ211614, DQ211615, DQ211616, DQ211617, DQ211618, DQ211619, DQ211620, DQ211621, DQ211622, DQ211623, DQ211624, DQ211625, DQ211626, DQ211627, DQ211628, DQ211629, DQ211630, DQ211631, DQ211632, DQ211633, DQ211634, DQ211635, DQ211636, DQ211637, DQ211638, DQ211639, DQ211640, DQ211641, DQ211642, DQ211643, DQ211644, DQ211645, DQ211646, DQ211647, DQ211648, DQ211649, DQ211650, NC_078225, NC_078226, NC_078227, DQ211612, DQ211613, DQ211614, DQ211615, DQ211616, DQ211617, DQ211618, DQ211619, DQ211620, DQ211621, DQ211622, DQ211623, DQ211624, DQ211625, DQ211626, DQ211627, DQ211628, DQ211629, DQ211630, DQ211631, DQ211632, DQ211633, DQ211634, DQ211635, DQ211636, DQ211637, DQ211638, DQ211639, DQ211640, DQ211641, DQ211642, DQ211643, DQ211644, DQ211645, DQ211646, DQ211647, DQ211648, DQ211649, DQ211650, NC_078225, NC_078226, NC_078227</t>
         </is>
       </c>
-      <c r="AD40" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (42)
-&gt;10000 (42)
-5000-10000 (36)
-3000-5000 (6)</t>
-        </is>
-      </c>
-      <c r="AE40" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (90)
-90%-95% (21)
-95%-100% (12)
-50%-75% (3)</t>
-        </is>
-      </c>
+      <c r="AD40" s="3" t="inlineStr"/>
+      <c r="AE40" s="3" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
@@ -6400,18 +5946,8 @@
           <t>JF911697, JF911698, JF911699, JF911697, JF911698, JF911699</t>
         </is>
       </c>
-      <c r="AD41" s="3" t="inlineStr">
-        <is>
-          <t>1458 (2)
-2370 (2)
-11730 (2)</t>
-        </is>
-      </c>
-      <c r="AE41" s="3" t="inlineStr">
-        <is>
-          <t>25%-50% (6)</t>
-        </is>
-      </c>
+      <c r="AD41" s="3" t="inlineStr"/>
+      <c r="AE41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
@@ -6501,8 +6037,8 @@
       </c>
       <c r="S42" s="3" t="inlineStr">
         <is>
-          <t>2015 (308)
-2016 (91)</t>
+          <t>2015.0 (308)
+2016.0 (91)</t>
         </is>
       </c>
       <c r="T42" s="3" t="inlineStr">
@@ -6546,24 +6082,8 @@
           <t>KY963540, KY963541, KY963542, KY963543, KY963544, KY965970, KY965971, KY965972, KY965973, KY965974, KY965975, KY965976, KY965977, KY965978, KY965979, KY965980, KY965981, KY965982, KY965983, KY965984, KY965985, KY965986, KY965987, KY965988, KY965989, KY965990, KY965991, KY965992, KY965993, KY965994, KY965995, KY965996, KY965997, KY965998, KY965999, KY966000, KY966001, KY966002, KY966003, KY966004, KY966005, KY966006, KY966007, KY966008, KY966009, KY966010, KY966011, KY979160, KY979161, KY979162, KY979163, KY979164, KY979165, KY979166, KY979167, KY979168, KY984485, KY963540, KY963541, KY963542, KY963543, KY963544, KY965970, KY965971, KY965972, KY965973, KY965974, KY965975, KY965976, KY965977, KY965978, KY965979, KY965980, KY965981, KY965982, KY965983, KY965984, KY965985, KY965986, KY965987, KY965988, KY965989, KY965990, KY965991, KY965992, KY965993, KY965994, KY965995, KY965996, KY965997, KY965998, KY965999, KY966000, KY966001, KY966002, KY966003, KY966004, KY966005, KY966006, KY966007, KY966008, KY966009, KY966010, KY966011, KY979160, KY979161, KY979162, KY979163, KY979164, KY979165, KY979166, KY979167, KY979168, KY984485, KY963540, KY963541, KY963542, KY963543, KY963544, KY965970, KY965971, KY965972, KY965973, KY965974, KY965975, KY965976, KY965977, KY965978, KY965979, KY965980, KY965981, KY965982, KY965983, KY965984, KY965985, KY965986, KY965987, KY965988, KY965989, KY965990, KY965991, KY965992, KY965993, KY965994, KY965995, KY965996, KY965997, KY965998, KY965999, KY966000, KY966001, KY966002, KY966003, KY966004, KY966005, KY966006, KY966007, KY966008, KY966009, KY966010, KY966011, KY979160, KY979161, KY979162, KY979163, KY979164, KY979165, KY979166, KY979167, KY979168, KY984485, KY963540, KY963541, KY963542, KY963543, KY963544, KY965970, KY965971, KY965972, KY965973, KY965974, KY965975, KY965976, KY965977, KY965978, KY965979, KY965980, KY965981, KY965982, KY965983, KY965984, KY965985, KY965986, KY965987, KY965988, KY965989, KY965990, KY965991, KY965992, KY965993, KY965994, KY965995, KY965996, KY965997, KY965998, KY965999, KY966000, KY966001, KY966002, KY966003, KY966004, KY966005, KY966006, KY966007, KY966008, KY966009, KY966010, KY966011, KY979160, KY979161, KY979162, KY979163, KY979164, KY979165, KY979166, KY979167, KY979168, KY984485, KY963540, KY963541, KY963542, KY963543, KY963544, KY965970, KY965971, KY965972, KY965973, KY965974, KY965975, KY965976, KY965977, KY965978, KY965979, KY965980, KY965981, KY965982, KY965983, KY965984, KY965985, KY965986, KY965987, KY965988, KY965989, KY965990, KY965991, KY965992, KY965993, KY965994, KY965995, KY965996, KY965997, KY965998, KY965999, KY966000, KY966001, KY966002, KY966003, KY966004, KY966005, KY966006, KY966007, KY966008, KY966009, KY966010, KY966011, KY979160, KY979161, KY979162, KY979163, KY979164, KY979165, KY979166, KY979167, KY979168, KY984485, KY963540, KY963541, KY963542, KY963543, KY963544, KY965970, KY965971, KY965972, KY965973, KY965974, KY965975, KY965976, KY965977, KY965978, KY965979, KY965980, KY965981, KY965982, KY965983, KY965984, KY965985, KY965986, KY965987, KY965988, KY965989, KY965990, KY965991, KY965992, KY965993, KY965994, KY965995, KY965996, KY965997, KY965998, KY965999, KY966000, KY966001, KY966002, KY966003, KY966004, KY966005, KY966006, KY966007, KY966008, KY966009, KY966010, KY966011, KY979160, KY979161, KY979162, KY979163, KY979164, KY979165, KY979166, KY979167, KY979168, KY984485, KY963540, KY963541, KY963542, KY963543, KY963544, KY965970, KY965971, KY965972, KY965973, KY965974, KY965975, KY965976, KY965977, KY965978, KY965979, KY965980, KY965981, KY965982, KY965983, KY965984, KY965985, KY965986, KY965987, KY965988, KY965989, KY965990, KY965991, KY965992, KY965993, KY965994, KY965995, KY965996, KY965997, KY965998, KY965999, KY966000, KY966001, KY966002, KY966003, KY966004, KY966005, KY966006, KY966007, KY966008, KY966009, KY966010, KY966011, KY979160, KY979161, KY979162, KY979163, KY979164, KY979165, KY979166, KY979167, KY979168, KY984485</t>
         </is>
       </c>
-      <c r="AD42" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (343)
-30-100 (28)
-&lt;30 (7)
-1000-3000 (7)
-3000-5000 (7)
-&gt;10000 (7)</t>
-        </is>
-      </c>
-      <c r="AE42" s="3" t="inlineStr">
-        <is>
-          <t>0%-25% (266)
-25%-50% (77)
-95%-100% (35)
-75%-90% (21)</t>
-        </is>
-      </c>
+      <c r="AD42" s="3" t="inlineStr"/>
+      <c r="AE42" s="3" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
@@ -6648,7 +6168,7 @@
       </c>
       <c r="S43" s="3" t="inlineStr">
         <is>
-          <t>2020 (15)</t>
+          <t>2020.0 (15)</t>
         </is>
       </c>
       <c r="T43" s="3" t="inlineStr">
@@ -6689,16 +6209,8 @@
           <t>MZ852759, MZ852760, MZ852761, MZ852762, MZ852763, MZ852759, MZ852760, MZ852761, MZ852762, MZ852763, MZ852759, MZ852760, MZ852761, MZ852762, MZ852763</t>
         </is>
       </c>
-      <c r="AD43" s="3" t="inlineStr">
-        <is>
-          <t>462 (15)</t>
-        </is>
-      </c>
-      <c r="AE43" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (15)</t>
-        </is>
-      </c>
+      <c r="AD43" s="3" t="inlineStr"/>
+      <c r="AE43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
@@ -6811,7 +6323,7 @@
       </c>
       <c r="W44" s="3" t="inlineStr">
         <is>
-          <t>S (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X44" s="3" t="inlineStr">
@@ -6832,16 +6344,8 @@
           <t>AF404507, AF404507, AF404507</t>
         </is>
       </c>
-      <c r="AD44" s="3" t="inlineStr">
-        <is>
-          <t>447 (3)</t>
-        </is>
-      </c>
-      <c r="AE44" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD44" s="3" t="inlineStr"/>
+      <c r="AE44" s="3" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
@@ -6969,18 +6473,8 @@
           <t>EU037902, EU044832, EU037902, EU044832, EU037902, EU044832, EU037902, EU044832, DQ133507</t>
         </is>
       </c>
-      <c r="AD45" s="3" t="inlineStr">
-        <is>
-          <t>12077 (4)
-5394 (4)
-1680 (1)</t>
-        </is>
-      </c>
-      <c r="AE45" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)</t>
-        </is>
-      </c>
+      <c r="AD45" s="3" t="inlineStr"/>
+      <c r="AE45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
@@ -7069,8 +6563,8 @@
       </c>
       <c r="S46" s="3" t="inlineStr">
         <is>
-          <t>2009 (101)
-2010 (87)</t>
+          <t>2009.0 (101)
+2010.0 (87)</t>
         </is>
       </c>
       <c r="T46" s="3" t="inlineStr">
@@ -7091,8 +6585,9 @@
       </c>
       <c r="W46" s="3" t="inlineStr">
         <is>
-          <t>S (145)
-M (43)</t>
+          <t>NA (105)
+M (43)
+S (40)</t>
         </is>
       </c>
       <c r="X46" s="3" t="inlineStr"/>
@@ -7109,21 +6604,8 @@
           <t>HQ829854, HQ829854, HQ829816, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ829854</t>
         </is>
       </c>
-      <c r="AD46" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (162)
-100-500 (22)
-407 (3)
-744 (1)</t>
-        </is>
-      </c>
-      <c r="AE46" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (168)
-75%-90% (12)
-95%-100% (8)</t>
-        </is>
-      </c>
+      <c r="AD46" s="3" t="inlineStr"/>
+      <c r="AE46" s="3" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
@@ -7212,7 +6694,7 @@
       </c>
       <c r="S47" s="3" t="inlineStr">
         <is>
-          <t>2020 (9)</t>
+          <t>2020.0 (9)</t>
         </is>
       </c>
       <c r="T47" s="3" t="inlineStr">
@@ -7232,9 +6714,7 @@
       </c>
       <c r="W47" s="3" t="inlineStr">
         <is>
-          <t>S (3)
-M (3)
-L (3)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="X47" s="3" t="inlineStr">
@@ -7255,18 +6735,8 @@
           <t>OP432043, OP432044, OP432045, OP432043, OP432044, OP432045, OP432043, OP432044, OP432045</t>
         </is>
       </c>
-      <c r="AD47" s="3" t="inlineStr">
-        <is>
-          <t>1476 (3)
-4593 (3)
-11886 (3)</t>
-        </is>
-      </c>
-      <c r="AE47" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)</t>
-        </is>
-      </c>
+      <c r="AD47" s="3" t="inlineStr"/>
+      <c r="AE47" s="3" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -7347,7 +6817,7 @@
       </c>
       <c r="S48" s="3" t="inlineStr">
         <is>
-          <t>2012 (33)</t>
+          <t>2012.0 (33)</t>
         </is>
       </c>
       <c r="T48" s="3" t="inlineStr">
@@ -7367,7 +6837,7 @@
       </c>
       <c r="W48" s="3" t="inlineStr">
         <is>
-          <t>S (33)</t>
+          <t>NA (33)</t>
         </is>
       </c>
       <c r="X48" s="3" t="inlineStr">
@@ -7388,18 +6858,8 @@
           <t>KF705526, KF705527, KF705528, KF705529, KF705530, KF705531, KF705532, KF705533, KF705534, KF705535, KF705536, KF705526, KF705527, KF705528, KF705529, KF705530, KF705531, KF705532, KF705533, KF705534, KF705535, KF705536, KF705526, KF705527, KF705528, KF705529, KF705530, KF705531, KF705532, KF705533, KF705534, KF705535, KF705536</t>
         </is>
       </c>
-      <c r="AD48" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (21)
-100-500 (12)</t>
-        </is>
-      </c>
-      <c r="AE48" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (24)
-95%-100% (9)</t>
-        </is>
-      </c>
+      <c r="AD48" s="3" t="inlineStr"/>
+      <c r="AE48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
@@ -7488,7 +6948,7 @@
       </c>
       <c r="S49" s="3" t="inlineStr">
         <is>
-          <t>2001 (6)</t>
+          <t>2001.0 (6)</t>
         </is>
       </c>
       <c r="T49" s="3" t="inlineStr">
@@ -7525,16 +6985,8 @@
           <t>KJ207076, KJ207077, KJ207078, KJ207076, KJ207077, KJ207078</t>
         </is>
       </c>
-      <c r="AD49" s="3" t="inlineStr">
-        <is>
-          <t>219 (6)</t>
-        </is>
-      </c>
-      <c r="AE49" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD49" s="3" t="inlineStr"/>
+      <c r="AE49" s="3" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
@@ -7615,7 +7067,7 @@
       </c>
       <c r="S50" s="3" t="inlineStr">
         <is>
-          <t>2015 (9)</t>
+          <t>2015.0 (9)</t>
         </is>
       </c>
       <c r="T50" s="3" t="inlineStr">
@@ -7635,7 +7087,7 @@
       </c>
       <c r="W50" s="3" t="inlineStr">
         <is>
-          <t>S (9)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="X50" s="3" t="inlineStr">
@@ -7656,19 +7108,8 @@
           <t>KU201597, KU201598, KU201599, KU201597, KU201598, KU201599, KU201597, KU201598, KU201599</t>
         </is>
       </c>
-      <c r="AD50" s="3" t="inlineStr">
-        <is>
-          <t>459 (3)
-438 (3)
-478 (3)</t>
-        </is>
-      </c>
-      <c r="AE50" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD50" s="3" t="inlineStr"/>
+      <c r="AE50" s="3" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
@@ -7754,7 +7195,7 @@
       <c r="R51" s="3" t="inlineStr"/>
       <c r="S51" s="3" t="inlineStr">
         <is>
-          <t>2014 (6)</t>
+          <t>2014.0 (6)</t>
         </is>
       </c>
       <c r="T51" s="3" t="inlineStr">
@@ -7791,17 +7232,8 @@
           <t>KU365757, KU365758, KU365757, KU365758, KU365757, KU365758</t>
         </is>
       </c>
-      <c r="AD51" s="3" t="inlineStr">
-        <is>
-          <t>426 (3)
-469 (3)</t>
-        </is>
-      </c>
-      <c r="AE51" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD51" s="3" t="inlineStr"/>
+      <c r="AE51" s="3" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
@@ -7890,7 +7322,7 @@
       </c>
       <c r="S52" s="3" t="inlineStr">
         <is>
-          <t>2008 (6)</t>
+          <t>2008.0 (6)</t>
         </is>
       </c>
       <c r="T52" s="3" t="inlineStr">
@@ -7929,17 +7361,8 @@
           <t>HQ849545, HQ849546, HQ849545, HQ849546, HQ849545, HQ849546</t>
         </is>
       </c>
-      <c r="AD52" s="3" t="inlineStr">
-        <is>
-          <t>999 (3)
-1353 (3)</t>
-        </is>
-      </c>
-      <c r="AE52" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD52" s="3" t="inlineStr"/>
+      <c r="AE52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
@@ -8028,12 +7451,12 @@
       </c>
       <c r="S53" s="3" t="inlineStr">
         <is>
-          <t>1988 (36)
-1990 (24)
-1987 (24)
-2008 (12)
-1989 (12)
-1985 (12)</t>
+          <t>1988.0 (36)
+1990.0 (24)
+1987.0 (24)
+2008.0 (12)
+1989.0 (12)
+1985.0 (12)</t>
         </is>
       </c>
       <c r="T53" s="3" t="inlineStr">
@@ -8087,20 +7510,8 @@
           <t>KJ682795, KJ682796, KJ682797, KJ682798, KJ682799, KJ682800, KJ682801, KJ682802, KJ682803, KJ682804, KJ682805, KJ682806, KJ682807, KJ682808, KJ682809, KJ682810, KJ682811, KJ682812, KJ682813, KJ682814, KJ682815, KJ682816, KJ682817, KJ682818, KJ682819, KJ682820, KJ682821, KJ682822, KJ682823, KJ682824, KJ682795, KJ682796, KJ682797, KJ682798, KJ682799, KJ682800, KJ682801, KJ682802, KJ682803, KJ682804, KJ682805, KJ682806, KJ682807, KJ682808, KJ682809, KJ682810, KJ682811, KJ682812, KJ682813, KJ682814, KJ682815, KJ682816, KJ682817, KJ682818, KJ682819, KJ682820, KJ682821, KJ682822, KJ682823, KJ682824, KJ682795, KJ682796, KJ682797, KJ682798, KJ682799, KJ682800, KJ682801, KJ682802, KJ682803, KJ682804, KJ682805, KJ682806, KJ682807, KJ682808, KJ682809, KJ682810, KJ682811, KJ682812, KJ682813, KJ682814, KJ682815, KJ682816, KJ682817, KJ682818, KJ682819, KJ682820, KJ682821, KJ682822, KJ682823, KJ682824, KJ682795, KJ682796, KJ682797, KJ682798, KJ682799, KJ682800, KJ682801, KJ682802, KJ682803, KJ682804, KJ682805, KJ682806, KJ682807, KJ682808, KJ682809, KJ682810, KJ682811, KJ682812, KJ682813, KJ682814, KJ682815, KJ682816, KJ682817, KJ682818, KJ682819, KJ682820, KJ682821, KJ682822, KJ682823, KJ682824</t>
         </is>
       </c>
-      <c r="AD53" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (40)
-5000-10000 (40)
-&gt;10000 (40)</t>
-        </is>
-      </c>
-      <c r="AE53" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (72)
-75%-90% (32)
-95%-100% (16)</t>
-        </is>
-      </c>
+      <c r="AD53" s="3" t="inlineStr"/>
+      <c r="AE53" s="3" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
@@ -8181,7 +7592,7 @@
       </c>
       <c r="S54" s="3" t="inlineStr">
         <is>
-          <t>2018 (18)</t>
+          <t>2018.0 (18)</t>
         </is>
       </c>
       <c r="T54" s="3" t="inlineStr">
@@ -8224,19 +7635,8 @@
           <t>MH483984, MH483985, MH483986, MH483987, MH483988, MH483989, MH483984, MH483985, MH483986, MH483987, MH483988, MH483989, MH483984, MH483985, MH483986, MH483987, MH483988, MH483989</t>
         </is>
       </c>
-      <c r="AD54" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (6)
-5000-10000 (6)
-&gt;10000 (6)</t>
-        </is>
-      </c>
-      <c r="AE54" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)
-95%-100% (9)</t>
-        </is>
-      </c>
+      <c r="AD54" s="3" t="inlineStr"/>
+      <c r="AE54" s="3" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
@@ -8366,16 +7766,8 @@
           <t>AY389508, AY389508, AY389508</t>
         </is>
       </c>
-      <c r="AD55" s="3" t="inlineStr">
-        <is>
-          <t>12098 (3)</t>
-        </is>
-      </c>
-      <c r="AE55" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD55" s="3" t="inlineStr"/>
+      <c r="AE55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
@@ -8484,7 +7876,7 @@
       </c>
       <c r="W56" s="3" t="inlineStr">
         <is>
-          <t>L (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X56" s="3" t="inlineStr">
@@ -8505,16 +7897,8 @@
           <t>AY357718, AY357718</t>
         </is>
       </c>
-      <c r="AD56" s="3" t="inlineStr">
-        <is>
-          <t>442 (2)</t>
-        </is>
-      </c>
-      <c r="AE56" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD56" s="3" t="inlineStr"/>
+      <c r="AE56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -8603,7 +7987,7 @@
       </c>
       <c r="S57" s="3" t="inlineStr">
         <is>
-          <t>2012 (27)</t>
+          <t>2012.0 (27)</t>
         </is>
       </c>
       <c r="T57" s="3" t="inlineStr">
@@ -8648,20 +8032,8 @@
           <t>MK299338, MK299339, MK299340, MK299341, MK299342, MK299343, MK299344, MK299345, MK299346, MK299338, MK299339, MK299340, MK299341, MK299342, MK299343, MK299344, MK299345, MK299346, MK299338, MK299339, MK299340, MK299341, MK299342, MK299343, MK299344, MK299345, MK299346</t>
         </is>
       </c>
-      <c r="AD57" s="3" t="inlineStr">
-        <is>
-          <t>4947 (9)
-1446 (9)
-11894 (6)
-11959 (3)</t>
-        </is>
-      </c>
-      <c r="AE57" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (18)
-90%-95% (9)</t>
-        </is>
-      </c>
+      <c r="AD57" s="3" t="inlineStr"/>
+      <c r="AE57" s="3" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
@@ -8750,8 +8122,8 @@
       </c>
       <c r="S58" s="3" t="inlineStr">
         <is>
-          <t>2015 (24)
-2016 (15)</t>
+          <t>2015.0 (24)
+2016.0 (15)</t>
         </is>
       </c>
       <c r="T58" s="3" t="inlineStr">
@@ -8793,21 +8165,8 @@
           <t>LC534898, LC534899, LC534900, LC534901, LC534902, LC534903, LC534904, LC534905, LC534906, LC534907, LC534908, LC534909, LC534910, LC534898, LC534899, LC534900, LC534901, LC534902, LC534903, LC534904, LC534905, LC534906, LC534907, LC534908, LC534909, LC534910, LC534898, LC534899, LC534900, LC534901, LC534902, LC534903, LC534904, LC534905, LC534906, LC534907, LC534908, LC534909, LC534910</t>
         </is>
       </c>
-      <c r="AD58" s="3" t="inlineStr">
-        <is>
-          <t>219 (30)
-515 (3)
-465 (3)
-1293 (3)</t>
-        </is>
-      </c>
-      <c r="AE58" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (33)
-25%-50% (3)
-75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD58" s="3" t="inlineStr"/>
+      <c r="AE58" s="3" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
@@ -8916,7 +8275,7 @@
       </c>
       <c r="W59" s="3" t="inlineStr">
         <is>
-          <t>S (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X59" s="3" t="inlineStr">
@@ -8933,16 +8292,8 @@
           <t>AY508484, AY508485</t>
         </is>
       </c>
-      <c r="AD59" s="3" t="inlineStr">
-        <is>
-          <t>483 (2)</t>
-        </is>
-      </c>
-      <c r="AE59" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD59" s="3" t="inlineStr"/>
+      <c r="AE59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
@@ -9031,7 +8382,7 @@
       </c>
       <c r="S60" s="3" t="inlineStr">
         <is>
-          <t>2009 (4)</t>
+          <t>2009.0 (4)</t>
         </is>
       </c>
       <c r="T60" s="3" t="inlineStr">
@@ -9051,7 +8402,7 @@
       </c>
       <c r="W60" s="3" t="inlineStr">
         <is>
-          <t>S (4)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="X60" s="3" t="inlineStr"/>
@@ -9068,17 +8419,8 @@
           <t>KT599097, KT599098, KT599097, KT599098</t>
         </is>
       </c>
-      <c r="AD60" s="3" t="inlineStr">
-        <is>
-          <t>312 (2)
-364 (2)</t>
-        </is>
-      </c>
-      <c r="AE60" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD60" s="3" t="inlineStr"/>
+      <c r="AE60" s="3" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
@@ -9167,7 +8509,7 @@
       </c>
       <c r="S61" s="3" t="inlineStr">
         <is>
-          <t>2015 (9)</t>
+          <t>2015.0 (9)</t>
         </is>
       </c>
       <c r="T61" s="3" t="inlineStr">
@@ -9212,19 +8554,8 @@
           <t>MN901925, MN901926, MN901927, MN901925, MN901926, MN901927, MN901925, MN901926, MN901927</t>
         </is>
       </c>
-      <c r="AD61" s="3" t="inlineStr">
-        <is>
-          <t>1676 (3)
-5016 (3)
-11930 (3)</t>
-        </is>
-      </c>
-      <c r="AE61" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)
-50%-75% (3)</t>
-        </is>
-      </c>
+      <c r="AD61" s="3" t="inlineStr"/>
+      <c r="AE61" s="3" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
@@ -9313,7 +8644,7 @@
       </c>
       <c r="S62" s="3" t="inlineStr">
         <is>
-          <t>2010 (6)</t>
+          <t>2010.0 (6)</t>
         </is>
       </c>
       <c r="T62" s="3" t="inlineStr">
@@ -9333,7 +8664,7 @@
       </c>
       <c r="W62" s="3" t="inlineStr">
         <is>
-          <t>S (6)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="X62" s="3" t="inlineStr">
@@ -9354,16 +8685,8 @@
           <t>KF727976, KF727977, KF727976, KF727977, KF727976, KF727977</t>
         </is>
       </c>
-      <c r="AD62" s="3" t="inlineStr">
-        <is>
-          <t>261 (6)</t>
-        </is>
-      </c>
-      <c r="AE62" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD62" s="3" t="inlineStr"/>
+      <c r="AE62" s="3" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
@@ -9455,16 +8778,16 @@
       </c>
       <c r="S63" s="3" t="inlineStr">
         <is>
-          <t>1968 (27)
-2000 (27)
-1973 (18)
-1958 (9)
-1984 (9)
-1989 (9)
-1971 (9)
-1965 (9)
-1967 (9)
-1969 (9)</t>
+          <t>1968.0 (27)
+2000.0 (27)
+1973.0 (18)
+1958.0 (9)
+1984.0 (9)
+1989.0 (9)
+1971.0 (9)
+1965.0 (9)
+1967.0 (9)
+1969.0 (9)</t>
         </is>
       </c>
       <c r="T63" s="3" t="inlineStr">
@@ -9513,21 +8836,8 @@
           <t>KX013444, KX013445, KX013446, KX013447, KX013448, KX013449, KX013450, KX013451, KX013452, KX013453, KX013454, KX013455, KX013456, KX013457, KX013458, KX013459, KX013460, KX013461, KX013462, KX013463, KX013464, KX013465, KX013466, KX013467, KX013468, KX013469, KX013470, KX013471, KX013472, KX013473, KX013474, KX013475, KX013476, KX013477, KX013478, KX013479, KX013480, KX013481, KX013482, KX013483, KX013484, KX013485, KX013486, KX013487, KX013488, KX013444, KX013445, KX013446, KX013447, KX013448, KX013449, KX013450, KX013451, KX013452, KX013453, KX013454, KX013455, KX013456, KX013457, KX013458, KX013459, KX013460, KX013461, KX013462, KX013463, KX013464, KX013465, KX013466, KX013467, KX013468, KX013469, KX013470, KX013471, KX013472, KX013473, KX013474, KX013475, KX013476, KX013477, KX013478, KX013479, KX013480, KX013481, KX013482, KX013483, KX013484, KX013485, KX013486, KX013487, KX013488, KX013444, KX013445, KX013446, KX013447, KX013448, KX013449, KX013450, KX013451, KX013452, KX013453, KX013454, KX013455, KX013456, KX013457, KX013458, KX013459, KX013460, KX013461, KX013462, KX013463, KX013464, KX013465, KX013466, KX013467, KX013468, KX013469, KX013470, KX013471, KX013472, KX013473, KX013474, KX013475, KX013476, KX013477, KX013478, KX013479, KX013480, KX013481, KX013482, KX013483, KX013484, KX013485, KX013486, KX013487, KX013488</t>
         </is>
       </c>
-      <c r="AD63" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (45)
-&gt;10000 (45)
-5000-10000 (42)
-3000-5000 (3)</t>
-        </is>
-      </c>
-      <c r="AE63" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (129)
-90%-95% (3)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD63" s="3" t="inlineStr"/>
+      <c r="AE63" s="3" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
@@ -9616,7 +8926,7 @@
       </c>
       <c r="S64" s="3" t="inlineStr">
         <is>
-          <t>2009 (12)</t>
+          <t>2009.0 (12)</t>
         </is>
       </c>
       <c r="T64" s="3" t="inlineStr">
@@ -9653,18 +8963,8 @@
           <t>HM853679, HM853680, HM853681, HM853682, HM853679, HM853680, HM853681, HM853682, HM853679, HM853680, HM853681, HM853682</t>
         </is>
       </c>
-      <c r="AD64" s="3" t="inlineStr">
-        <is>
-          <t>231 (9)
-186 (3)</t>
-        </is>
-      </c>
-      <c r="AE64" s="3" t="inlineStr">
-        <is>
-          <t>0%-25% (9)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD64" s="3" t="inlineStr"/>
+      <c r="AE64" s="3" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
@@ -9755,15 +9055,15 @@
       </c>
       <c r="S65" s="3" t="inlineStr">
         <is>
-          <t>2002 (6)
-2000 (4)
-1991 (3)
-2001 (3)
-1976 (1)
-1984 (1)
-1985 (1)
-1990 (1)
-2003 (1)</t>
+          <t>2002.0 (6)
+2000.0 (4)
+1991.0 (3)
+2001.0 (3)
+1976.0 (1)
+1984.0 (1)
+1985.0 (1)
+1990.0 (1)
+2003.0 (1)</t>
         </is>
       </c>
       <c r="T65" s="3" t="inlineStr">
@@ -9787,9 +9087,10 @@
       </c>
       <c r="W65" s="3" t="inlineStr">
         <is>
-          <t>L (15)
+          <t>L (13)
 M (3)
-S (3)</t>
+S (3)
+NA (2)</t>
         </is>
       </c>
       <c r="X65" s="3" t="inlineStr">
@@ -9810,23 +9111,8 @@
           <t>DQ206447, DQ206448, DQ206447, DQ206448, DQ206449, DQ206447, DQ206448, AY995158, AY995159, AY995160, AY995161, AY995162, AY995163, AY995164, AY995165, AY995166, AY995167, AY995168, AY995169, AY995170, DQ206449</t>
         </is>
       </c>
-      <c r="AD65" s="3" t="inlineStr">
-        <is>
-          <t>1056 (9)
-1058 (4)
-5400 (3)
-1679 (3)
-1060 (1)
-12023 (1)</t>
-        </is>
-      </c>
-      <c r="AE65" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (12)
-90%-95% (5)
-95%-100% (4)</t>
-        </is>
-      </c>
+      <c r="AD65" s="3" t="inlineStr"/>
+      <c r="AE65" s="3" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
@@ -9915,14 +9201,14 @@
       </c>
       <c r="S66" s="3" t="inlineStr">
         <is>
-          <t>2000 (12)
-2001 (9)
-1991 (6)
-1976 (3)
-1984 (3)
-1985 (3)
-1990 (3)
-2003 (3)</t>
+          <t>2000.0 (12)
+2001.0 (9)
+1991.0 (6)
+1976.0 (3)
+1984.0 (3)
+1985.0 (3)
+1990.0 (3)
+2003.0 (3)</t>
         </is>
       </c>
       <c r="T66" s="3" t="inlineStr">
@@ -9946,7 +9232,8 @@
       </c>
       <c r="W66" s="3" t="inlineStr">
         <is>
-          <t>L (42)</t>
+          <t>L (39)
+NA (3)</t>
         </is>
       </c>
       <c r="X66" s="3" t="inlineStr">
@@ -9967,21 +9254,8 @@
           <t>AY995158, AY995159, AY995160, AY995161, AY995162, AY995163, AY995164, AY995165, AY995166, AY995167, AY995168, AY995169, AY995170, DQ206449, AY995158, AY995159, AY995160, AY995161, AY995162, AY995163, AY995164, AY995165, AY995166, AY995167, AY995168, AY995169, AY995170, DQ206449, AY995158, AY995159, AY995160, AY995161, AY995162, AY995163, AY995164, AY995165, AY995166, AY995167, AY995168, AY995169, AY995170, DQ206449</t>
         </is>
       </c>
-      <c r="AD66" s="3" t="inlineStr">
-        <is>
-          <t>1056 (24)
-1058 (12)
-1060 (3)
-12023 (3)</t>
-        </is>
-      </c>
-      <c r="AE66" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (18)
-90%-95% (15)
-95%-100% (9)</t>
-        </is>
-      </c>
+      <c r="AD66" s="3" t="inlineStr"/>
+      <c r="AE66" s="3" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
@@ -10072,14 +9346,14 @@
       <c r="S67" s="3" t="inlineStr">
         <is>
           <t>NA (8)
-2000 (4)
-2001 (3)
-1991 (2)
-1976 (1)
-1984 (1)
-1985 (1)
-1990 (1)
-2003 (1)</t>
+2000.0 (4)
+2001.0 (3)
+1991.0 (2)
+1976.0 (1)
+1984.0 (1)
+1985.0 (1)
+1990.0 (1)
+2003.0 (1)</t>
         </is>
       </c>
       <c r="T67" s="3" t="inlineStr">
@@ -10103,7 +9377,8 @@
       </c>
       <c r="W67" s="3" t="inlineStr">
         <is>
-          <t>L (22)</t>
+          <t>L (21)
+NA (1)</t>
         </is>
       </c>
       <c r="X67" s="3" t="inlineStr">
@@ -10124,23 +9399,8 @@
           <t>AY675240, AY720893, AY675240, AY720893, AY995158, AY995159, AY995160, AY995161, AY995162, AY995163, AY995164, AY995165, AY995166, AY995167, AY995168, AY995169, AY995170, DQ206449, AY675240, AY720893, AY675240, AY720893</t>
         </is>
       </c>
-      <c r="AD67" s="3" t="inlineStr">
-        <is>
-          <t>1056 (8)
-11912 (4)
-12022 (4)
-1058 (4)
-1060 (1)
-12023 (1)</t>
-        </is>
-      </c>
-      <c r="AE67" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (14)
-90%-95% (5)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD67" s="3" t="inlineStr"/>
+      <c r="AE67" s="3" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
@@ -10270,16 +9530,8 @@
           <t>EU057975, EU057975, EU057975</t>
         </is>
       </c>
-      <c r="AD68" s="3" t="inlineStr">
-        <is>
-          <t>438 (3)</t>
-        </is>
-      </c>
-      <c r="AE68" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD68" s="3" t="inlineStr"/>
+      <c r="AE68" s="3" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
@@ -10368,7 +9620,7 @@
       </c>
       <c r="S69" s="3" t="inlineStr">
         <is>
-          <t>2017 (36)</t>
+          <t>2017.0 (36)</t>
         </is>
       </c>
       <c r="T69" s="3" t="inlineStr">
@@ -10409,18 +9661,8 @@
           <t>MK297919, MK297920, MK297921, MK297922, MK297923, MK297924, MK297925, MK297926, MK297927, MK297928, MK297929, MK297930, MK297931, MK297932, MK297933, MK297934, MK297935, MK297936, MK297919, MK297920, MK297921, MK297922, MK297923, MK297924, MK297925, MK297926, MK297927, MK297928, MK297929, MK297930, MK297931, MK297932, MK297933, MK297934, MK297935, MK297936</t>
         </is>
       </c>
-      <c r="AD69" s="3" t="inlineStr">
-        <is>
-          <t>210 (30)
-207 (6)</t>
-        </is>
-      </c>
-      <c r="AE69" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (30)
-75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD69" s="3" t="inlineStr"/>
+      <c r="AE69" s="3" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
@@ -10550,20 +9792,8 @@
           <t>AB069669, AB069670, AB069671, AB069672, AB069673, AB069674, AB069675, AB069669, AB069670, AB069671, AB069672, AB069673, AB069674, AB069675, AB069669, AB069670, AB069671, AB069672, AB069673, AB069674, AB069675</t>
         </is>
       </c>
-      <c r="AD70" s="3" t="inlineStr">
-        <is>
-          <t>5395 (6)
-5115 (6)
-5369 (3)
-5368 (3)
-5195 (3)</t>
-        </is>
-      </c>
-      <c r="AE70" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (21)</t>
-        </is>
-      </c>
+      <c r="AD70" s="3" t="inlineStr"/>
+      <c r="AE70" s="3" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
@@ -10652,7 +9882,7 @@
       </c>
       <c r="S71" s="3" t="inlineStr">
         <is>
-          <t>2009 (9)</t>
+          <t>2009.0 (9)</t>
         </is>
       </c>
       <c r="T71" s="3" t="inlineStr">
@@ -10695,18 +9925,8 @@
           <t>HM452305, HM452306, HM452307, HM452305, HM452306, HM452307, HM452305, HM452306, HM452307</t>
         </is>
       </c>
-      <c r="AD71" s="3" t="inlineStr">
-        <is>
-          <t>11928 (3)
-5371 (3)
-1681 (3)</t>
-        </is>
-      </c>
-      <c r="AE71" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)</t>
-        </is>
-      </c>
+      <c r="AD71" s="3" t="inlineStr"/>
+      <c r="AE71" s="3" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
@@ -10803,7 +10023,7 @@
       </c>
       <c r="W72" s="3" t="inlineStr">
         <is>
-          <t>S (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X72" s="3" t="inlineStr">
@@ -10824,16 +10044,8 @@
           <t>KT851448, KT851448, KT851448</t>
         </is>
       </c>
-      <c r="AD72" s="3" t="inlineStr">
-        <is>
-          <t>216 (3)</t>
-        </is>
-      </c>
-      <c r="AE72" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (3)</t>
-        </is>
-      </c>
+      <c r="AD72" s="3" t="inlineStr"/>
+      <c r="AE72" s="3" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
@@ -10922,7 +10134,7 @@
       </c>
       <c r="S73" s="3" t="inlineStr">
         <is>
-          <t>2006 (9)</t>
+          <t>2006.0 (9)</t>
         </is>
       </c>
       <c r="T73" s="3" t="inlineStr">
@@ -10969,18 +10181,8 @@
           <t>GQ337053, GQ337054, GQ337055, GQ337053, GQ337054, GQ337055, GQ337053, GQ337054, GQ337055</t>
         </is>
       </c>
-      <c r="AD73" s="3" t="inlineStr">
-        <is>
-          <t>12078 (3)
-5397 (3)
-1680 (3)</t>
-        </is>
-      </c>
-      <c r="AE73" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)</t>
-        </is>
-      </c>
+      <c r="AD73" s="3" t="inlineStr"/>
+      <c r="AE73" s="3" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
@@ -11057,7 +10259,7 @@
       <c r="R74" s="3" t="inlineStr"/>
       <c r="S74" s="3" t="inlineStr">
         <is>
-          <t>2009 (6)</t>
+          <t>2009.0 (6)</t>
         </is>
       </c>
       <c r="T74" s="3" t="inlineStr">
@@ -11098,17 +10300,8 @@
           <t>GU084161, GU084162, GU084161, GU084162, GU084161, GU084162</t>
         </is>
       </c>
-      <c r="AD74" s="3" t="inlineStr">
-        <is>
-          <t>363 (3)
-372 (3)</t>
-        </is>
-      </c>
-      <c r="AE74" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD74" s="3" t="inlineStr"/>
+      <c r="AE74" s="3" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
@@ -11195,10 +10388,10 @@
       </c>
       <c r="S75" s="3" t="inlineStr">
         <is>
-          <t>2014 (26)
-2011 (14)
-2012 (11)
-2013 (7)</t>
+          <t>2014.0 (26)
+2011.0 (14)
+2012.0 (11)
+2013.0 (7)</t>
         </is>
       </c>
       <c r="T75" s="3" t="inlineStr">
@@ -11219,7 +10412,7 @@
       </c>
       <c r="W75" s="3" t="inlineStr">
         <is>
-          <t>S (53)
+          <t>NA (53)
 M (3)
 L (2)</t>
         </is>
@@ -11242,28 +10435,8 @@
           <t>KX227372, KX227373, KX227374, KX227375, KX227376, KX227377, KX227372, KX227373, KX227374, KX227375, KX227376, KX227377, KR092381, KR092379, KR092374, KR092373, KT334330, KT334329, KX227372, KX227373, KX227374, KX227375, KX227376, KX227377, KR011837, KR011838, KR011839, KR092373, KR092374, KR092379, KR092381, KT334329, KT334330, KR059957, KR059958, KR059959, KR059960, KR059961, KR059962, KR059963, KR059964, KR059965, KR059966, KR059967, KR059968, KR059969, KR059970, KR059971, KR059972, KR059973, KR059974, KR059975, KR059976, KR092375, KR092376, KR092377, KR092378, KR092380</t>
         </is>
       </c>
-      <c r="AD75" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (20)
-1000-3000 (11)
-219 (7)
-405 (6)
-471 (3)
-360 (3)
-498 (3)
-500-1000 (2)
-444 (1)
-5399 (1)
-5000-10000 (1)</t>
-        </is>
-      </c>
-      <c r="AE75" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (42)
-75%-90% (13)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD75" s="3" t="inlineStr"/>
+      <c r="AE75" s="3" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
@@ -11353,12 +10526,12 @@
       </c>
       <c r="S76" s="3" t="inlineStr">
         <is>
-          <t>2014 (6)
-2007 (6)
-2005 (3)
-2013 (3)
-2008 (3)
-2010 (3)</t>
+          <t>2014.0 (6)
+2007.0 (6)
+2005.0 (3)
+2013.0 (3)
+2008.0 (3)
+2010.0 (3)</t>
         </is>
       </c>
       <c r="T76" s="3" t="inlineStr">
@@ -11378,7 +10551,7 @@
       </c>
       <c r="W76" s="3" t="inlineStr">
         <is>
-          <t>S (24)</t>
+          <t>NA (24)</t>
         </is>
       </c>
       <c r="X76" s="3" t="inlineStr">
@@ -11399,18 +10572,8 @@
           <t>MF612174, MF612175, MF612176, MF612177, MF612178, MF612179, MF612180, MF612181, MF612174, MF612175, MF612176, MF612177, MF612178, MF612179, MF612180, MF612181, MF612174, MF612175, MF612176, MF612177, MF612178, MF612179, MF612180, MF612181</t>
         </is>
       </c>
-      <c r="AD76" s="3" t="inlineStr">
-        <is>
-          <t>219 (15)
-498 (9)</t>
-        </is>
-      </c>
-      <c r="AE76" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (18)
-90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD76" s="3" t="inlineStr"/>
+      <c r="AE76" s="3" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
@@ -11519,7 +10682,7 @@
       </c>
       <c r="W77" s="3" t="inlineStr">
         <is>
-          <t>S (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X77" s="3" t="inlineStr">
@@ -11540,16 +10703,8 @@
           <t>AF449482, AF449482</t>
         </is>
       </c>
-      <c r="AD77" s="3" t="inlineStr">
-        <is>
-          <t>255 (2)</t>
-        </is>
-      </c>
-      <c r="AE77" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD77" s="3" t="inlineStr"/>
+      <c r="AE77" s="3" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
@@ -11661,8 +10816,7 @@
       </c>
       <c r="W78" s="3" t="inlineStr">
         <is>
-          <t>S (18)
-M (3)</t>
+          <t>NA (21)</t>
         </is>
       </c>
       <c r="X78" s="3" t="inlineStr"/>
@@ -11679,18 +10833,8 @@
           <t>AY550253, AY550254, AY550255, AY550256, AY550257, AY550258, AY675511, AY550253, AY550254, AY550255, AY550256, AY550257, AY550258, AY675511, AY550253, AY550254, AY550255, AY550256, AY550257, AY550258, AY675511</t>
         </is>
       </c>
-      <c r="AD78" s="3" t="inlineStr">
-        <is>
-          <t>255 (18)
-5375 (3)</t>
-        </is>
-      </c>
-      <c r="AE78" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (18)
-75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD78" s="3" t="inlineStr"/>
+      <c r="AE78" s="3" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
@@ -11800,7 +10944,8 @@
       </c>
       <c r="W79" s="3" t="inlineStr">
         <is>
-          <t>S (7)</t>
+          <t>S (4)
+NA (3)</t>
         </is>
       </c>
       <c r="X79" s="3" t="inlineStr">
@@ -11821,18 +10966,8 @@
           <t>AF428144, AF428145, AF428144, AF428145, AF428144, AF428144, AF428145</t>
         </is>
       </c>
-      <c r="AD79" s="3" t="inlineStr">
-        <is>
-          <t>1680 (4)
-255 (3)</t>
-        </is>
-      </c>
-      <c r="AE79" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4)
-90%-95% (3)</t>
-        </is>
-      </c>
+      <c r="AD79" s="3" t="inlineStr"/>
+      <c r="AE79" s="3" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
@@ -11921,7 +11056,7 @@
       </c>
       <c r="S80" s="3" t="inlineStr">
         <is>
-          <t>2012 (3)</t>
+          <t>2012.0 (3)</t>
         </is>
       </c>
       <c r="T80" s="3" t="inlineStr">
@@ -11962,16 +11097,8 @@
           <t>KF146306, KF146306, KF146306</t>
         </is>
       </c>
-      <c r="AD80" s="3" t="inlineStr">
-        <is>
-          <t>529 (3)</t>
-        </is>
-      </c>
-      <c r="AE80" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD80" s="3" t="inlineStr"/>
+      <c r="AE80" s="3" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
@@ -12061,7 +11188,7 @@
       </c>
       <c r="S81" s="3" t="inlineStr">
         <is>
-          <t>2008 (8)</t>
+          <t>2008.0 (8)</t>
         </is>
       </c>
       <c r="T81" s="3" t="inlineStr">
@@ -12100,17 +11227,8 @@
           <t>EU871766, FJ643480, EU871766, FJ643480, EU871766, FJ643480, EU871766, FJ643480</t>
         </is>
       </c>
-      <c r="AD81" s="3" t="inlineStr">
-        <is>
-          <t>255 (4)
-1506 (4)</t>
-        </is>
-      </c>
-      <c r="AE81" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (8)</t>
-        </is>
-      </c>
+      <c r="AD81" s="3" t="inlineStr"/>
+      <c r="AE81" s="3" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -12200,8 +11318,8 @@
       </c>
       <c r="S82" s="3" t="inlineStr">
         <is>
-          <t>1981 (9)
-2004 (3)</t>
+          <t>1981.0 (9)
+2004.0 (3)</t>
         </is>
       </c>
       <c r="T82" s="3" t="inlineStr">
@@ -12241,22 +11359,8 @@
           <t>GU477489, GU477490, GU477491, GU477489, GU477490, GU477491, GU477489, GU477490, GU477491, GU477492, GU477493, GU477494</t>
         </is>
       </c>
-      <c r="AD82" s="3" t="inlineStr">
-        <is>
-          <t>474 (3)
-5182 (3)
-1678 (3)
-1674 (1)
-5115 (1)
-12064 (1)</t>
-        </is>
-      </c>
-      <c r="AE82" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD82" s="3" t="inlineStr"/>
+      <c r="AE82" s="3" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
@@ -12367,7 +11471,7 @@
       </c>
       <c r="W83" s="3" t="inlineStr">
         <is>
-          <t>S (44)</t>
+          <t>NA (44)</t>
         </is>
       </c>
       <c r="X83" s="3" t="inlineStr">
@@ -12388,18 +11492,8 @@
           <t>U75668, U75669, U75670, U75671, U75672, U75673, U75674, U75675, U75676, U75677, U75678, U75668, U75669, U75670, U75671, U75672, U75673, U75674, U75675, U75676, U75677, U75678, U75668, U75669, U75670, U75671, U75672, U75673, U75674, U75675, U75676, U75677, U75678, U75668, U75669, U75670, U75671, U75672, U75673, U75674, U75675, U75676, U75677, U75678</t>
         </is>
       </c>
-      <c r="AD83" s="3" t="inlineStr">
-        <is>
-          <t>219 (36)
-220 (8)</t>
-        </is>
-      </c>
-      <c r="AE83" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (32)
-90%-95% (12)</t>
-        </is>
-      </c>
+      <c r="AD83" s="3" t="inlineStr"/>
+      <c r="AE83" s="3" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
@@ -12480,7 +11574,7 @@
       </c>
       <c r="S84" s="3" t="inlineStr">
         <is>
-          <t>2014 (3)</t>
+          <t>2014.0 (3)</t>
         </is>
       </c>
       <c r="T84" s="3" t="inlineStr">
@@ -12521,16 +11615,8 @@
           <t>ON557389, ON557389, ON557389</t>
         </is>
       </c>
-      <c r="AD84" s="3" t="inlineStr">
-        <is>
-          <t>393 (3)</t>
-        </is>
-      </c>
-      <c r="AE84" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD84" s="3" t="inlineStr"/>
+      <c r="AE84" s="3" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -12670,29 +11756,8 @@
           <t>AY179961, AY179962, AY179963, AY179961, AY179962, AY179963, AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF481806, AF481807, AF492421, AF492422, AF492423, AF492424, AY179961, AY179962, AY179963</t>
         </is>
       </c>
-      <c r="AD85" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (52)
-402 (6)
-1000-3000 (6)
-294 (4)
-978 (3)
-5159 (3)
-5315 (3)
-420 (3)
-462 (2)
-285 (2)</t>
-        </is>
-      </c>
-      <c r="AE85" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (49)
-25%-50% (14)
-90%-95% (9)
-95%-100% (8)
-50%-75% (4)</t>
-        </is>
-      </c>
+      <c r="AD85" s="3" t="inlineStr"/>
+      <c r="AE85" s="3" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
@@ -12781,9 +11846,9 @@
       </c>
       <c r="S86" s="3" t="inlineStr">
         <is>
-          <t>2019 (20)
-2018 (14)
-2017 (8)</t>
+          <t>2019.0 (20)
+2018.0 (14)
+2017.0 (8)</t>
         </is>
       </c>
       <c r="T86" s="3" t="inlineStr">
@@ -12820,16 +11885,8 @@
           <t>MW915541, MW915542, MW915543, MW915544, MW915545, MW915546, MW915547, MW915548, MW915549, MW915550, MW915551, MW915552, MW915553, MW915554, MW915555, MW915556, MW915557, MW915558, MW915559, MW915560, MW915561, MW915541, MW915542, MW915543, MW915544, MW915545, MW915546, MW915547, MW915548, MW915549, MW915550, MW915551, MW915552, MW915553, MW915554, MW915555, MW915556, MW915557, MW915558, MW915559, MW915560, MW915561</t>
         </is>
       </c>
-      <c r="AD86" s="3" t="inlineStr">
-        <is>
-          <t>195 (42)</t>
-        </is>
-      </c>
-      <c r="AE86" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (42)</t>
-        </is>
-      </c>
+      <c r="AD86" s="3" t="inlineStr"/>
+      <c r="AE86" s="3" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
@@ -12918,7 +11975,7 @@
       </c>
       <c r="S87" s="3" t="inlineStr">
         <is>
-          <t>2007 (12)</t>
+          <t>2007.0 (12)</t>
         </is>
       </c>
       <c r="T87" s="3" t="inlineStr">
@@ -12939,7 +11996,7 @@
       </c>
       <c r="W87" s="3" t="inlineStr">
         <is>
-          <t>S (12)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="X87" s="3" t="inlineStr"/>
@@ -12956,16 +12013,8 @@
           <t>KF725870, KF725871, KF725872, KF725873, KF725870, KF725871, KF725872, KF725873, KF725870, KF725871, KF725872, KF725873</t>
         </is>
       </c>
-      <c r="AD87" s="3" t="inlineStr">
-        <is>
-          <t>220 (12)</t>
-        </is>
-      </c>
-      <c r="AE87" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (12)</t>
-        </is>
-      </c>
+      <c r="AD87" s="3" t="inlineStr"/>
+      <c r="AE87" s="3" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
@@ -13074,7 +12123,7 @@
       </c>
       <c r="W88" s="3" t="inlineStr">
         <is>
-          <t>S (13)</t>
+          <t>NA (13)</t>
         </is>
       </c>
       <c r="X88" s="3" t="inlineStr">
@@ -13099,16 +12148,8 @@
           <t>DQ397823, DQ397824, DQ397825, DQ397826, DQ397823, DQ397824, DQ397825, DQ397826, DQ397823, DQ397823, DQ397824, DQ397825, DQ397826</t>
         </is>
       </c>
-      <c r="AD88" s="3" t="inlineStr">
-        <is>
-          <t>216 (13)</t>
-        </is>
-      </c>
-      <c r="AE88" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (13)</t>
-        </is>
-      </c>
+      <c r="AD88" s="3" t="inlineStr"/>
+      <c r="AE88" s="3" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
@@ -13197,8 +12238,8 @@
       </c>
       <c r="S89" s="3" t="inlineStr">
         <is>
-          <t>2011 (160)
-2019 (60)</t>
+          <t>2011.0 (160)
+2019.0 (60)</t>
         </is>
       </c>
       <c r="T89" s="3" t="inlineStr">
@@ -13240,18 +12281,8 @@
           <t>MN839490, MN839491, MN839492, MN839493, MN839494, MN839495, MN839496, MN839497, MN839498, MN839499, MN839500, MN839501, MN839502, MN839503, MN839504, MN970053, MN970054, MN970055, MN970056, MN970057, MN970058, MN970059, MN970060, MN970061, MN970062, MN970063, MN970064, MN970065, MN970066, MN970067, MN970068, MN970069, MN970070, MN970071, MN970072, MN970073, MN970074, MN970075, MN970076, MN970077, MN970078, MN970079, MN970080, MN970081, MN970082, MN970083, MN970084, MN970085, MN970086, MN970087, MN970088, MN970089, MN970090, MN970091, MN970092, MN839490, MN839491, MN839492, MN839493, MN839494, MN839495, MN839496, MN839497, MN839498, MN839499, MN839500, MN839501, MN839502, MN839503, MN839504, MN970053, MN970054, MN970055, MN970056, MN970057, MN970058, MN970059, MN970060, MN970061, MN970062, MN970063, MN970064, MN970065, MN970066, MN970067, MN970068, MN970069, MN970070, MN970071, MN970072, MN970073, MN970074, MN970075, MN970076, MN970077, MN970078, MN970079, MN970080, MN970081, MN970082, MN970083, MN970084, MN970085, MN970086, MN970087, MN970088, MN970089, MN970090, MN970091, MN970092, MN839490, MN839491, MN839492, MN839493, MN839494, MN839495, MN839496, MN839497, MN839498, MN839499, MN839500, MN839501, MN839502, MN839503, MN839504, MN970053, MN970054, MN970055, MN970056, MN970057, MN970058, MN970059, MN970060, MN970061, MN970062, MN970063, MN970064, MN970065, MN970066, MN970067, MN970068, MN970069, MN970070, MN970071, MN970072, MN970073, MN970074, MN970075, MN970076, MN970077, MN970078, MN970079, MN970080, MN970081, MN970082, MN970083, MN970084, MN970085, MN970086, MN970087, MN970088, MN970089, MN970090, MN970091, MN970092, MN839490, MN839491, MN839492, MN839493, MN839494, MN839495, MN839496, MN839497, MN839498, MN839499, MN839500, MN839501, MN839502, MN839503, MN839504, MN970053, MN970054, MN970055, MN970056, MN970057, MN970058, MN970059, MN970060, MN970061, MN970062, MN970063, MN970064, MN970065, MN970066, MN970067, MN970068, MN970069, MN970070, MN970071, MN970072, MN970073, MN970074, MN970075, MN970076, MN970077, MN970078, MN970079, MN970080, MN970081, MN970082, MN970083, MN970084, MN970085, MN970086, MN970087, MN970088, MN970089, MN970090, MN970091, MN970092</t>
         </is>
       </c>
-      <c r="AD89" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (220)</t>
-        </is>
-      </c>
-      <c r="AE89" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (200)
-90%-95% (16)
-75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD89" s="3" t="inlineStr"/>
+      <c r="AE89" s="3" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
@@ -13340,7 +12371,7 @@
       </c>
       <c r="S90" s="3" t="inlineStr">
         <is>
-          <t>2019 (6)</t>
+          <t>2019.0 (6)</t>
         </is>
       </c>
       <c r="T90" s="3" t="inlineStr">
@@ -13360,9 +12391,7 @@
       </c>
       <c r="W90" s="3" t="inlineStr">
         <is>
-          <t>L (2)
-M (2)
-S (2)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="X90" s="3" t="inlineStr">
@@ -13383,19 +12412,8 @@
           <t>MW452933, MW452934, MW452935, MW452933, MW452934, MW452935</t>
         </is>
       </c>
-      <c r="AD90" s="3" t="inlineStr">
-        <is>
-          <t>11847 (2)
-5112 (2)
-1667 (2)</t>
-        </is>
-      </c>
-      <c r="AE90" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4)
-50%-75% (2)</t>
-        </is>
-      </c>
+      <c r="AD90" s="3" t="inlineStr"/>
+      <c r="AE90" s="3" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
@@ -13472,9 +12490,9 @@
       <c r="R91" s="3" t="inlineStr"/>
       <c r="S91" s="3" t="inlineStr">
         <is>
-          <t>1998 (12)
-1995 (9)
-2004 (3)</t>
+          <t>1998.0 (12)
+1995.0 (9)
+2004.0 (3)</t>
         </is>
       </c>
       <c r="T91" s="3" t="inlineStr">
@@ -13519,18 +12537,8 @@
           <t>MF289414, MF289415, MF289416, MF289417, MF289418, MF289419, MF289414, MF289415, MF289416, MF289417, MF289418, MF289419, MF289414, MF289415, MF289416, MF289417, MF289418, MF289419, KY362514, KY362515, KY362516, KY362517, KY362518, KY362519</t>
         </is>
       </c>
-      <c r="AD91" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (8)
-5000-10000 (8)
-&gt;10000 (8)</t>
-        </is>
-      </c>
-      <c r="AE91" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (24)</t>
-        </is>
-      </c>
+      <c r="AD91" s="3" t="inlineStr"/>
+      <c r="AE91" s="3" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
@@ -13619,8 +12627,8 @@
       </c>
       <c r="S92" s="3" t="inlineStr">
         <is>
-          <t>2008 (14)
-2009 (6)</t>
+          <t>2008.0 (14)
+2009.0 (6)</t>
         </is>
       </c>
       <c r="T92" s="3" t="inlineStr">
@@ -13660,21 +12668,8 @@
           <t>HQ378179, HQ378180, HQ378181, HQ378182, HQ378183, HQ378184, HQ378185, HQ378186, HQ378187, HQ378179, HQ378180, HQ378181, HQ378182, HQ378183, HQ378184, HQ378185, HQ378186, HQ378187, GQ862371, GQ862372</t>
         </is>
       </c>
-      <c r="AD92" s="3" t="inlineStr">
-        <is>
-          <t>&gt;10000 (8)
-5000-10000 (6)
-1000-3000 (2)
-3000-5000 (2)
-1673 (2)</t>
-        </is>
-      </c>
-      <c r="AE92" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (14)
-95%-100% (6)</t>
-        </is>
-      </c>
+      <c r="AD92" s="3" t="inlineStr"/>
+      <c r="AE92" s="3" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
@@ -13763,7 +12758,7 @@
       </c>
       <c r="S93" s="3" t="inlineStr">
         <is>
-          <t>2015 (1)</t>
+          <t>2015.0 (1)</t>
         </is>
       </c>
       <c r="T93" s="3" t="inlineStr">
@@ -13796,16 +12791,8 @@
           <t>MH178082</t>
         </is>
       </c>
-      <c r="AD93" s="3" t="inlineStr">
-        <is>
-          <t>1506 (1)</t>
-        </is>
-      </c>
-      <c r="AE93" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD93" s="3" t="inlineStr"/>
+      <c r="AE93" s="3" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
@@ -13895,8 +12882,8 @@
       </c>
       <c r="S94" s="3" t="inlineStr">
         <is>
-          <t>2015 (16)
-2014 (15)</t>
+          <t>2015.0 (16)
+2014.0 (15)</t>
         </is>
       </c>
       <c r="T94" s="3" t="inlineStr">
@@ -13916,7 +12903,7 @@
       </c>
       <c r="W94" s="3" t="inlineStr">
         <is>
-          <t>S (31)</t>
+          <t>NA (31)</t>
         </is>
       </c>
       <c r="X94" s="3" t="inlineStr"/>
@@ -13933,20 +12920,8 @@
           <t>KT588640, KT588641, KT588642, KT931948, KT931949, KT931950, KT931951, KT931952, KT931953, KT931954, KT931955, KT931956, KT931957, KT931958, KU242341, KT931954, KT588640, KT588641, KT588642, KT931948, KT931949, KT931950, KT931951, KT931952, KT931953, KT931954, KT931955, KT931956, KT931957, KT931958, KU242341</t>
         </is>
       </c>
-      <c r="AD94" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (16)
-100-500 (14)
-477 (1)</t>
-        </is>
-      </c>
-      <c r="AE94" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (15)
-75%-90% (10)
-90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD94" s="3" t="inlineStr"/>
+      <c r="AE94" s="3" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
@@ -14035,8 +13010,8 @@
       </c>
       <c r="S95" s="3" t="inlineStr">
         <is>
-          <t>2012 (111)
-2013 (9)</t>
+          <t>2012.0 (111)
+2013.0 (9)</t>
         </is>
       </c>
       <c r="T95" s="3" t="inlineStr">
@@ -14056,8 +13031,7 @@
       </c>
       <c r="W95" s="3" t="inlineStr">
         <is>
-          <t>S (108)
-M (12)</t>
+          <t>NA (120)</t>
         </is>
       </c>
       <c r="X95" s="3" t="inlineStr">
@@ -14078,19 +13052,8 @@
           <t>KJ545665, KJ545666, KJ545667, KJ545668, KJ545669, KJ545670, KJ545671, KJ545672, KJ545673, KJ545674, KJ545675, KJ545676, KJ545677, KJ545678, KJ545679, KJ545680, KJ545681, KJ545682, KJ545683, KJ545684, KJ545685, KJ545686, KJ545687, KJ545688, KJ545689, KJ545690, KJ545691, KJ545692, KJ545693, KJ545694, KJ545695, KJ545696, KJ545697, KJ545698, KJ545699, KJ545700, KJ545701, KJ545702, KJ545703, KJ545704, KJ545665, KJ545666, KJ545667, KJ545668, KJ545669, KJ545670, KJ545671, KJ545672, KJ545673, KJ545674, KJ545675, KJ545676, KJ545677, KJ545678, KJ545679, KJ545680, KJ545681, KJ545682, KJ545683, KJ545684, KJ545685, KJ545686, KJ545687, KJ545688, KJ545689, KJ545690, KJ545691, KJ545692, KJ545693, KJ545694, KJ545695, KJ545696, KJ545697, KJ545698, KJ545699, KJ545700, KJ545701, KJ545702, KJ545703, KJ545704, KJ545665, KJ545666, KJ545667, KJ545668, KJ545669, KJ545670, KJ545671, KJ545672, KJ545673, KJ545674, KJ545675, KJ545676, KJ545677, KJ545678, KJ545679, KJ545680, KJ545681, KJ545682, KJ545683, KJ545684, KJ545685, KJ545686, KJ545687, KJ545688, KJ545689, KJ545690, KJ545691, KJ545692, KJ545693, KJ545694, KJ545695, KJ545696, KJ545697, KJ545698, KJ545699, KJ545700, KJ545701, KJ545702, KJ545703, KJ545704</t>
         </is>
       </c>
-      <c r="AD95" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (108)
-30-100 (12)</t>
-        </is>
-      </c>
-      <c r="AE95" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (90)
-75%-90% (18)
-0%-25% (12)</t>
-        </is>
-      </c>
+      <c r="AD95" s="3" t="inlineStr"/>
+      <c r="AE95" s="3" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
@@ -14179,7 +13142,7 @@
       </c>
       <c r="S96" s="3" t="inlineStr">
         <is>
-          <t>2014 (6)</t>
+          <t>2014.0 (6)</t>
         </is>
       </c>
       <c r="T96" s="3" t="inlineStr">
@@ -14222,19 +13185,8 @@
           <t>MF547415, MF547416, MF547417, MF547415, MF547416, MF547417</t>
         </is>
       </c>
-      <c r="AD96" s="3" t="inlineStr">
-        <is>
-          <t>11922 (2)
-5366 (2)
-1673 (2)</t>
-        </is>
-      </c>
-      <c r="AE96" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (4)
-90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD96" s="3" t="inlineStr"/>
+      <c r="AE96" s="3" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
@@ -14317,7 +13269,7 @@
       </c>
       <c r="S97" s="3" t="inlineStr">
         <is>
-          <t>2019 (16)</t>
+          <t>2019.0 (16)</t>
         </is>
       </c>
       <c r="T97" s="3" t="inlineStr">
@@ -14359,18 +13311,8 @@
           <t>MN516481, MN516482, MN516483, MN516484, MN516485, MN516486, MN516487, MN516488, MN516481, MN516482, MN516483, MN516484, MN516485, MN516486, MN516487, MN516488</t>
         </is>
       </c>
-      <c r="AD97" s="3" t="inlineStr">
-        <is>
-          <t>492 (10)
-672 (6)</t>
-        </is>
-      </c>
-      <c r="AE97" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (10)
-90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD97" s="3" t="inlineStr"/>
+      <c r="AE97" s="3" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
@@ -14451,7 +13393,7 @@
       </c>
       <c r="S98" s="3" t="inlineStr">
         <is>
-          <t>2016 (12)</t>
+          <t>2016.0 (12)</t>
         </is>
       </c>
       <c r="T98" s="3" t="inlineStr">
@@ -14495,18 +13437,8 @@
           <t>KY982864, KY982865, KY982866, KY982867, KY982868, KY982869, KY982864, KY982865, KY982866, KY982867, KY982868, KY982869</t>
         </is>
       </c>
-      <c r="AD98" s="3" t="inlineStr">
-        <is>
-          <t>1676 (4)
-5052 (4)
-11898 (4)</t>
-        </is>
-      </c>
-      <c r="AE98" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (12)</t>
-        </is>
-      </c>
+      <c r="AD98" s="3" t="inlineStr"/>
+      <c r="AE98" s="3" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
@@ -14595,8 +13527,8 @@
       </c>
       <c r="S99" s="3" t="inlineStr">
         <is>
-          <t>2009 (405)
-2010 (333)</t>
+          <t>2009.0 (405)
+2010.0 (333)</t>
         </is>
       </c>
       <c r="T99" s="3" t="inlineStr">
@@ -14616,8 +13548,9 @@
       </c>
       <c r="W99" s="3" t="inlineStr">
         <is>
-          <t>S (570)
-M (168)</t>
+          <t>NA (422)
+M (168)
+S (148)</t>
         </is>
       </c>
       <c r="X99" s="3" t="inlineStr">
@@ -14638,20 +13571,8 @@
           <t>HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ675002, HQ675003</t>
         </is>
       </c>
-      <c r="AD99" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (648)
-100-500 (88)
-522 (2)</t>
-        </is>
-      </c>
-      <c r="AE99" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (658)
-75%-90% (48)
-95%-100% (32)</t>
-        </is>
-      </c>
+      <c r="AD99" s="3" t="inlineStr"/>
+      <c r="AE99" s="3" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
@@ -14741,9 +13662,9 @@
       </c>
       <c r="S100" s="3" t="inlineStr">
         <is>
-          <t>2013 (62)
-2014 (20)
-2015 (14)</t>
+          <t>2013.0 (62)
+2014.0 (20)
+2015.0 (14)</t>
         </is>
       </c>
       <c r="T100" s="3" t="inlineStr">
@@ -14763,9 +13684,14 @@
       </c>
       <c r="W100" s="3" t="inlineStr">
         <is>
-          <t>M (48)
-S (24)
-L (24)</t>
+          <t>M (24)
+L (22)
+S (18)
+NA (14)
+3 (6)
+2 (6)
+1 (4)
+4 (2)</t>
         </is>
       </c>
       <c r="X100" s="3" t="inlineStr">
@@ -14786,22 +13712,8 @@
           <t>MH133277, MH133278, MH133279, MH133280, MH133281, MH133282, MH133283, MH133284, MH133285, MH133286, MH133287, MH133288, MH133289, MH133290, MH133291, MH133292, MH133293, MH133294, MH133295, MH133296, MH133297, MH133298, MH133299, MH133300, MH133301, MH133302, MH133303, MH133304, MH133305, MH133306, MH133307, MH133308, MH133309, MH133310, MH133311, MH133312, MH133313, MH133314, MH133315, MH133316, MH133317, MH133318, MH133319, MH133320, MH133321, MH133322, MH133323, MH133324, MH133277, MH133278, MH133279, MH133280, MH133281, MH133282, MH133283, MH133284, MH133285, MH133286, MH133287, MH133288, MH133289, MH133290, MH133291, MH133292, MH133293, MH133294, MH133295, MH133296, MH133297, MH133298, MH133299, MH133300, MH133301, MH133302, MH133303, MH133304, MH133305, MH133306, MH133307, MH133308, MH133309, MH133310, MH133311, MH133312, MH133313, MH133314, MH133315, MH133316, MH133317, MH133318, MH133319, MH133320, MH133321, MH133322, MH133323, MH133324</t>
         </is>
       </c>
-      <c r="AD100" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (24)
-5000-10000 (24)
-&gt;10000 (24)
-100-500 (18)
-30-100 (6)</t>
-        </is>
-      </c>
-      <c r="AE100" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (72)
-25%-50% (18)
-0%-25% (6)</t>
-        </is>
-      </c>
+      <c r="AD100" s="3" t="inlineStr"/>
+      <c r="AE100" s="3" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
@@ -14891,8 +13803,8 @@
       </c>
       <c r="S101" s="3" t="inlineStr">
         <is>
-          <t>2012 (455)
-2013 (92)</t>
+          <t>2012.0 (455)
+2013.0 (92)</t>
         </is>
       </c>
       <c r="T101" s="3" t="inlineStr">
@@ -14912,8 +13824,9 @@
       </c>
       <c r="W101" s="3" t="inlineStr">
         <is>
-          <t>S (339)
-M (208)</t>
+          <t>NA (328)
+M (164)
+S (55)</t>
         </is>
       </c>
       <c r="X101" s="3" t="inlineStr">
@@ -14934,22 +13847,8 @@
           <t>KC477779, KC477780, KC477781, KC477782, KC477783, KC477784, KC477785, KC477786, KC477787, KC477788, KC477789, KC477790, KC477791, KC477792, KC477793, KC477794, KC477795, KC477796, KC477797, KC477798, KC477799, KC477800, KC477801, KC477802, KC477803, KC477804, KC477805, KC477806, KC477807, KC477808, KC477809, KC477810, KC477811, KC477812, KC477813, KC477814, KC477815, KC477816, KC477817, KC477818, KC477819, KC477820, KC477821, KC477822, KC477823, KC477824, KC477825, KC477826, KC477827, KC477828, KC477829, KC477830, KC477831, KC477832, KC477833, KC477834, KC477835, KC477836, KC477837, KF039932, KF039933, KF039934, KF039935, KF039936, KF039937, KF039938, KF039939, KF039940, KF039941, KF039942, KF039943, KF039944, KF039945, KF039946, KF039947, KF039948, KF039949, KF039950, KF039951, KF039952, KF039953, KF039954, KF039955, KF039956, KF039957, KF039958, KF039959, KF039960, KF039961, KF039962, KF039963, KF039964, KF039965, KF039966, KF039967, KF039968, KF039969, KF039970, KF039971, KF039972, KF039973, KF039974, KF039975, KF039976, KF039977, KF039978, KF039979, KF039980, KF039981, KF039982, KF039983, KF595127, KF595128, KF595129, KF595130, KF595131, KF595132, KF595133, KF595134, KF595135, KF595136, KF595137, KF595138, KF595139, KF595140, KF595141, KF595142, KF595143, KF595144, KF595145, KF595146, KF595147, KF595148, KF595149, KF039942, KF039941, KF039940, KF039939, KF039938, KF039937, KF039936, KF039935, KF039934, KF039933, KF039932, KC477779, KC477780, KC477781, KC477782, KC477783, KC477784, KC477785, KC477786, KC477787, KC477788, KC477789, KC477790, KC477791, KC477792, KC477793, KC477794, KC477795, KC477796, KC477797, KC477798, KC477799, KC477800, KC477801, KC477802, KC477803, KC477804, KC477805, KC477806, KC477807, KC477808, KC477809, KC477810, KC477811, KC477812, KC477813, KC477814, KC477815, KC477816, KC477817, KC477818, KC477819, KC477820, KC477821, KC477822, KC477823, KC477824, KC477825, KC477826, KC477827, KC477828, KC477829, KC477830, KC477831, KC477832, KC477833, KC477834, KC477835, KC477836, KC477837, KF039932, KF039933, KF039934, KF039935, KF039936, KF039937, KF039938, KF039939, KF039940, KF039941, KF039942, KF039943, KF039944, KF039945, KF039946, KF039947, KF039948, KF039949, KF039950, KF039951, KF039952, KF039953, KF039954, KF039955, KF039956, KF039957, KF039958, KF039959, KF039960, KF039961, KF039962, KF039963, KF039964, KF039965, KF039966, KF039967, KF039968, KF039969, KF039970, KF039971, KF039972, KF039973, KF039974, KF039975, KF039976, KF039977, KF039978, KF039979, KF039980, KF039981, KF039982, KF039983, KF595127, KF595128, KF595129, KF595130, KF595131, KF595132, KF595133, KF595134, KF595135, KF595136, KF595137, KF595138, KF595139, KF595140, KF595141, KF595142, KF595143, KF595144, KF595145, KF595146, KF595147, KF595148, KF595149, KC477779, KC477780, KC477781, KC477782, KC477783, KC477784, KC477785, KC477786, KC477787, KC477788, KC477789, KC477790, KC477791, KC477792, KC477793, KC477794, KC477795, KC477796, KC477797, KC477798, KC477799, KC477800, KC477801, KC477802, KC477803, KC477804, KC477805, KC477806, KC477807, KC477808, KC477809, KC477810, KC477811, KC477812, KC477813, KC477814, KC477815, KC477816, KC477817, KC477818, KC477819, KC477820, KC477821, KC477822, KC477823, KC477824, KC477825, KC477826, KC477827, KC477828, KC477829, KC477830, KC477831, KC477832, KC477833, KC477834, KC477835, KC477836, KC477837, KF039932, KF039933, KF039934, KF039935, KF039936, KF039937, KF039938, KF039939, KF039940, KF039941, KF039942, KF039943, KF039944, KF039945, KF039946, KF039947, KF039948, KF039949, KF039950, KF039951, KF039952, KF039953, KF039954, KF039955, KF039956, KF039957, KF039958, KF039959, KF039960, KF039961, KF039962, KF039963, KF039964, KF039965, KF039966, KF039967, KF039968, KF039969, KF039970, KF039971, KF039972, KF039973, KF039974, KF039975, KF039976, KF039977, KF039978, KF039979, KF039980, KF039981, KF039982, KF039983, KF595127, KF595128, KF595129, KF595130, KF595131, KF595132, KF595133, KF595134, KF595135, KF595136, KF595137, KF595138, KF595139, KF595140, KF595141, KF595142, KF595143, KF595144, KF595145, KF595146, KF595147, KF595148, KF595149, KC477779, KC477780, KC477781, KC477782, KC477783, KC477784, KC477785, KC477786, KC477787, KC477788, KC477789, KC477790, KC477791, KC477792, KC477793, KC477794, KC477795, KC477796, KC477797, KC477798, KC477799, KC477800, KC477801, KC477802, KC477803, KC477804, KC477805, KC477806, KC477807, KC477808, KC477809, KC477810, KC477811, KC477812, KC477813, KC477814, KC477815, KC477816, KC477817, KC477818, KC477819, KC477820, KC477821, KC477822, KC477823, KC477824, KC477825, KC477826, KC477827, KC477828, KC477829, KC477830, KC477831, KC477832, KC477833, KC477834, KC477835, KC477836, KC477837, KF039932, KF039933, KF039934, KF039935, KF039936, KF039937, KF039938, KF039939, KF039940, KF039941, KF039942, KF039943, KF039944, KF039945, KF039946, KF039947, KF039948, KF039949, KF039950, KF039951, KF039952, KF039953, KF039954, KF039955, KF039956, KF039957, KF039958, KF039959, KF039960, KF039961, KF039962, KF039963, KF039964, KF039965, KF039966, KF039967, KF039968, KF039969, KF039970, KF039971, KF039972, KF039973, KF039974, KF039975, KF039976, KF039977, KF039978, KF039979, KF039980, KF039981, KF039982, KF039983, KF595127, KF595128, KF595129, KF595130, KF595131, KF595132, KF595133, KF595134, KF595135, KF595136, KF595137, KF595138, KF595139, KF595140, KF595141, KF595142, KF595143, KF595144, KF595145, KF595146, KF595147, KF595148, KF595149</t>
         </is>
       </c>
-      <c r="AD101" s="3" t="inlineStr">
-        <is>
-          <t>402 (208)
-387 (164)
-1109 (151)
-219 (16)
-1110 (8)</t>
-        </is>
-      </c>
-      <c r="AE101" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (367)
-95%-100% (164)
-90%-95% (16)</t>
-        </is>
-      </c>
+      <c r="AD101" s="3" t="inlineStr"/>
+      <c r="AE101" s="3" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
@@ -15038,7 +13937,7 @@
       </c>
       <c r="S102" s="3" t="inlineStr">
         <is>
-          <t>2017 (12)</t>
+          <t>2017.0 (12)</t>
         </is>
       </c>
       <c r="T102" s="3" t="inlineStr">
@@ -15082,20 +13981,8 @@
           <t>MG659722, MG659723, MG659724, MG659725, MG659726, MG659727, MG659722, MG659723, MG659724, MG659725, MG659726, MG659727</t>
         </is>
       </c>
-      <c r="AD102" s="3" t="inlineStr">
-        <is>
-          <t>1670 (4)
-5357 (2)
-11953 (2)
-5365 (2)
-11955 (2)</t>
-        </is>
-      </c>
-      <c r="AE102" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (12)</t>
-        </is>
-      </c>
+      <c r="AD102" s="3" t="inlineStr"/>
+      <c r="AE102" s="3" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
@@ -15189,7 +14076,7 @@
       </c>
       <c r="S103" s="3" t="inlineStr">
         <is>
-          <t>2008 (7)</t>
+          <t>2008.0 (7)</t>
         </is>
       </c>
       <c r="T103" s="3" t="inlineStr">
@@ -15230,16 +14117,8 @@
           <t>FJ392601, FJ392602, FJ392603, FJ392601, FJ392602, FJ392603, FJ392604</t>
         </is>
       </c>
-      <c r="AD103" s="3" t="inlineStr">
-        <is>
-          <t>447 (7)</t>
-        </is>
-      </c>
-      <c r="AE103" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (7)</t>
-        </is>
-      </c>
+      <c r="AD103" s="3" t="inlineStr"/>
+      <c r="AE103" s="3" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
@@ -15316,7 +14195,7 @@
       </c>
       <c r="S104" s="3" t="inlineStr">
         <is>
-          <t>2011 (2)</t>
+          <t>2011.0 (2)</t>
         </is>
       </c>
       <c r="T104" s="3" t="inlineStr">
@@ -15357,16 +14236,8 @@
           <t>JX051650, JX051650</t>
         </is>
       </c>
-      <c r="AD104" s="3" t="inlineStr">
-        <is>
-          <t>1674 (2)</t>
-        </is>
-      </c>
-      <c r="AE104" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2)</t>
-        </is>
-      </c>
+      <c r="AD104" s="3" t="inlineStr"/>
+      <c r="AE104" s="3" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
@@ -15483,8 +14354,9 @@
       </c>
       <c r="W105" s="3" t="inlineStr">
         <is>
-          <t>S (384)
-M (167)</t>
+          <t>S (349)
+M (167)
+NA (35)</t>
         </is>
       </c>
       <c r="X105" s="3" t="inlineStr">
@@ -15509,30 +14381,8 @@
           <t>AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF481801, AF481800, AF481802, AF481799, AF481801, AF481800, AF481802, AF481799, AF481804, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF481806, AF481807, AF492421, AF492422, AF492423, AF492424</t>
         </is>
       </c>
-      <c r="AD105" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (420)
-1000-3000 (105)
-402 (6)
-294 (4)
-468 (4)
-420 (3)
-462 (2)
-285 (2)
-1675 (2)
-1676 (2)
-219 (1)</t>
-        </is>
-      </c>
-      <c r="AE105" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (315)
-90%-95% (96)
-95%-100% (94)
-25%-50% (34)
-50%-75% (12)</t>
-        </is>
-      </c>
+      <c r="AD105" s="3" t="inlineStr"/>
+      <c r="AE105" s="3" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
@@ -15664,17 +14514,8 @@
           <t>AF350448, AF350449, AF350448, AF350449</t>
         </is>
       </c>
-      <c r="AD106" s="3" t="inlineStr">
-        <is>
-          <t>5052 (2)
-5195 (2)</t>
-        </is>
-      </c>
-      <c r="AE106" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD106" s="3" t="inlineStr"/>
+      <c r="AE106" s="3" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
@@ -15763,10 +14604,10 @@
       </c>
       <c r="S107" s="3" t="inlineStr">
         <is>
-          <t>2015 (15)
-2017 (12)
-2016 (9)
-2014 (2)</t>
+          <t>2015.0 (15)
+2017.0 (12)
+2016.0 (9)
+2014.0 (2)</t>
         </is>
       </c>
       <c r="T107" s="3" t="inlineStr">
@@ -15807,18 +14648,8 @@
           <t>MG696068, MG696069, MG696070, MG696071, MG696072, MG696073, MG696074, MG696075, MG696076, MG696077, MG696078, MG696079, MG696080, MG696081, MG696082, MG696083, MG696084, MG696085, MG696069, MG696068, MG696068, MG696069, MG696070, MG696071, MG696072, MG696073, MG696074, MG696075, MG696076, MG696077, MG696078, MG696079, MG696080, MG696081, MG696082, MG696083, MG696084, MG696085</t>
         </is>
       </c>
-      <c r="AD107" s="3" t="inlineStr">
-        <is>
-          <t>219 (36)
-216 (2)</t>
-        </is>
-      </c>
-      <c r="AE107" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (32)
-75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD107" s="3" t="inlineStr"/>
+      <c r="AE107" s="3" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
@@ -15907,8 +14738,8 @@
       </c>
       <c r="S108" s="3" t="inlineStr">
         <is>
-          <t>2017 (8)
-2016 (8)</t>
+          <t>2017.0 (8)
+2016.0 (8)</t>
         </is>
       </c>
       <c r="T108" s="3" t="inlineStr">
@@ -15945,19 +14776,8 @@
           <t>OK082060, OK082061, OK082062, OK082063, OK082064, OK082065, OK082066, OK082067, OK082060, OK082061, OK082062, OK082063, OK082064, OK082065, OK082066, OK082067</t>
         </is>
       </c>
-      <c r="AD108" s="3" t="inlineStr">
-        <is>
-          <t>591 (12)
-592 (4)</t>
-        </is>
-      </c>
-      <c r="AE108" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (8)
-75%-90% (6)
-95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD108" s="3" t="inlineStr"/>
+      <c r="AE108" s="3" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
@@ -16038,7 +14858,7 @@
       </c>
       <c r="S109" s="3" t="inlineStr">
         <is>
-          <t>2021 (4)</t>
+          <t>2021.0 (4)</t>
         </is>
       </c>
       <c r="T109" s="3" t="inlineStr">
@@ -16080,18 +14900,8 @@
           <t>OL690430, OL690431, OL690430, OL690431</t>
         </is>
       </c>
-      <c r="AD109" s="3" t="inlineStr">
-        <is>
-          <t>1446 (2)
-3762 (2)</t>
-        </is>
-      </c>
-      <c r="AE109" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (2)
-90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD109" s="3" t="inlineStr"/>
+      <c r="AE109" s="3" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
@@ -16181,9 +14991,9 @@
       </c>
       <c r="S110" s="3" t="inlineStr">
         <is>
-          <t>2008 (56)
-2007 (18)
-2006 (10)</t>
+          <t>2008.0 (56)
+2007.0 (18)
+2006.0 (10)</t>
         </is>
       </c>
       <c r="T110" s="3" t="inlineStr">
@@ -16203,7 +15013,7 @@
       </c>
       <c r="W110" s="3" t="inlineStr">
         <is>
-          <t>S (52)
+          <t>NA (52)
 M (32)</t>
         </is>
       </c>
@@ -16225,20 +15035,8 @@
           <t>GU320676, GU320677, GU320678, GU320679, GU320680, GU320681, GU320682, GU320683, GU320684, GU320685, GU320686, GU320687, GU320688, GU320689, GU320690, GU320691, FJ601845, FJ601846, FJ601847, FJ601848, FJ601849, FJ601850, FJ601851, FJ601852, FJ601853, FJ601854, FJ601855, FJ601856, FJ601857, FJ601858, FJ601859, FJ601860, FJ601861, FJ601862, FJ601863, FJ601864, FJ601865, FJ601866, FJ601867, FJ601868, FJ601869, FJ601870, FJ601871, FJ601872, FJ601873, FJ601874, FJ601875, FJ601876, FJ601877, FJ601878, FJ601879, FJ601880, FJ601881, FJ601882, FJ601883, FJ601884, FJ601885, FJ601886, FJ601887, FJ601888, FJ601889, FJ601890, FJ601891, FJ601892, FJ601893, FJ601894, FJ601895, FJ601896, GU320676, GU320677, GU320678, GU320679, GU320680, GU320681, GU320682, GU320683, GU320684, GU320685, GU320686, GU320687, GU320688, GU320689, GU320690, GU320691</t>
         </is>
       </c>
-      <c r="AD110" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (44)
-399 (32)
-100-500 (8)</t>
-        </is>
-      </c>
-      <c r="AE110" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (50)
-75%-90% (31)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD110" s="3" t="inlineStr"/>
+      <c r="AE110" s="3" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
@@ -16329,9 +15127,9 @@
       </c>
       <c r="S111" s="3" t="inlineStr">
         <is>
-          <t>2013 (21)
-2012 (16)
-2014 (3)</t>
+          <t>2013.0 (21)
+2012.0 (16)
+2014.0 (3)</t>
         </is>
       </c>
       <c r="T111" s="3" t="inlineStr">
@@ -16351,7 +15149,8 @@
       </c>
       <c r="W111" s="3" t="inlineStr">
         <is>
-          <t>S (40)</t>
+          <t>NA (39)
+S (1)</t>
         </is>
       </c>
       <c r="X111" s="3" t="inlineStr"/>
@@ -16368,18 +15167,8 @@
           <t>MF004261, MF004262, MF004263, MF004264, MF004265, MF004266, MF004267, MF780718, MF780719, MF780720, MF780721, MF780722, MF780723, KF146306, MF004261, MF004262, MF004263, MF004264, MF004265, MF004266, MF004267, MF780718, MF780719, MF780720, MF780721, MF780722, MF780723, MF004261, MF004262, MF004263, MF004264, MF004265, MF004266, MF004267, MF780718, MF780719, MF780720, MF780721, MF780722, MF780723</t>
         </is>
       </c>
-      <c r="AD111" s="3" t="inlineStr">
-        <is>
-          <t>219 (39)
-529 (1)</t>
-        </is>
-      </c>
-      <c r="AE111" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (39)
-75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD111" s="3" t="inlineStr"/>
+      <c r="AE111" s="3" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
@@ -16472,8 +15261,8 @@
       </c>
       <c r="S112" s="3" t="inlineStr">
         <is>
-          <t>2004 (2)
-2003 (2)</t>
+          <t>2004.0 (2)
+2003.0 (2)</t>
         </is>
       </c>
       <c r="T112" s="3" t="inlineStr">
@@ -16493,7 +15282,7 @@
       </c>
       <c r="W112" s="3" t="inlineStr">
         <is>
-          <t>S (4)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="X112" s="3" t="inlineStr">
@@ -16514,18 +15303,8 @@
           <t>KC846093, KC846094, KC846093, KC846094</t>
         </is>
       </c>
-      <c r="AD112" s="3" t="inlineStr">
-        <is>
-          <t>498 (2)
-465 (2)</t>
-        </is>
-      </c>
-      <c r="AE112" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)
-95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD112" s="3" t="inlineStr"/>
+      <c r="AE112" s="3" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
@@ -16614,7 +15393,7 @@
       </c>
       <c r="S113" s="3" t="inlineStr">
         <is>
-          <t>2015 (6)</t>
+          <t>2015.0 (6)</t>
         </is>
       </c>
       <c r="T113" s="3" t="inlineStr">
@@ -16657,18 +15436,8 @@
           <t>MG516211, MG516212, MG516213, MG516211, MG516212, MG516213</t>
         </is>
       </c>
-      <c r="AD113" s="3" t="inlineStr">
-        <is>
-          <t>11970 (2)
-4887 (2)
-1499 (2)</t>
-        </is>
-      </c>
-      <c r="AE113" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD113" s="3" t="inlineStr"/>
+      <c r="AE113" s="3" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="3" t="inlineStr">
@@ -16759,10 +15528,10 @@
       </c>
       <c r="S114" s="3" t="inlineStr">
         <is>
-          <t>2013 (28)
-2014 (24)
-2011 (14)
-2012 (11)</t>
+          <t>2013.0 (28)
+2014.0 (24)
+2011.0 (14)
+2012.0 (11)</t>
         </is>
       </c>
       <c r="T114" s="3" t="inlineStr">
@@ -16783,7 +15552,7 @@
       </c>
       <c r="W114" s="3" t="inlineStr">
         <is>
-          <t>S (64)
+          <t>NA (64)
 M (7)
 L (6)</t>
         </is>
@@ -16806,29 +15575,8 @@
           <t>KR011837, KR011838, KR011839, KR092373, KR092374, KR092379, KR092381, KT334329, KT334330, KR092381, KR092379, KR092374, KR092373, KT334330, KT334329, KR092381, KR092379, KR092374, KR092373, KT334330, KT334329, KR011839, KR011838, KR011837, KJ000206, KR011837, KR011838, KR011839, KR092373, KR092374, KR092379, KR092381, KT334329, KT334330, KR011837, KR011838, KR011839, KR092373, KR092374, KR092379, KR092381, KT334329, KT334330, KR011837, KR011838, KR011839, KR092373, KR092374, KR092379, KR092381, KT334329, KT334330, KR059957, KR059958, KR059959, KR059960, KR059961, KR059962, KR059963, KR059964, KR059965, KR059966, KR059967, KR059968, KR059969, KR059970, KR059971, KR059972, KR059973, KR059974, KR059975, KR059976, KR092375, KR092376, KR092377, KR092378, KR092380</t>
         </is>
       </c>
-      <c r="AD114" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (35)
-1000-3000 (20)
-498 (6)
-5000-10000 (4)
-444 (2)
-5399 (2)
-219 (2)
-500-1000 (2)
-1376 (1)
-1367 (1)
-1679 (1)
-261 (1)</t>
-        </is>
-      </c>
-      <c r="AE114" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (41)
-75%-90% (29)
-95%-100% (7)</t>
-        </is>
-      </c>
+      <c r="AD114" s="3" t="inlineStr"/>
+      <c r="AE114" s="3" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="3" t="inlineStr">
@@ -16917,10 +15665,10 @@
       </c>
       <c r="S115" s="3" t="inlineStr">
         <is>
-          <t>2019 (162)
-2018 (87)
-2017 (45)
-2020 (18)</t>
+          <t>2019.0 (162)
+2018.0 (87)
+2017.0 (45)
+2020.0 (18)</t>
         </is>
       </c>
       <c r="T115" s="3" t="inlineStr">
@@ -16963,20 +15711,8 @@
           <t>OM162027, OM162028, OM162029, OM162030, OM162031, OM162032, OM162033, OM162034, OM162035, OM162036, OM162037, OM162038, OM162039, OM162040, OM162041, OM162042, OM162043, OM162044, OM162045, OM162046, OM162047, OM162048, OM162049, OM162050, OM162051, OM162052, OM162053, OM162054, OM162055, OM162056, OM162057, OM162058, OM162059, OM162060, OM162061, OM162062, OM162063, OM162064, OM162065, OM162066, OM162067, OM162068, OM162069, OM162070, OM162071, OM162072, OM162073, OM162074, OM162075, OM162076, OM162077, OM162078, OM162079, OM162080, OM162081, OM162082, OM162083, OM162084, OM162085, OM162086, OM162087, OM162088, OM162089, OM162090, OM162091, OM162092, OM162093, OM162094, OM162095, OM162096, OM162097, OM162098, OM162099, OM162100, OM162101, OM162102, OM162103, OM162104, OM162105, OM162106, OM162107, OM162108, OM162109, OM162110, OM162111, OM162112, OM162113, OM162114, OM162115, OM162116, OM162117, OM162118, OM162119, OM162120, OM162121, OM162122, OM162123, OM162124, OM162125, OM162126, OM162127, OM162128, OM162129, OM162130, OM162027, OM162028, OM162029, OM162030, OM162031, OM162032, OM162033, OM162034, OM162035, OM162036, OM162037, OM162038, OM162039, OM162040, OM162041, OM162042, OM162043, OM162044, OM162045, OM162046, OM162047, OM162048, OM162049, OM162050, OM162051, OM162052, OM162053, OM162054, OM162055, OM162056, OM162057, OM162058, OM162059, OM162060, OM162061, OM162062, OM162063, OM162064, OM162065, OM162066, OM162067, OM162068, OM162069, OM162070, OM162071, OM162072, OM162073, OM162074, OM162075, OM162076, OM162077, OM162078, OM162079, OM162080, OM162081, OM162082, OM162083, OM162084, OM162085, OM162086, OM162087, OM162088, OM162089, OM162090, OM162091, OM162092, OM162093, OM162094, OM162095, OM162096, OM162097, OM162098, OM162099, OM162100, OM162101, OM162102, OM162103, OM162104, OM162105, OM162106, OM162107, OM162108, OM162109, OM162110, OM162111, OM162112, OM162113, OM162114, OM162115, OM162116, OM162117, OM162118, OM162119, OM162120, OM162121, OM162122, OM162123, OM162124, OM162125, OM162126, OM162127, OM162128, OM162129, OM162130, OM162027, OM162028, OM162029, OM162030, OM162031, OM162032, OM162033, OM162034, OM162035, OM162036, OM162037, OM162038, OM162039, OM162040, OM162041, OM162042, OM162043, OM162044, OM162045, OM162046, OM162047, OM162048, OM162049, OM162050, OM162051, OM162052, OM162053, OM162054, OM162055, OM162056, OM162057, OM162058, OM162059, OM162060, OM162061, OM162062, OM162063, OM162064, OM162065, OM162066, OM162067, OM162068, OM162069, OM162070, OM162071, OM162072, OM162073, OM162074, OM162075, OM162076, OM162077, OM162078, OM162079, OM162080, OM162081, OM162082, OM162083, OM162084, OM162085, OM162086, OM162087, OM162088, OM162089, OM162090, OM162091, OM162092, OM162093, OM162094, OM162095, OM162096, OM162097, OM162098, OM162099, OM162100, OM162101, OM162102, OM162103, OM162104, OM162105, OM162106, OM162107, OM162108, OM162109, OM162110, OM162111, OM162112, OM162113, OM162114, OM162115, OM162116, OM162117, OM162118, OM162119, OM162120, OM162121, OM162122, OM162123, OM162124, OM162125, OM162126, OM162127, OM162128, OM162129, OM162130</t>
         </is>
       </c>
-      <c r="AD115" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (108)
-&gt;10000 (105)
-5000-10000 (93)
-3000-5000 (6)</t>
-        </is>
-      </c>
-      <c r="AE115" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (303)
-90%-95% (9)</t>
-        </is>
-      </c>
+      <c r="AD115" s="3" t="inlineStr"/>
+      <c r="AE115" s="3" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
@@ -17067,14 +15803,14 @@
       </c>
       <c r="S116" s="3" t="inlineStr">
         <is>
-          <t>2019 (120)
-2018 (9)
-2017 (9)
-2016 (9)
-2015 (9)
-2014 (3)
-2013 (3)
-2010 (3)</t>
+          <t>2019.0 (120)
+2018.0 (9)
+2017.0 (9)
+2016.0 (9)
+2015.0 (9)
+2014.0 (3)
+2013.0 (3)
+2010.0 (3)</t>
         </is>
       </c>
       <c r="T116" s="3" t="inlineStr">
@@ -17094,9 +15830,10 @@
       </c>
       <c r="W116" s="3" t="inlineStr">
         <is>
-          <t>M (55)
-L (55)
-S (55)</t>
+          <t>M (53)
+L (53)
+S (53)
+NA (6)</t>
         </is>
       </c>
       <c r="X116" s="3" t="inlineStr">
@@ -17117,22 +15854,8 @@
           <t>MH396640, MH396641, MH396642, MH396643, MH396644, MH396645, MH396646, MH396647, MH396648, MH396649, MH396650, MH396651, MH396652, MH396653, MH396654, MH396655, MH396656, MH396657, MH396658, MH396659, MH396660, MH396661, MH396662, MH396663, MH396664, MH396665, MH396666, MH396667, MH396668, MH396669, MH396670, MH396671, MH396672, MH396673, MH396674, MH396675, MK330132, MK330133, MK330134, MK330135, MK330136, MK330137, MN866126, MN866127, MN866128, MN866129, MN866130, MN866131, MN866132, MN866133, MN866134, MN866135, MN866136, MN866137, MN866138, MN866139, MN866140, MN866141, MN866142, MN866143, MN866144, MN866145, MN866146, MN866147, MN866148, MN866149, MN866150, MN866151, MN866152, MN866153, MN866154, MN866155, MN866156, MN866157, MN866158, MN866159, MN866160, MN866161, MN866162, MN866163, MN866164, MN866165, MN866166, MN866167, MN866168, MN866169, MN866170, MN866171, MN866172, MN866173, MN866174, MN866175, MN866176, MN866177, MN866178, MN866179, MN866180, MN866181, MN866182, MN866183, MN866184, MN866185, MN866186, MN866187, MN866188, MN866189, MN866190, MN866191, MN866192, MN866193, MN866194, MN866195, MN866196, MN866197, MN866198, MN866199, MN866200, MN866201, MN866202, MN866203, MN866204, MN866205, MN866206, MN866207, MN866208, MN866209, MN866210, MN866211, MN866212, MN866213, MN866214, MN866215, MN866216, MN866217, MN866218, MN930401, MN930402, MN930403, MN930404, MN930405, MN930406, MN930407, MN930408, MN930409, MN930410, MN930411, MN930412, MN930413, MN930414, MN930415, MN930416, MN930417, MN930418, MN930419, MN930420, MN930421, MN930422, MN930423, MN930424, MN930425, MN930426, MN930427, MN930428, MN930429, MN930430</t>
         </is>
       </c>
-      <c r="AD116" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (56)
-&gt;10000 (55)
-5000-10000 (48)
-3000-5000 (6)</t>
-        </is>
-      </c>
-      <c r="AE116" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (160)
-90%-95% (2)
-95%-100% (2)
-50%-75% (1)</t>
-        </is>
-      </c>
+      <c r="AD116" s="3" t="inlineStr"/>
+      <c r="AE116" s="3" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="3" t="inlineStr">
@@ -17246,7 +15969,8 @@
       </c>
       <c r="W117" s="3" t="inlineStr">
         <is>
-          <t>S (36)</t>
+          <t>S-RNA segment (30)
+S (6)</t>
         </is>
       </c>
       <c r="X117" s="3" t="inlineStr">
@@ -17267,18 +15991,8 @@
           <t>AB102852, AB102853, AB209937, AB209938, AB209939, AB209940, AB209941, AB209942, AB209943, AB209944, AB209945, AB209946, AB209947, AB209948, AB209949, AB209950, AB209951, AB102853, AB102852, AB102852, AB102853, AB209937, AB209938, AB209939, AB209940, AB209941, AB209942, AB209943, AB209944, AB209945, AB209946, AB209947, AB209948, AB209949, AB209950, AB209951</t>
         </is>
       </c>
-      <c r="AD117" s="3" t="inlineStr">
-        <is>
-          <t>219 (30)
-216 (6)</t>
-        </is>
-      </c>
-      <c r="AE117" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (22)
-95%-100% (14)</t>
-        </is>
-      </c>
+      <c r="AD117" s="3" t="inlineStr"/>
+      <c r="AE117" s="3" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="3" t="inlineStr">
@@ -17369,7 +16083,7 @@
       </c>
       <c r="S118" s="3" t="inlineStr">
         <is>
-          <t>2011 (81)</t>
+          <t>2011.0 (81)</t>
         </is>
       </c>
       <c r="T118" s="3" t="inlineStr">
@@ -17414,21 +16128,8 @@
           <t>JF922673, JF922674, JF922675, JF922676, JF922677, JF922678, JF922679, JF922680, JF922681, JN572083, JN572084, JN572085, JN572086, JN572087, JN572088, JN572089, JN572090, JN572091, JN572092, JN627865, JN627865, JF922673, JF922674, JF922675, JF922676, JF922677, JF922678, JF922679, JF922680, JF922681, JN572083, JN572084, JN572085, JN572086, JN572087, JN572088, JN572089, JN572090, JN572091, JN572092, JN627865, JF922673, JF922674, JF922675, JF922676, JF922677, JF922678, JF922679, JF922680, JF922681, JN572083, JN572084, JN572085, JN572086, JN572087, JN572088, JN572089, JN572090, JN572091, JN572092, JN627865, JF922673, JF922674, JF922675, JF922676, JF922677, JF922678, JF922679, JF922680, JF922681, JN572083, JN572084, JN572085, JN572086, JN572087, JN572088, JN572089, JN572090, JN572091, JN572092, JN627865</t>
         </is>
       </c>
-      <c r="AD118" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (24)
-100-500 (20)
-5000-10000 (16)
-&gt;10000 (16)
-500-1000 (4)
-11917 (1)</t>
-        </is>
-      </c>
-      <c r="AE118" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (81)</t>
-        </is>
-      </c>
+      <c r="AD118" s="3" t="inlineStr"/>
+      <c r="AE118" s="3" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="3" t="inlineStr">
@@ -17517,7 +16218,7 @@
       </c>
       <c r="S119" s="3" t="inlineStr">
         <is>
-          <t>2019 (6)</t>
+          <t>2019.0 (6)</t>
         </is>
       </c>
       <c r="T119" s="3" t="inlineStr">
@@ -17537,9 +16238,7 @@
       </c>
       <c r="W119" s="3" t="inlineStr">
         <is>
-          <t>S (2)
-M (2)
-L (2)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="X119" s="3" t="inlineStr">
@@ -17560,20 +16259,8 @@
           <t>MZ566478, MZ566479, MZ566480, MZ566478, MZ566479, MZ566480</t>
         </is>
       </c>
-      <c r="AD119" s="3" t="inlineStr">
-        <is>
-          <t>615 (2)
-738 (2)
-1046 (2)</t>
-        </is>
-      </c>
-      <c r="AE119" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (2)
-75%-90% (2)
-95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD119" s="3" t="inlineStr"/>
+      <c r="AE119" s="3" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="3" t="inlineStr">
@@ -17662,7 +16349,7 @@
       </c>
       <c r="S120" s="3" t="inlineStr">
         <is>
-          <t>2012 (6)</t>
+          <t>2012.0 (6)</t>
         </is>
       </c>
       <c r="T120" s="3" t="inlineStr">
@@ -17682,9 +16369,7 @@
       </c>
       <c r="W120" s="3" t="inlineStr">
         <is>
-          <t>L (2)
-M (2)
-S (2)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="X120" s="3" t="inlineStr"/>
@@ -17701,20 +16386,8 @@
           <t>KF793333, KF793334, KF793335, KF793333, KF793334, KF793335</t>
         </is>
       </c>
-      <c r="AD120" s="3" t="inlineStr">
-        <is>
-          <t>1169 (2)
-267 (2)
-1449 (2)</t>
-        </is>
-      </c>
-      <c r="AE120" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2)
-90%-95% (2)
-95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD120" s="3" t="inlineStr"/>
+      <c r="AE120" s="3" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="3" t="inlineStr">
@@ -17806,7 +16479,7 @@
       </c>
       <c r="S121" s="3" t="inlineStr">
         <is>
-          <t>2017 (14)</t>
+          <t>2017.0 (14)</t>
         </is>
       </c>
       <c r="T121" s="3" t="inlineStr">
@@ -17826,9 +16499,10 @@
       </c>
       <c r="W121" s="3" t="inlineStr">
         <is>
-          <t>S (10)
+          <t>NA (8)
 L (2)
-M (2)</t>
+M (2)
+S (2)</t>
         </is>
       </c>
       <c r="X121" s="3" t="inlineStr">
@@ -17849,21 +16523,8 @@
           <t>MN135938, MN135939, MN135940, MN135941, MN135942, MN135943, MN135944, MN135938, MN135939, MN135940, MN135941, MN135942, MN135943, MN135944</t>
         </is>
       </c>
-      <c r="AD121" s="3" t="inlineStr">
-        <is>
-          <t>219 (8)
-11912 (2)
-5347 (2)
-1637 (2)</t>
-        </is>
-      </c>
-      <c r="AE121" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)
-95%-100% (6)
-90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD121" s="3" t="inlineStr"/>
+      <c r="AE121" s="3" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="3" t="inlineStr">
@@ -17952,7 +16613,7 @@
       </c>
       <c r="S122" s="3" t="inlineStr">
         <is>
-          <t>2012 (4)</t>
+          <t>2012.0 (4)</t>
         </is>
       </c>
       <c r="T122" s="3" t="inlineStr">
@@ -17973,7 +16634,7 @@
       <c r="W122" s="3" t="inlineStr">
         <is>
           <t>S (2)
-M (1)
+NA (1)
 L (1)</t>
         </is>
       </c>
@@ -17995,18 +16656,8 @@
           <t>JX908640, KC344856, KC344855, JX908640</t>
         </is>
       </c>
-      <c r="AD122" s="3" t="inlineStr">
-        <is>
-          <t>1678 (2)
-5052 (1)
-11923 (1)</t>
-        </is>
-      </c>
-      <c r="AE122" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD122" s="3" t="inlineStr"/>
+      <c r="AE122" s="3" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="3" t="inlineStr">
@@ -18097,11 +16748,11 @@
       </c>
       <c r="S123" s="3" t="inlineStr">
         <is>
-          <t>2020 (6)
+          <t>2020.0 (6)
 NA (4)
-2021 (2)
-2016 (2)
-2018 (1)</t>
+2021.0 (2)
+2016.0 (2)
+2018.0 (1)</t>
         </is>
       </c>
       <c r="T123" s="3" t="inlineStr">
@@ -18122,7 +16773,8 @@
       </c>
       <c r="W123" s="3" t="inlineStr">
         <is>
-          <t>S (13)
+          <t>NA (10)
+S (3)
 L (1)
 M (1)</t>
         </is>
@@ -18148,25 +16800,8 @@
           <t>OP776634, OP776633, OP776632, OP776631, OP889253, OP776634, OP776633, OP776632, OP776631, ON227355, KY492289, KY492290, MN689739, MN689740, MN689741</t>
         </is>
       </c>
-      <c r="AD123" s="3" t="inlineStr">
-        <is>
-          <t>200 (6)
-198 (2)
-592 (2)
-207 (1)
-489 (1)
-12078 (1)
-5324 (1)
-1638 (1)</t>
-        </is>
-      </c>
-      <c r="AE123" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (10)
-95%-100% (4)
-75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD123" s="3" t="inlineStr"/>
+      <c r="AE123" s="3" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="3" t="inlineStr">
@@ -18255,9 +16890,9 @@
       </c>
       <c r="S124" s="3" t="inlineStr">
         <is>
-          <t>2019 (9)
-2020 (8)
-2021 (8)</t>
+          <t>2019.0 (9)
+2020.0 (8)
+2021.0 (8)</t>
         </is>
       </c>
       <c r="T124" s="3" t="inlineStr">
@@ -18277,7 +16912,8 @@
       </c>
       <c r="W124" s="3" t="inlineStr">
         <is>
-          <t>S (25)</t>
+          <t>S (24)
+NA (1)</t>
         </is>
       </c>
       <c r="X124" s="3" t="inlineStr">
@@ -18298,21 +16934,8 @@
           <t>MW424419, MZ361738, MZ342904, MZ330127, MW467898, MW467897, MZ361738, MZ342904, MZ330127, MW467898, MW467897, MZ361738, MZ342904, MZ330127, MW467898, MW467897, MZ361738, MZ342904, MZ330127, MW467898, MW467897, MZ326698, MZ322095, MZ326698, MZ322095</t>
         </is>
       </c>
-      <c r="AD124" s="3" t="inlineStr">
-        <is>
-          <t>249 (8)
-258 (5)
-252 (4)
-261 (4)
-246 (4)</t>
-        </is>
-      </c>
-      <c r="AE124" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (17)
-90%-95% (8)</t>
-        </is>
-      </c>
+      <c r="AD124" s="3" t="inlineStr"/>
+      <c r="AE124" s="3" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="3" t="inlineStr">
@@ -18408,8 +17031,8 @@
       <c r="S125" s="3" t="inlineStr">
         <is>
           <t>NA (30)
-2004 (6)
-2009 (3)</t>
+2004.0 (6)
+2009.0 (3)</t>
         </is>
       </c>
       <c r="T125" s="3" t="inlineStr">
@@ -18438,9 +17061,10 @@
       </c>
       <c r="W125" s="3" t="inlineStr">
         <is>
-          <t>L (16)
+          <t>L (15)
 S (13)
-M (10)</t>
+M (10)
+large segment (1)</t>
         </is>
       </c>
       <c r="X125" s="3" t="inlineStr"/>
@@ -18459,35 +17083,8 @@
           <t>DQ076418, AY947890, DQ076416, DQ076413, AY947891, DQ076417, DQ076415, DQ076414, DQ076412, AY947890, AY947891, AJ538197, AJ538199, AJ538198, AJ538196, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, FJ562093, FJ562095, FJ562094, FJ562093, HM452305, HM452306, HM452307, FJ562094, FJ562095</t>
         </is>
       </c>
-      <c r="AD125" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (6)
-500-1000 (6)
-&gt;10000 (5)
-100-500 (3)
-1674 (3)
-5000-10000 (3)
-12054 (2)
-5115 (2)
-11952 (1)
-12098 (1)
-5370 (1)
-5374 (1)
-1678 (1)
-3000-5000 (1)
-11928 (1)
-5371 (1)
-1681 (1)</t>
-        </is>
-      </c>
-      <c r="AE125" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (27)
-90%-95% (5)
-95%-100% (5)
-50%-75% (2)</t>
-        </is>
-      </c>
+      <c r="AD125" s="3" t="inlineStr"/>
+      <c r="AE125" s="3" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="3" t="inlineStr">
@@ -18576,7 +17173,7 @@
       </c>
       <c r="S126" s="3" t="inlineStr">
         <is>
-          <t>2018 (1)</t>
+          <t>2018.0 (1)</t>
         </is>
       </c>
       <c r="T126" s="3" t="inlineStr">
@@ -18596,7 +17193,7 @@
       </c>
       <c r="W126" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X126" s="3" t="inlineStr">
@@ -18617,16 +17214,8 @@
           <t>MN097144</t>
         </is>
       </c>
-      <c r="AD126" s="3" t="inlineStr">
-        <is>
-          <t>237 (1)</t>
-        </is>
-      </c>
-      <c r="AE126" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD126" s="3" t="inlineStr"/>
+      <c r="AE126" s="3" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="3" t="inlineStr">
@@ -18718,8 +17307,8 @@
       </c>
       <c r="S127" s="3" t="inlineStr">
         <is>
-          <t>2017 (32)
-2013 (8)</t>
+          <t>2017.0 (32)
+2013.0 (8)</t>
         </is>
       </c>
       <c r="T127" s="3" t="inlineStr"/>
@@ -18735,9 +17324,10 @@
       </c>
       <c r="W127" s="3" t="inlineStr">
         <is>
-          <t>L (19)
-S (11)
-M (10)</t>
+          <t>L (16)
+M (8)
+S (8)
+NA (8)</t>
         </is>
       </c>
       <c r="X127" s="3" t="inlineStr">
@@ -18758,24 +17348,8 @@
           <t>MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, MN811042, MN811041, MN811040, MN811039, MN811038, MN811037, MN811036, MN811035, MN811034, MN811033, MN811032, MN811031, MN811030, NC_078322, NC_078321, NC_078320, NC_078325, NC_078324, NC_078323, MN792653, MN792652, MN792651, MN829807, MN829806, MN972596, MN972595, MN972594</t>
         </is>
       </c>
-      <c r="AD127" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (14)
-100-500 (10)
-&gt;10000 (10)
-3000-5000 (4)
-5000-10000 (2)</t>
-        </is>
-      </c>
-      <c r="AE127" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (20)
-25%-50% (8)
-50%-75% (6)
-95%-100% (4)
-90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD127" s="3" t="inlineStr"/>
+      <c r="AE127" s="3" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="3" t="inlineStr">
@@ -18867,13 +17441,13 @@
       </c>
       <c r="S128" s="3" t="inlineStr">
         <is>
-          <t>2004 (13)
-2005 (10)
-1980 (3)
-1968 (1)
-1990 (1)
-1974 (1)
-1966 (1)</t>
+          <t>2004.0 (13)
+2005.0 (10)
+1980.0 (3)
+1968.0 (1)
+1990.0 (1)
+1974.0 (1)
+1966.0 (1)</t>
         </is>
       </c>
       <c r="T128" s="3" t="inlineStr">
@@ -18910,19 +17484,8 @@
           <t>EU715258, EU715257, EU715259, EU715260, EU715261, EU715262, EU715263, EU715264, EU715265, EU715266, EU715267, EU715268, EU715269, EU715270, EU715271, EU715272, EU715273, EU715274, EU715275, EU715276, EU715277, EU715278, EU715279, EU715280, EU715281, EU715282, EU715283, EU715284, EU715285, EU715286</t>
         </is>
       </c>
-      <c r="AD128" s="3" t="inlineStr">
-        <is>
-          <t>219 (26)
-72 (4)</t>
-        </is>
-      </c>
-      <c r="AE128" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (26)
-95%-100% (3)
-75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD128" s="3" t="inlineStr"/>
+      <c r="AE128" s="3" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="3" t="inlineStr">
@@ -19039,7 +17602,8 @@
         <is>
           <t>M (13)
 S (13)
-L (10)</t>
+L (8)
+large segment (2)</t>
         </is>
       </c>
       <c r="X129" s="3" t="inlineStr">
@@ -19060,26 +17624,8 @@
           <t>AJ538197, AJ538199, AJ538198, AJ538196, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY573568, AY573567, AY573566, AY573565, AY223476, AY223475, AJ620685, AJ620684, AJ620683, AJ620682, AJ538197, AJ538199, AJ538198, AJ538196, AJ579312, AY223476, AY223475</t>
         </is>
       </c>
-      <c r="AD129" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (12)
-1000-3000 (6)
-5000-10000 (6)
-100-500 (4)
-5370 (2)
-1674 (2)
-3000-5000 (2)
-5374 (1)
-1678 (1)</t>
-        </is>
-      </c>
-      <c r="AE129" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (28)
-95%-100% (6)
-90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD129" s="3" t="inlineStr"/>
+      <c r="AE129" s="3" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="3" t="inlineStr">
@@ -19197,8 +17743,9 @@
       </c>
       <c r="W130" s="3" t="inlineStr">
         <is>
-          <t>S (53)
-M (13)
+          <t>S (36)
+NA (18)
+M (12)
 L (7)</t>
         </is>
       </c>
@@ -19218,30 +17765,8 @@
           <t>NC_005301, AY389361, NC_005301, AY389361, NC_005301, AY389361, NC_005302, U88416, U88415, U88414, U88413, U88412, U88411, U88410, AY389508, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, U04958, AB069669, AB069670, AB069671, AB069672, AB069673, AB069674, AB069675, U39455, AF354296, AF415236</t>
         </is>
       </c>
-      <c r="AD130" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (32)
-1000-3000 (23)
-12108 (6)
-5395 (2)
-5115 (2)
-12098 (1)
-1503 (1)
-5369 (1)
-5368 (1)
-5195 (1)
-5097 (1)
-1675 (1)
-1676 (1)</t>
-        </is>
-      </c>
-      <c r="AE130" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (42)
-95%-100% (20)
-90%-95% (11)</t>
-        </is>
-      </c>
+      <c r="AD130" s="3" t="inlineStr"/>
+      <c r="AE130" s="3" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="3" t="inlineStr">
@@ -19330,14 +17855,14 @@
       </c>
       <c r="S131" s="3" t="inlineStr">
         <is>
-          <t>1988 (54)
-1989 (32)
-1986 (18)
-1990 (16)
-1985 (14)
-1987 (14)
-2002 (12)
-2001 (6)</t>
+          <t>1988.0 (54)
+1989.0 (32)
+1986.0 (18)
+1990.0 (16)
+1985.0 (14)
+1987.0 (14)
+2002.0 (12)
+2001.0 (6)</t>
         </is>
       </c>
       <c r="T131" s="3" t="inlineStr">
@@ -19359,9 +17884,7 @@
       </c>
       <c r="W131" s="3" t="inlineStr">
         <is>
-          <t>M (92)
-L (46)
-S (28)</t>
+          <t>NA (166)</t>
         </is>
       </c>
       <c r="X131" s="3" t="inlineStr">
@@ -19382,19 +17905,8 @@
           <t>FJ435409, FJ435408, FJ435407, FJ435406, FJ435405, FJ435404, FJ435403, FJ435402, FJ435401, FJ435400, FJ435399, FJ435398, FJ435397, FJ435396, FJ435395, FJ435394, FJ435393, FJ435392, FJ435391, FJ435390, FJ435389, FJ435388, FJ435387, FJ435409, FJ435408, FJ435407, FJ435406, FJ435405, FJ435404, FJ435403, FJ435402, FJ435401, FJ435400, FJ435399, FJ435398, FJ435397, FJ435396, FJ435395, FJ435394, FJ435393, FJ435392, FJ435391, FJ435390, FJ435389, FJ435388, FJ435387, FJ435364, FJ435365, FJ435366, FJ435367, FJ435368, FJ435369, FJ435370, FJ435371, FJ435372, FJ435373, FJ435374, FJ435375, FJ435376, FJ435377, FJ435378, FJ435379, FJ435380, FJ435381, FJ435382, FJ435383, FJ435384, FJ435385, FJ435386, FJ435387, FJ435388, FJ435389, FJ435390, FJ435391, FJ435392, FJ435393, FJ435394, FJ435395, FJ435396, FJ435397, FJ435398, FJ435399, FJ435400, FJ435401, FJ435402, FJ435403, FJ435404, FJ435405, FJ435406, FJ435407, FJ435408, FJ435409, FJ435410, FJ435411, FJ435412, FJ435413, FJ435414, FJ435415, FJ435416, FJ435417, FJ435418, FJ435419, FJ435420, FJ435421, FJ435422, FJ435423, FJ435364, FJ435365, FJ435366, FJ435367, FJ435368, FJ435369, FJ435370, FJ435371, FJ435372, FJ435373, FJ435374, FJ435375, FJ435376, FJ435377, FJ435378, FJ435379, FJ435380, FJ435381, FJ435382, FJ435383, FJ435384, FJ435385, FJ435386, FJ435387, FJ435388, FJ435389, FJ435390, FJ435391, FJ435392, FJ435393, FJ435394, FJ435395, FJ435396, FJ435397, FJ435398, FJ435399, FJ435400, FJ435401, FJ435402, FJ435403, FJ435404, FJ435405, FJ435406, FJ435407, FJ435408, FJ435409, FJ435410, FJ435411, FJ435412, FJ435413, FJ435414, FJ435415, FJ435416, FJ435417, FJ435418, FJ435419, FJ435420, FJ435421, FJ435422, FJ435423</t>
         </is>
       </c>
-      <c r="AD131" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (120)
-500-1000 (46)</t>
-        </is>
-      </c>
-      <c r="AE131" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (100)
-75%-90% (42)
-95%-100% (24)</t>
-        </is>
-      </c>
+      <c r="AD131" s="3" t="inlineStr"/>
+      <c r="AE131" s="3" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="inlineStr">
@@ -19511,8 +18023,9 @@
       </c>
       <c r="W132" s="3" t="inlineStr">
         <is>
-          <t>S (309)
-M (137)</t>
+          <t>S (281)
+M (137)
+NA (28)</t>
         </is>
       </c>
       <c r="X132" s="3" t="inlineStr">
@@ -19533,30 +18046,8 @@
           <t>AF481806, AF492424, AF492423, AF492422, AF492421, AF489587, AF489586, AF483274, AF483273, AF483272, AF483271, AF481801, AF481800, AF481802, AF481799, AF481801, AF481800, AF481802, AF481799, AF481804, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AF481806, AF481807, AF483271, AF483272, AF483273, AF483274, AF489586, AF489587, AF492421, AF492422, AF492423, AF492424, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY093620, AY093621, AY093622, AY093623, AY093624, AY093625, AY093626, AY093627, AY277668, AY277669, AY277670, AY277671, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416, AF481806, AF481807, AF492421, AF492422, AF492423, AF492424</t>
         </is>
       </c>
-      <c r="AD132" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (336)
-1000-3000 (84)
-402 (6)
-294 (4)
-468 (4)
-420 (3)
-462 (2)
-285 (2)
-1675 (2)
-1676 (2)
-219 (1)</t>
-        </is>
-      </c>
-      <c r="AE132" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (254)
-90%-95% (77)
-95%-100% (76)
-25%-50% (29)
-50%-75% (10)</t>
-        </is>
-      </c>
+      <c r="AD132" s="3" t="inlineStr"/>
+      <c r="AE132" s="3" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="3" t="inlineStr">
@@ -19645,8 +18136,8 @@
       </c>
       <c r="S133" s="3" t="inlineStr">
         <is>
-          <t>2015 (3)
-2016 (1)</t>
+          <t>2015.0 (3)
+2016.0 (1)</t>
         </is>
       </c>
       <c r="T133" s="3" t="inlineStr">
@@ -19689,20 +18180,8 @@
           <t>MN832722, MN832724, MN832723, MN832721</t>
         </is>
       </c>
-      <c r="AD133" s="3" t="inlineStr">
-        <is>
-          <t>5391 (1)
-1446 (1)
-11929 (1)
-1675 (1)</t>
-        </is>
-      </c>
-      <c r="AE133" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)
-95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD133" s="3" t="inlineStr"/>
+      <c r="AE133" s="3" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="3" t="inlineStr">
@@ -19813,7 +18292,8 @@
       </c>
       <c r="W134" s="3" t="inlineStr">
         <is>
-          <t>S (50)
+          <t>S (36)
+NA (14)
 M (14)
 L (1)</t>
         </is>
@@ -19836,22 +18316,8 @@
           <t>NC_005302, U88416, U88415, U88414, U88413, U88412, U88411, U88410, NC_005300, AF467768, NC_005300, AF467769, AF467768, NC_005300, AF467769, AF467768, AF467769, AY389508, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416</t>
         </is>
       </c>
-      <c r="AD134" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (32)
-1000-3000 (23)
-5366 (6)
-5389 (3)
-12098 (1)</t>
-        </is>
-      </c>
-      <c r="AE134" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (35)
-95%-100% (19)
-90%-95% (11)</t>
-        </is>
-      </c>
+      <c r="AD134" s="3" t="inlineStr"/>
+      <c r="AE134" s="3" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
@@ -19960,7 +18426,8 @@
       </c>
       <c r="W135" s="3" t="inlineStr">
         <is>
-          <t>S (50)
+          <t>S (36)
+NA (14)
 M (5)</t>
         </is>
       </c>
@@ -19978,19 +18445,8 @@
           <t>NC_005302, U88416, U88415, U88414, U88413, U88412, U88411, U88410, AF401647, AF401648, AF401649, AF401650, AF401651, AF481799, AF481800, AF481801, AF481802, AF481803, AF481804, AF481805, AY045562, AY045563, AY045564, AY045565, AY045566, AY045567, AY049078, AY049079, AY049080, AY049081, AY049082, AY049083, AY277668, AY277669, AY277670, AY277671, AY277672, AY277673, AY277674, AY277675, AY277676, AY277677, AY297688, AY297689, AY297690, AY297691, AY297692, NC_005302, U88410, U88411, U88412, U88413, U88414, U88415, U88416</t>
         </is>
       </c>
-      <c r="AD135" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (32)
-1000-3000 (23)</t>
-        </is>
-      </c>
-      <c r="AE135" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (32)
-95%-100% (12)
-90%-95% (11)</t>
-        </is>
-      </c>
+      <c r="AD135" s="3" t="inlineStr"/>
+      <c r="AE135" s="3" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="3" t="inlineStr">
@@ -20079,7 +18535,7 @@
       </c>
       <c r="S136" s="3" t="inlineStr">
         <is>
-          <t>2019 (1)</t>
+          <t>2019.0 (1)</t>
         </is>
       </c>
       <c r="T136" s="3" t="inlineStr">
@@ -20099,7 +18555,7 @@
       </c>
       <c r="W136" s="3" t="inlineStr">
         <is>
-          <t>L (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X136" s="3" t="inlineStr">
@@ -20120,16 +18576,8 @@
           <t>ON564456</t>
         </is>
       </c>
-      <c r="AD136" s="3" t="inlineStr">
-        <is>
-          <t>445 (1)</t>
-        </is>
-      </c>
-      <c r="AE136" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD136" s="3" t="inlineStr"/>
+      <c r="AE136" s="3" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="3" t="inlineStr">
@@ -20241,7 +18689,9 @@
       </c>
       <c r="W137" s="3" t="inlineStr">
         <is>
-          <t>S (23)</t>
+          <t>S (11)
+NA (8)
+small (4)</t>
         </is>
       </c>
       <c r="X137" s="3" t="inlineStr">
@@ -20266,19 +18716,8 @@
           <t>AY029157, AJ010648, AJ010649, AF354296, AF358784, AF362080, AY029157, AF354296, AF358784, AF362080, AY029157, AF354296, AF358784, AF362080, AY029157, AF354296, AF358784, AF362080, AY029157, AF354296, AF415236, AF354296, AF415236</t>
         </is>
       </c>
-      <c r="AD137" s="3" t="inlineStr">
-        <is>
-          <t>1676 (12)
-1677 (4)
-1674 (4)
-1675 (3)</t>
-        </is>
-      </c>
-      <c r="AE137" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (23)</t>
-        </is>
-      </c>
+      <c r="AD137" s="3" t="inlineStr"/>
+      <c r="AE137" s="3" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
@@ -20367,7 +18806,7 @@
       </c>
       <c r="S138" s="3" t="inlineStr">
         <is>
-          <t>2022 (9)</t>
+          <t>2022.0 (9)</t>
         </is>
       </c>
       <c r="T138" s="3" t="inlineStr">
@@ -20410,21 +18849,8 @@
           <t>OP345196, OP345193, OP345190, OP345195, OP345192, OP345189, OP345194, OP345191, OP345188</t>
         </is>
       </c>
-      <c r="AD138" s="3" t="inlineStr">
-        <is>
-          <t>1446 (3)
-11843 (2)
-5056 (2)
-11850 (1)
-5004 (1)</t>
-        </is>
-      </c>
-      <c r="AE138" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (6)
-95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD138" s="3" t="inlineStr"/>
+      <c r="AE138" s="3" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
@@ -20515,15 +18941,15 @@
       </c>
       <c r="S139" s="3" t="inlineStr">
         <is>
-          <t>2012 (540)
-2013 (511)
-2014 (436)
-2009 (317)
-2008 (284)
-2007 (284)
-2011 (178)
-2010 (166)
-2015 (24)</t>
+          <t>2012.0 (540)
+2013.0 (511)
+2014.0 (436)
+2009.0 (317)
+2008.0 (284)
+2007.0 (284)
+2011.0 (178)
+2010.0 (166)
+2015.0 (24)</t>
         </is>
       </c>
       <c r="T139" s="3" t="inlineStr">
@@ -20563,30 +18989,8 @@
           <t>KR814836, KR814835, KR814834, KR814833, KR822022, KR822021, KR822020, KR822019, KR822018, KR822017, KR822016, KR822015, KR822014, KR822013, KR822012, KR822011, KR822010, KR822009, KR822008, KR822007, KR822006, KR822005, KR822004, KR822003, KR822002, KR822001, KR822000, KR821999, KR821998, KR821997, KR821996, KR821995, KR821994, KR821993, KR821992, KR821991, KR821990, KR821989, KR821988, KR821987, KR821986, KR821985, KR821984, KR821983, KR821982, KR821981, KR821980, KR821979, KR821978, KR821977, KR821976, KR821975, KR821974, KR821973, KR821972, KR821971, KR821970, KR821969, KR821968, KR821967, KR821966, KR821965, KR821964, KR821963, KR821962, KR821961, KR821960, KR821959, KR821958, KR821957, KR821956, KR821955, KR821954, KR821953, KR821952, KR821951, KR821950, KR821949, KR821948, KR821947, KR821946, KR821945, KR821944, KR821943, KR821942, KR821941, KR821940, KR821939, KR821938, KR821937, KR821936, KR821935, KR821934, KR821933, KR821932, KR821931, KR821930, KR821929, KR821928, KR821927, KR821926, KR821925, KR821924, KR821923, KR821922, KR821921, KR821920, KR821919, KR821918, KR821917, KR821916, KR821915, KR821914, KR821913, KR821912, KR821911, KR821910, KR821909, KR821908, KR821907, KR821906, KR821905, KR821904, KR821903, KR821902, KR821901, KR821900, KR821899, KR821898, KR821897, KR821896, KR821895, KR821894, KR821893, KR821892, KR821891, KR821890, KR821889, KR821888, KR821887, KR821886, KR821885, KR821884, KR821883, KR821882, KR821881, KR821880, KR821879, KR821878, KR821877, KR821876, KR821875, KR821874, KR821873, KR821872, KR821871, KR821870, KR821869, KR821868, KR821867, KR821866, KR821865, KR821864, KR821863, KR821862, KR821861, KR821860, KR821859, KR821858, KR821857, KR821856, KR821855, KR821854, KR821853, KR821852, KR821851, KR821850, KR821849, KR821848, KR821847, KR821846, KR821845, KR821844, KR821843, KR821842, KR821841, KR821840, KR821839, KR821838, KR821837, KR821836, KR821835, KR821834, KR821833, KR821832, KR821831, KR821830, KR821829, KR821828, KR821827, KR821826, KR821825, KR821824, KR821823, KR821822, KR821821, KR821820, KR821819, KR821818, KR821817, KR821816, KR821815, KR821814, KR821813, KR821812, KR821811, KR821810, KR821809, KR821808, KR821807, KR821806, KR821805, KR821804, KR821803, KR821802, KR821801, KR821800, KR821799, KR821798, KR821797, KR821796, KR821795, KR821794, KR821793, KR821792, KR821791, KR821790, KR821789, KR821788, KR821787, KR821786, KR821785, KR821784, KR821783, KR821782, KR821781, KR821780, KR821779, KR821778, KR821777, KR821776, KR821775, KR821774, KR821773, KR821772, KR821771, KR821770, KR821769, KR821768, KR821767, KR821766, KR821765, KR821764, KR821763, KR821762, KR821761, KR821760, KR821759, KR821758, KR821757, KR821756, KR821755, KR821754, KR821753, KR821752, KR821751, KR821750, KR821749, KR821748, KR821747, KR821746, KR821745, KR821744, KR821743, KR821742, KR821741, KR821740, KR821739, KR821738, KR821737, KR821736, KR821735, KR821734, KR821733, KR821732, KR821731, KR821730, KR821729, KR821728, KR821727, KR821726, KR821725, KR821724, KR821723, KR821722, KR821721, KR821720, KR821719, KR821718, KR821717, KR821716, KR821715, KR821714, KR821713, KR821712, KR821711, KR821710, KR821709, KR821708, KR821707, KR821706, KR821705, KR821704, KR821703, KR821702, KR821701, KR821700, KR821699, KR821698, KR821697, KR821696, KR821695, KR821694, KR821693, KR821692, KR821691, KR821690, KR821689, KR821688, KR821687, KR821686, KR821685, KR821684, KR821683, KR821682, KR821681, KR821680, KR821679, KR821678, KR821677, KR821676, KR821675, KR821674, KR821673, KR821672, KR821671, KR821670, KR821669, KR821668, KR821667, KR821666, KR821665, KR821664, KR821663, KR821662, KR821661, KR821660, KR821659, KR821658, KR821657, KR821656, KR821655, KR821654, KR821653, KR821652, KR821651, KR821650, KR821649, KR821648, KR821647, KR821646, KR821645, KR821644, KR821643, KR821642, KR821641, KR821640, KR821639, KR821638, KR821637, KR821636, KR821635, KR821634, KR821633, KR821632, KR821631, KR821630, KR821629, KR821628, KR821627, KR821626, KR821625, KR821624, KR821623, KR821622, KR821621, KR821620, KR821619, KR821618, KR821617, KR821616, KR821615, KR821614, KR821613, KR821612, KR821611, KR821610, KR821609, KR821608, KR821607, KR821606, KR821605, KR821604, KR821603, KR821602, KR821601, KR821600, KR821599, KR821598, KR821597, KR821596, KR821595, KR821594, KR821593, KR821592, KR821591, KR821590, KR821589, KR821588, KR821587, KR821586, KR821585, KR821584, KR821583, KR821582, KR821581, KR821580, KR821579, KR821578, KR821577, KR821576, KR821575, KR821574, KR821573, KR821572, KR821571, KR821570, KR821569, KR821568, KR821567, KR821566, KR821565, KR821564, KR821563, KR821562, KR821561, KR821560, KR821559, KR821558, KR821557, KR821556, KR821555, KR821554, KR821553, KR821552, KR821551, KR821550, KR821549, KR821548, KR821547, KR821546, KR821545, KR821544, KR821543, KR821542, KR821541, KR821540, KR821539, KR821538, KR821537, KR821536, KR821535, KR821534, KR821533, KR821532, KR821531, KR821530, KR821529, KR821528, KR821527, KR821526, KR821525, KR821524, KR821523, KR821522, KR821521, KR821520, KR821519, KR821518, KR821517, KR821516, KR821515, KR821514, KR821513, KR821512, KR821511, KR821510, KR821509, KR821508, KR821507, KR821506, KR821505, KR821504, KR821503, KR821502, KR821501, KR821500, KR821499, KR821498, KR821497, KR821496, KR821495, KR821494, KR821493, KR821492, KR821491, KR821490, KR821489, KR821488, KR821487, KR821486, KR821485, KR821484, KR821483, KR821482, KR821481, KR821480, KR821479, KR821478, KR821477, KR821476, KR821475, KR821474, KR821473, KR821472, KR821471, KR821470, KR821469, KR821468, KR821467, KR821466, KR821465, KR821464, KR821463, KR821462, KR821461, KR821460, KR821459, KR821458, KR821457, KR821456, KR821455, KR821454, KR821453, KR821452, KR821451, KR821450, KR821449, KR821448, KR821447, KR821446, KR821445, KR821444, KR821443, KR821442, KR821441, KR821440, KR821439, KR821438, KR821437, KR821436, KR821435, KR821434, KR821433, KR821432, KR821431, KR821430, KR821429, KR821428, KR821427, KR821426, KR821425, KR821424, KR821423, KR821422, KR821421, KR821420, KR821419, KR821418, KR821417, KR821416, KR821415, KR821414, KR821413, KR821412, KR821411, KR821410, KR821409, KR821408, KR821407, KR821406, KR821405, KR821404, KR821403, KR821402, KR821401, KR821400, KR821399, KR821398, KR821397, KR821396, KR821395, KR821394, KR821393, KR821392, KR821391, KR821390, KR821389, KR821388, KR821387, KR821386, KR821385, KR821384, KR821383, KR821382, KR821381, KR821380, KR821379, KR821378, KR821377, KR821376, KR821375, KR821374, KR821373, KR821372, KR821371, KR821370, KR821369, KR821368, KR821367, KR821366, KR821365, KR821364, KR821363, KR821362, KR821361, KR821360, KR821359, KR821358, KR821357, KR821356, KR821355, KR821354, KR821353, KR821352, KR821351, KR821350, KR821349, KR821348, KR821347, KR821346, KR821345, KR821344, KR821343, KR821342, KR821341, KR821340, KR821339, KR821338, KR821337, KR821336, KR821335, KR821334, KR821333, KR821332, KR821331, KR821330, KR821329, KR821328, KR821327, KR821326, KR821325, KR821324, KR821323, KR821322, KR821321, KR821320, KR821319, KR821318, KR821317, KR821316, KR821315, KR821314, KR821313, KR821312, KR821311, KR821310, KR821309, KR821308, KR821307, KR821306, KR821305, KR821304, KR821303, KR821302, KR821301, KR821300, KR821299, KR821298, KR821297, KR821296, KR821295, KR821294, KR821293, KR821292, KR821291, KR821290, KR821289, KR821288, KR821287, KR821286, KR821285, KR821284, KR821283, KR821282, KR821281, KR821280, KR821279, KR821278, KR821277, KR821276, KR821275, KR821274, KR821273, KR821272, KR821271, KR821270, KR821269, KR821268, KR821267, KR821266, KR821265, KR821264, KR821263, KR821262, KR821261, KR821260, KR821259, KR821258, KR821257, KR821256, KR821255, KR821254, KR821253, KR821252, KR821251, KR821250, KR821249, KR821248, KR821247, KR821246, KR821245, KR821244, KR821243, KR821242, KR821241, KR821240, KR821239, KR821238, KR821237, KR821236, KR821235, KR821234, KR821233, KR821232, KR821231, KR821230, KR821229, KR821228, KR821227, KR821226, KR821225, KR821224, KR821223, KR821222, KR821221, KR821220, KR821219, KR821218, KR821217, KR821216, KR821215, KR821214, KR821213, KR821212, KR821211, KR821210, KR821209, KR821208, KR821207, KR821206, KR821205, KR821204, KR821203, KR821202, KR821201, KR821200, KR821199, KR821198, KR821197, KR821196, KR821195, KR821194, KR821193, KR821192, KR821191, KR821190, KR821189, KR821188, KR821187, KR821186, KR821185, KR821184, KR821183, KR821182, KR821181, KR821180, KR821179, KR821178, KR821177, KR821176, KR821175, KR821174, KR821173, KR821172, KR821171, KR821170, KR815339, KR815338, KR815337, KR815336, KR815335, KR815334, KR815333, KR815332, KR815331, KR815330, KR815329, KR815328, KR815327, KR815326, KR815325, KR815324, KR815323, KR815322, KR815321, KR815320, KR815319, KR815318, KR815317, KR815316, KR815315, KR815314, KR815313, KR815312, KR815311, KR815310, KR815309, KR815308, KR815307, KR815306, KR815305, KR815304, KR815303, KR815302, KR815301, KR815300, KR815299, KR815298, KR815297, KR815296, KR815295, KR815294, KR815293, KR815292, KR815291, KR815290, KR815289, KR815288, KR815287, KR815286, KR815285, KR815284, KR815283, KR815282, KR815281, KR815280, KR815279, KR815278, KR815277, KR815276, KR815275, KR815274, KR815273, KR815272, KR815271, KR815270, KR815269, KR815268, KR815267, KR815266, KR815265, KR815264, KR815263, KR815262, KR815261, KR815260, KR815259, KR815258, KR815257, KR815256, KR815255, KR815254, KR815253, KR815252, KR815251, KR815250, KR815249, KR815248, KR815247, KR815246, KR815245, KR815244, KR815243, KR815242, KR815241, KR815240, KR815239, KR815238, KR815237, KR815236, KR815235, KR815234, KR815233, KR815232, KR815231, KR815230, KR815229, KR815228, KR815227, KR815226, KR815225, KR815224, KR815223, KR815222, KR815221, KR815220, KR815219, KR815218, KR815217, KR815216, KR815215, KR815214, KR815213, KR815212, KR815211, KR815210, KR815209, KR815208, KR815207, KR815206, KR815205, KR815204, KR815203, KR815202, KR815201, KR815200, KR815199, KR815198, KR815197, KR815196, KR815195, KR815194, KR815193, KR815192, KR815191, KR815190, KR815189, KR815188, KR815187, KR815186, KR815185, KR815184, KR815183, KR815182, KR815181, KR815180, KR815179, KR815178, KR815177, KR815176, KR815175, KR815174, KR815173, KR815172, KR815171, KR815170, KR815169, KR815168, KR815167, KR815166, KR815165, KR815164, KR815163, KR815162, KR815161, KR815160, KR815159, KR815158, KR815157, KR815156, KR815155, KR815154, KR815153, KR815152, KR815151, KR815150, KR815149, KR815148, KR815147, KR815146, KR815145, KR815144, KR815143, KR815142, KR815141, KR815140, KR815139, KR815138, KR815137, KR815136, KR815135, KR815134, KR815133, KR815132, KR815131, KR815130, KR815129, KR815128, KR815127, KR815126, KR815125, KR815124, KR815123, KR815122, KR815121, KR815120, KR815119, KR815118, KR815117, KR815116, KR815115, KR815114, KR815113, KR815112, KR815111, KR815110, KR815109, KR815108, KR815107, KR815106, KR815105, KR815104, KR815103, KR815102, KR815101, KR815100, KR815099, KR815098, KR815097, KR815096, KR815095, KR815094, KR815093, KR815092, KR815091, KR815090, KR815089, KR815088, KR815087, KR815086, KR815085, KR815084, KR815083, KR815082, KR815081, KR815080, KR815079, KR815078, KR815077, KR815076, KR815075, KR815074, KR815073, KR815072, KR815071, KR815070, KR815069, KR815068, KR815067, KR815066, KR815065, KR815064, KR815063, KR815062, KR815061, KR815060, KR815059, KR815058, KR815057, KR815056, KR815055, KR815054, KR815053, KR815052, KR815051, KR815050, KR815049, KR815048, KR815047, KR815046, KR815045, KR815044, KR815043, KR815042, KR815041, KR815040, KR815039, KR815038, KR815037, KR815036, KR815035, KR815034, KR815033, KR815032, KR815031, KR815030, KR815029, KR815028, KR815027, KR815026, KR815025, KR815024, KR815023, KR815022, KR815021, KR815020, KR815019, KR815018, KR815017, KR815016, KR815015, KR815014, KR815013, KR815012, KR815011, KR815010, KR815009, KR815008, KR815007, KR815006, KR815005, KR815004, KR815003, KR815002, KR815001, KR815000, KR814999, KR814998, KR814997, KR814996, KR814995, KR814994, KR814993, KR814992, KR814991, KR814990, KR814989, KR814988, KR814987, KR814986, KR814985, KR814984, KR814983, KR814982, KR814981, KR814980, KR814979, KR814978, KR814977, KR814976, KR814975, KR814974, KR814973, KR814972, KR814971, KR814970, KR814969, KR814968, KR814967, KR814966, KR814965, KR814964, KR814963, KR814962, KR814961, KR814960, KR814959, KR814958, KR814957, KR814956, KR814955, KR814954, KR814953, KR814952, KR814951, KR814950, KR814949, KR814948, KR814947, KR814946, KR814945, KR814944, KR814943, KR814942, KR814941, KR814940, KR814939, KR814938, KR814937, KR814936, KR814935, KR814934, KR814933, KR814932, KR814931, KR814930, KR814929, KR814928, KR814927, KR814926, KR814925, KR814924, KR814923, KR814922, KR814921, KR814920, KR814919, KR814918, KR814917, KR814916, KR814915, KR814914, KR814913, KR814912, KR814911, KR814910, KR814909, KR814908, KR814907, KR814906, KR814905, KR814904, KR814903, KR814902, KR814901, KR814900, KR814899, KR814898, KR814897, KR814896, KR814895, KR814894, KR822022, KR822021, KR822020, KR822019, KR822018, KR822017, KR822016, KR822015, KR822014, KR822013, KR822012, KR822011, KR822010, KR822009, KR822008, KR822007, KR822006, KR822005, KR822004, KR822003, KR822002, KR822001, KR822000, KR821999, KR821998, KR821997, KR821996, KR821995, KR821994, KR821993, KR821992, KR821991, KR821990, KR821989, KR821988, KR821987, KR821986, KR821985, KR821984, KR821983, KR821982, KR821981, KR821980, KR821979, KR821978, KR821977, KR821976, KR821975, KR821974, KR821973, KR821972, KR821971, KR821970, KR821969, KR821968, KR821967, KR821966, KR821965, KR821964, KR821963, KR821962, KR821961, KR821960, KR821959, KR821958, KR821957, KR821956, KR821955, KR821954, KR821953, KR821952, KR821951, KR821950, KR821949, KR821948, KR821947, KR821946, KR821945, KR821944, KR821943, KR821942, KR821941, KR821940, KR821939, KR821938, KR821937, KR821936, KR821935, KR821934, KR821933, KR821932, KR821931, KR821930, KR821929, KR821928, KR821927, KR821926, KR821925, KR821924, KR821923, KR821922, KR821921, KR821920, KR821919, KR821918, KR821917, KR821916, KR821915, KR821914, KR821913, KR821912, KR821911, KR821910, KR821909, KR821908, KR821907, KR821906, KR821905, KR821904, KR821903, KR821902, KR821901, KR821900, KR821899, KR821898, KR821897, KR821896, KR821895, KR821894, KR821893, KR821892, KR821891, KR821890, KR821889, KR821888, KR821887, KR821886, KR821885, KR821884, KR821883, KR821882, KR821881, KR821880, KR821879, KR821878, KR821877, KR821876, KR821875, KR821874, KR821873, KR821872, KR821871, KR821870, KR821869, KR821868, KR821867, KR821866, KR821865, KR821864, KR821863, KR821862, KR821861, KR821860, KR821859, KR821858, KR821857, KR821856, KR821855, KR821854, KR821853, KR821852, KR821851, KR821850, KR821849, KR821848, KR821847, KR821846, KR821845, KR821844, KR821843, KR821842, KR821841, KR821840, KR821839, KR821838, KR821837, KR821836, KR821835, KR821834, KR821833, KR821832, KR821831, KR821830, KR821829, KR821828, KR821827, KR821826, KR821825, KR821824, KR821823, KR821822, KR821821, KR821820, KR821819, KR821818, KR821817, KR821816, KR821815, KR821814, KR821813, KR821812, KR821811, KR821810, KR821809, KR821808, KR821807, KR821806, KR821805, KR821804, KR821803, KR821802, KR821801, KR821800, KR821799, KR821798, KR821797, KR821796, KR821795, KR821794, KR821793, KR821792, KR821791, KR821790, KR821789, KR821788, KR821787, KR821786, KR821785, KR821784, KR821783, KR821782, KR821781, KR821780, KR821779, KR821778, KR821777, KR821776, KR821775, KR821774, KR821773, KR821772, KR821771, KR821770, KR821769, KR821768, KR821767, KR821766, KR821765, KR821764, KR821763, KR821762, KR821761, KR821760, KR821759, KR821758, KR821757, KR821756, KR821755, KR821754, KR821753, KR821752, KR821751, KR821750, KR821749, KR821748, KR821747, KR821746, KR821745, KR821744, KR821743, KR821742, KR821741, KR821740, KR821739, KR821738, KR821737, KR821736, KR821735, KR821734, KR821733, KR821732, KR821731, KR821730, KR821729, KR821728, KR821727, KR821726, KR821725, KR821724, KR821723, KR821722, KR821721, KR821720, KR821719, KR821718, KR821717, KR821716, KR821715, KR821714, KR821713, KR821712, KR821711, KR821710, KR821709, KR821708, KR821707, KR821706, KR821705, KR821704, KR821703, KR821702, KR821701, KR821700, KR821699, KR821698, KR821697, KR821696, KR821695, KR821694, KR821693, KR821692, KR821691, KR821690, KR821689, KR821688, KR821687, KR821686, KR821685, KR821684, KR821683, KR821682, KR821681, KR821680, KR821679, KR821678, KR821677, KR821676, KR821675, KR821674, KR821673, KR821672, KR821671, KR821670, KR821669, KR821668, KR821667, KR821666, KR821665, KR821664, KR821663, KR821662, KR821661, KR821660, KR821659, KR821658, KR821657, KR821656, KR821655, KR821654, KR821653, KR821652, KR821651, KR821650, KR821649, KR821648, KR821647, KR821646, KR821645, KR821644, KR821643, KR821642, KR821641, KR821640, KR821639, KR821638, KR821637, KR821636, KR821635, KR821634, KR821633, KR821632, KR821631, KR821630, KR821629, KR821628, KR821627, KR821626, KR821625, KR821624, KR821623, KR821622, KR821621, KR821620, KR821619, KR821618, KR821617, KR821616, KR821615, KR821614, KR821613, KR821612, KR821611, KR821610, KR821609, KR821608, KR821607, KR821606, KR821605, KR821604, KR821603, KR821602, KR821601, KR821600, KR821599, KR821598, KR821597, KR821596, KR821595, KR821594, KR821593, KR821592, KR821591, KR821590, KR821589, KR821588, KR821587, KR821586, KR821585, KR821584, KR821583, KR821582, KR821581, KR821580, KR821579, KR821578, KR821577, KR821576, KR821575, KR821574, KR821573, KR821572, KR821571, KR821570, KR821569, KR821568, KR821567, KR821566, KR821565, KR821564, KR821563, KR821562, KR821561, KR821560, KR821559, KR821558, KR821557, KR821556, KR821555, KR821554, KR821553, KR821552, KR821551, KR821550, KR821549, KR821548, KR821547, KR821546, KR821545, KR821544, KR821543, KR821542, KR821541, KR821540, KR821539, KR821538, KR821537, KR821536, KR821535, KR821534, KR821533, KR821532, KR821531, KR821530, KR821529, KR821528, KR821527, KR821526, KR821525, KR821524, KR821523, KR821522, KR821521, KR821520, KR821519, KR821518, KR821517, KR821516, KR821515, KR821514, KR821513, KR821512, KR821511, KR821510, KR821509, KR821508, KR821507, KR821506, KR821505, KR821504, KR821503, KR821502, KR821501, KR821500, KR821499, KR821498, KR821497, KR821496, KR821495, KR821494, KR821493, KR821492, KR821491, KR821490, KR821489, KR821488, KR821487, KR821486, KR821485, KR821484, KR821483, KR821482, KR821481, KR821480, KR821479, KR821478, KR821477, KR821476, KR821475, KR821474, KR821473, KR821472, KR821471, KR821470, KR821469, KR821468, KR821467, KR821466, KR821465, KR821464, KR821463, KR821462, KR821461, KR821460, KR821459, KR821458, KR821457, KR821456, KR821455, KR821454, KR821453, KR821452, KR821451, KR821450, KR821449, KR821448, KR821447, KR821446, KR821445, KR821444, KR821443, KR821442, KR821441, KR821440, KR821439, KR821438, KR821437, KR821436, KR821435, KR821434, KR821433, KR821432, KR821431, KR821430, KR821429, KR821428, KR821427, KR821426, KR821425, KR821424, KR821423, KR821422, KR821421, KR821420, KR821419, KR821418, KR821417, KR821416, KR821415, KR821414, KR821413, KR821412, KR821411, KR821410, KR821409, KR821408, KR821407, KR821406, KR821405, KR821404, KR821403, KR821402, KR821401, KR821400, KR821399, KR821398, KR821397, KR821396, KR821395, KR821394, KR821393, KR821392, KR821391, KR821390, KR821389, KR821388, KR821387, KR821386, KR821385, KR821384, KR821383, KR821382, KR821381, KR821380, KR821379, KR821378, KR821377, KR821376, KR821375, KR821374, KR821373, KR821372, KR821371, KR821370, KR821369, KR821368, KR821367, KR821366, KR821365, KR821364, KR821363, KR821362, KR821361, KR821360, KR821359, KR821358, KR821357, KR821356, KR821355, KR821354, KR821353, KR821352, KR821351, KR821350, KR821349, KR821348, KR821347, KR821346, KR821345, KR821344, KR821343, KR821342, KR821341, KR821340, KR821339, KR821338, KR821337, KR821336, KR821335, KR821334, KR821333, KR821332, KR821331, KR821330, KR821329, KR821328, KR821327, KR821326, KR821325, KR821324, KR821323, KR821322, KR821321, KR821320, KR821319, KR821318, KR821317, KR821316, KR821315, KR821314, KR821313, KR821312, KR821311, KR821310, KR821309, KR821308, KR821307, KR821306, KR821305, KR821304, KR821303, KR821302, KR821301, KR821300, KR821299, KR821298, KR821297, KR821296, KR821295, KR821294, KR821293, KR821292, KR821291, KR821290, KR821289, KR821288, KR821287, KR821286, KR821285, KR821284, KR821283, KR821282, KR821281, KR821280, KR821279, KR821278, KR821277, KR821276, KR821275, KR821274, KR821273, KR821272, KR821271, KR821270, KR821269, KR821268, KR821267, KR821266, KR821265, KR821264, KR821263, KR821262, KR821261, KR821260, KR821259, KR821258, KR821257, KR821256, KR821255, KR821254, KR821253, KR821252, KR821251, KR821250, KR821249, KR821248, KR821247, KR821246, KR821245, KR821244, KR821243, KR821242, KR821241, KR821240, KR821239, KR821238, KR821237, KR821236, KR821235, KR821234, KR821233, KR821232, KR821231, KR821230, KR821229, KR821228, KR821227, KR821226, KR821225, KR821224, KR821223, KR821222, KR821221, KR821220, KR821219, KR821218, KR821217, KR821216, KR821215, KR821214, KR821213, KR821212, KR821211, KR821210, KR821209, KR821208, KR821207, KR821206, KR821205, KR821204, KR821203, KR821202, KR821201, KR821200, KR821199, KR821198, KR821197, KR821196, KR821195, KR821194, KR821193, KR821192, KR821191, KR821190, KR821189, KR821188, KR821187, KR821186, KR821185, KR821184, KR821183, KR821182, KR821181, KR821180, KR821179, KR821178, KR821177, KR821176, KR821175, KR821174, KR821173, KR821172, KR821171, KR821170, KR815339, KR815338, KR815337, KR815336, KR815335, KR815334, KR815333, KR815332, KR815331, KR815330, KR815329, KR815328, KR815327, KR815326, KR815325, KR815324, KR815323, KR815322, KR815321, KR815320, KR815319, KR815318, KR815317, KR815316, KR815315, KR815314, KR815313, KR815312, KR815311, KR815310, KR815309, KR815308, KR815307, KR815306, KR815305, KR815304, KR815303, KR815302, KR815301, KR815300, KR815299, KR815298, KR815297, KR815296, KR815295, KR815294, KR815293, KR815292, KR815291, KR815290, KR815289, KR815288, KR815287, KR815286, KR815285, KR815284, KR815283, KR815282, KR815281, KR815280, KR815279, KR815278, KR815277, KR815276, KR815275, KR815274, KR815273, KR815272, KR815271, KR815270, KR815269, KR815268, KR815267, KR815266, KR815265, KR815264, KR815263, KR815262, KR815261, KR815260, KR815259, KR815258, KR815257, KR815256, KR815255, KR815254, KR815253, KR815252, KR815251, KR815250, KR815249, KR815248, KR815247, KR815246, KR815245, KR815244, KR815243, KR815242, KR815241, KR815240, KR815239, KR815238, KR815237, KR815236, KR815235, KR815234, KR815233, KR815232, KR815231, KR815230, KR815229, KR815228, KR815227, KR815226, KR815225, KR815224, KR815223, KR815222, KR815221, KR815220, KR815219, KR815218, KR815217, KR815216, KR815215, KR815214, KR815213, KR815212, KR815211, KR815210, KR815209, KR815208, KR815207, KR815206, KR815205, KR815204, KR815203, KR815202, KR815201, KR815200, KR815199, KR815198, KR815197, KR815196, KR815195, KR815194, KR815193, KR815192, KR815191, KR815190, KR815189, KR815188, KR815187, KR815186, KR815185, KR815184, KR815183, KR815182, KR815181, KR815180, KR815179, KR815178, KR815177, KR815176, KR815175, KR815174, KR815173, KR815172, KR815171, KR815170, KR815169, KR815168, KR815167, KR815166, KR815165, KR815164, KR815163, KR815162, KR815161, KR815160, KR815159, KR815158, KR815157, KR815156, KR815155, KR815154, KR815153, KR815152, KR815151, KR815150, KR815149, KR815148, KR815147, KR815146, KR815145, KR815144, KR815143, KR815142, KR815141, KR815140, KR815139, KR815138, KR815137, KR815136, KR815135, KR815134, KR815133, KR815132, KR815131, KR815130, KR815129, KR815128, KR815127, KR815126, KR815125, KR815124, KR815123, KR815122, KR815121, KR815120, KR815119, KR815118, KR815117, KR815116, KR815115, KR815114, KR815113, KR815112, KR815111, KR815110, KR815109, KR815108, KR815107, KR815106, KR815105, KR815104, KR815103, KR815102, KR815101, KR815100, KR815099, KR815098, KR815097, KR815096, KR815095, KR815094, KR815093, KR815092, KR815091, KR815090, KR815089, KR815088, KR815087, KR815086, KR815085, KR815084, KR815083, KR815082, KR815081, KR815080, KR815079, KR815078, KR815077, KR815076, KR815075, KR815074, KR815073, KR815072, KR815071, KR815070, KR815069, KR815068, KR815067, KR815066, KR815065, KR815064, KR815063, KR815062, KR815061, KR815060, KR815059, KR815058, KR815057, KR815056, KR815055, KR815054, KR815053, KR815052, KR815051, KR815050, KR815049, KR815048, KR815047, KR815046, KR815045, KR815044, KR815043, KR815042, KR815041, KR815040, KR815039, KR815038, KR815037, KR815036, KR815035, KR815034, KR815033, KR815032, KR815031, KR815030, KR815029, KR815028, KR815027, KR815026, KR815025, KR815024, KR815023, KR815022, KR815021, KR815020, KR815019, KR815018, KR815017, KR815016, KR815015, KR815014, KR815013, KR815012, KR815011, KR815010, KR815009, KR815008, KR815007, KR815006, KR815005, KR815004, KR815003, KR815002, KR815001, KR815000, KR814999, KR814998, KR814997, KR814996, KR814995, KR814994, KR814993, KR814992, KR814991, KR814990, KR814989, KR814988, KR814987, KR814986, KR814985, KR814984, KR814983, KR814982, KR814981, KR814980, KR814979, KR814978, KR814977, KR814976, KR814975, KR814974, KR814973, KR814972, KR814971, KR814970, KR814969, KR814968, KR814967, KR814966, KR814965, KR814964, KR814963, KR814962, KR814961, KR814960, KR814959, KR814958, KR814957, KR814956, KR814955, KR814954, KR814953, KR814952, KR814951, KR814950, KR814949, KR814948, KR814947, KR814946, KR814945, KR814944, KR814943, KR814942, KR814941, KR814940, KR814939, KR814938, KR814937, KR814936, KR814935, KR814934, KR814933, KR814932, KR814931, KR814930, KR814929, KR814928, KR814927, KR814926, KR814925, KR814924, KR814923, KR814922, KR814921, KR814920, KR814919, KR814918, KR814917, KR814916, KR814915, KR814914, KR814913, KR814912, KR814911, KR814910, KR814909, KR814908, KR814907, KR814906, KR814905, KR814904, KR814903, KR814902, KR814901, KR814900, KR814899, KR814898, KR814897, KR814896, KR814895, KR814894, KR814837, KR814838, KR814839, KR814840, KR814841, KR814842, KR814843, KR814844, KR814845, KR814846, KR814847, KR814848, KR814849, KR814850, KR814851, KR814852, KR814853, KR814854, KR814855, KR814856, KR814857, KR814858, KR814859, KR814860, KR814861, KR814862, KR814863, KR814864, KR814865, KR814866, KR814867, KR814868, KR814869, KR814870, KR814871, KR814872, KR814873, KR814874, KR814875, KR814876, KR814877, KR814878, KR814879, KR814880, KR814881, KR814882, KR814883, KR814884, KR814885, KR814886, KR814887, KR814888, KR814889, KR814890, KR814891, KR814892, KR814893, KU161576, KU161577, KU161578, KU161579, KU161580, KU161581, KU161582, KU161583, KU161584, KU161585, KU161586, KU161587, KR814837, KR814838, KR814839, KR814840, KR814841, KR814842, KR814843, KR814844, KR814845, KR814846, KR814847, KR814848, KR814849, KR814850, KR814851, KR814852, KR814853, KR814854, KR814855, KR814856, KR814857, KR814858, KR814859, KR814860, KR814861, KR814862, KR814863, KR814864, KR814865, KR814866, KR814867, KR814868, KR814869, KR814870, KR814871, KR814872, KR814873, KR814874, KR814875, KR814876, KR814877, KR814878, KR814879, KR814880, KR814881, KR814882, KR814883, KR814884, KR814885, KR814886, KR814887, KR814888, KR814889, KR814890, KR814891, KR814892, KR814893, KU161576, KU161577, KU161578, KU161579, KU161580, KU161581, KU161582, KU161583, KU161584, KU161585, KU161586, KU161587</t>
         </is>
       </c>
-      <c r="AD139" s="3" t="inlineStr">
-        <is>
-          <t>537 (890)
-402 (872)
-437 (768)
-435 (66)
-1000-3000 (42)
-5000-10000 (42)
-&gt;10000 (42)
-100-500 (8)
-500-1000 (4)
-1484 (2)
-538 (2)
-1632 (1)
-1446 (1)</t>
-        </is>
-      </c>
-      <c r="AE139" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1498)
-75%-90% (1232)
-95%-100% (10)</t>
-        </is>
-      </c>
+      <c r="AD139" s="3" t="inlineStr"/>
+      <c r="AE139" s="3" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
@@ -20675,7 +19079,7 @@
       </c>
       <c r="S140" s="3" t="inlineStr">
         <is>
-          <t>2021 (3)</t>
+          <t>2021.0 (3)</t>
         </is>
       </c>
       <c r="T140" s="3" t="inlineStr">
@@ -20720,20 +19124,8 @@
           <t>OQ633004, OQ633003, OQ633002</t>
         </is>
       </c>
-      <c r="AD140" s="3" t="inlineStr">
-        <is>
-          <t>1446 (1)
-5127 (1)
-11866 (1)</t>
-        </is>
-      </c>
-      <c r="AE140" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (1)
-75%-90% (1)
-90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD140" s="3" t="inlineStr"/>
+      <c r="AE140" s="3" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="3" t="inlineStr">
@@ -20818,7 +19210,7 @@
       <c r="R141" s="3" t="inlineStr"/>
       <c r="S141" s="3" t="inlineStr">
         <is>
-          <t>2004 (6)</t>
+          <t>2004.0 (6)</t>
         </is>
       </c>
       <c r="T141" s="3" t="inlineStr">
@@ -20859,19 +19251,8 @@
           <t>FJ562093, FJ562095, FJ562094, FJ562093, FJ562094, FJ562095</t>
         </is>
       </c>
-      <c r="AD141" s="3" t="inlineStr">
-        <is>
-          <t>1674 (2)
-12054 (2)
-5115 (2)</t>
-        </is>
-      </c>
-      <c r="AE141" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4)
-50%-75% (2)</t>
-        </is>
-      </c>
+      <c r="AD141" s="3" t="inlineStr"/>
+      <c r="AE141" s="3" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="3" t="inlineStr">
@@ -20962,8 +19343,8 @@
       </c>
       <c r="S142" s="3" t="inlineStr">
         <is>
-          <t>2004 (9)
-1981 (3)</t>
+          <t>2004.0 (9)
+1981.0 (3)</t>
         </is>
       </c>
       <c r="T142" s="3" t="inlineStr">
@@ -21008,24 +19389,8 @@
           <t>FJ562093, FJ562095, FJ562094, FJ562093, GU477489, GU477490, GU477491, FJ562094, FJ562095, GU477492, GU477493, GU477494</t>
         </is>
       </c>
-      <c r="AD142" s="3" t="inlineStr">
-        <is>
-          <t>1674 (3)
-5115 (3)
-12054 (2)
-474 (1)
-5182 (1)
-1678 (1)
-12064 (1)</t>
-        </is>
-      </c>
-      <c r="AE142" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)
-50%-75% (2)
-95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD142" s="3" t="inlineStr"/>
+      <c r="AE142" s="3" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="3" t="inlineStr">
@@ -21114,7 +19479,7 @@
       </c>
       <c r="S143" s="3" t="inlineStr">
         <is>
-          <t>2020 (6)</t>
+          <t>2020.0 (6)</t>
         </is>
       </c>
       <c r="T143" s="3" t="inlineStr">
@@ -21159,23 +19524,8 @@
           <t>OQ441060, OQ441061, OQ441062, OQ441063, OQ441064, OQ441065</t>
         </is>
       </c>
-      <c r="AD143" s="3" t="inlineStr">
-        <is>
-          <t>12084 (1)
-5064 (1)
-1635 (1)
-12099 (1)
-3834 (1)
-1630 (1)</t>
-        </is>
-      </c>
-      <c r="AE143" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (3)
-95%-100% (2)
-75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD143" s="3" t="inlineStr"/>
+      <c r="AE143" s="3" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="3" t="inlineStr">
@@ -21266,8 +19616,8 @@
       </c>
       <c r="S144" s="3" t="inlineStr">
         <is>
-          <t>2017 (1)
-2016 (1)</t>
+          <t>2017.0 (1)
+2016.0 (1)</t>
         </is>
       </c>
       <c r="T144" s="3" t="inlineStr">
@@ -21287,7 +19637,7 @@
       </c>
       <c r="W144" s="3" t="inlineStr">
         <is>
-          <t>S (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X144" s="3" t="inlineStr">
@@ -21308,17 +19658,8 @@
           <t>MN864494, MN864495</t>
         </is>
       </c>
-      <c r="AD144" s="3" t="inlineStr">
-        <is>
-          <t>210 (1)
-207 (1)</t>
-        </is>
-      </c>
-      <c r="AE144" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD144" s="3" t="inlineStr"/>
+      <c r="AE144" s="3" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="3" t="inlineStr">
@@ -21407,7 +19748,7 @@
       </c>
       <c r="S145" s="3" t="inlineStr">
         <is>
-          <t>2014 (9)</t>
+          <t>2014.0 (9)</t>
         </is>
       </c>
       <c r="T145" s="3" t="inlineStr">
@@ -21427,7 +19768,7 @@
       </c>
       <c r="W145" s="3" t="inlineStr">
         <is>
-          <t>S (9)</t>
+          <t>NA (9)</t>
         </is>
       </c>
       <c r="X145" s="3" t="inlineStr">
@@ -21456,16 +19797,8 @@
           <t>MN398288, MN398289, MN398290, MN398291, MN398292, MN398293, MN398294, MN398295, MN398296</t>
         </is>
       </c>
-      <c r="AD145" s="3" t="inlineStr">
-        <is>
-          <t>171 (9)</t>
-        </is>
-      </c>
-      <c r="AE145" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)</t>
-        </is>
-      </c>
+      <c r="AD145" s="3" t="inlineStr"/>
+      <c r="AE145" s="3" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="3" t="inlineStr">
@@ -21554,9 +19887,9 @@
       </c>
       <c r="S146" s="3" t="inlineStr">
         <is>
-          <t>2014 (6)
-2013 (5)
-2012 (1)</t>
+          <t>2014.0 (6)
+2013.0 (5)
+2012.0 (1)</t>
         </is>
       </c>
       <c r="T146" s="3" t="inlineStr">
@@ -21576,7 +19909,7 @@
       </c>
       <c r="W146" s="3" t="inlineStr">
         <is>
-          <t>S (12)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="X146" s="3" t="inlineStr">
@@ -21597,19 +19930,8 @@
           <t>MH037279, MH037280, MH037281, MH037282, MH037283, MH037284, MH037285, MH037286, MH037287, MH037288, MH037289, MH037290</t>
         </is>
       </c>
-      <c r="AD146" s="3" t="inlineStr">
-        <is>
-          <t>1450 (7)
-1449 (2)
-1679 (2)
-1678 (1)</t>
-        </is>
-      </c>
-      <c r="AE146" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (12)</t>
-        </is>
-      </c>
+      <c r="AD146" s="3" t="inlineStr"/>
+      <c r="AE146" s="3" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
@@ -21700,9 +20022,9 @@
       </c>
       <c r="S147" s="3" t="inlineStr">
         <is>
-          <t>2010 (1)
-2009 (1)
-1979 (1)</t>
+          <t>2010.0 (1)
+2009.0 (1)
+1979.0 (1)</t>
         </is>
       </c>
       <c r="T147" s="3" t="inlineStr">
@@ -21724,7 +20046,7 @@
       </c>
       <c r="W147" s="3" t="inlineStr">
         <is>
-          <t>S (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X147" s="3" t="inlineStr">
@@ -21745,18 +20067,8 @@
           <t>JN086996, JN108025, JN173797</t>
         </is>
       </c>
-      <c r="AD147" s="3" t="inlineStr">
-        <is>
-          <t>1446 (2)
-1450 (1)</t>
-        </is>
-      </c>
-      <c r="AE147" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)
-75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD147" s="3" t="inlineStr"/>
+      <c r="AE147" s="3" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="3" t="inlineStr">
@@ -21845,11 +20157,11 @@
       </c>
       <c r="S148" s="3" t="inlineStr">
         <is>
-          <t>2018 (24)
-2019 (11)
-2017 (3)
-2015 (3)
-2013 (3)</t>
+          <t>2018.0 (24)
+2019.0 (11)
+2017.0 (3)
+2015.0 (3)
+2013.0 (3)</t>
         </is>
       </c>
       <c r="T148" s="3" t="inlineStr">
@@ -21892,38 +20204,23 @@
           <t>MW464943, MW464944, MW464945, MW464946, MW464947, MW464948, MW464949, MW464950, MW464951, MW464952, MW464953, MW464954, MW464955, MW464956, MW464957, MW464958, MW464959, MW464960, MW464961, MW464962, MW464963, MW464964, MW464965, MW464966, MW464967, MW464968, MW464969, MW464970, MW464971, MW464972, MW464973, MW464974, MW464975, MW464976, MW464977, MW464978, MW464979, MW464980, MW464981, MW464982, MW464983, MW464984, MW464985, MW464986</t>
         </is>
       </c>
-      <c r="AD148" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (17)
-&gt;10000 (13)
-5000-10000 (9)
-3000-5000 (4)
-500-1000 (1)</t>
-        </is>
-      </c>
-      <c r="AE148" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (33)
-95%-100% (6)
-50%-75% (4)
-90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD148" s="3" t="inlineStr"/>
+      <c r="AE148" s="3" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="3" t="inlineStr">
         <is>
-          <t>Shahhosseini N; Jafarbekloo A; Telmadarraiy Z; Chinikar S; Haeri A; Nowotny N; Groschup MH; Fooks AR; Faghihi F</t>
+          <t>Shahhosseini N; Chinikar S; Shams E; Nowotny N; Fooks AR</t>
         </is>
       </c>
       <c r="B149" s="3" t="inlineStr">
         <is>
-          <t>Co-circulation of Crimean-Congo Hemorrhagic Fever virus strains Asia 1 and 2 between the border of Iran and Pakistan.</t>
+          <t>Crimean-Congo hemorrhagic fever cases in the North of Iran have three distinct origins.</t>
         </is>
       </c>
       <c r="C149" s="3" t="inlineStr">
         <is>
-          <t>Heliyon</t>
+          <t>Virusdisease</t>
         </is>
       </c>
       <c r="D149" s="3" t="inlineStr">
@@ -21933,7 +20230,7 @@
       </c>
       <c r="E149" s="3" t="inlineStr">
         <is>
-          <t>29159319</t>
+          <t>28466055</t>
         </is>
       </c>
       <c r="F149" s="3" t="inlineStr">
@@ -21959,7 +20256,7 @@
       </c>
       <c r="K149" s="3" t="inlineStr">
         <is>
-          <t>CCHF (18)</t>
+          <t>CCHF (15)</t>
         </is>
       </c>
       <c r="L149" s="3" t="inlineStr">
@@ -21968,27 +20265,27 @@
         </is>
       </c>
       <c r="M149" s="3" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N149" s="3" t="inlineStr">
         <is>
-          <t>Cow and Goat and Livestock and Sheep and Ticks</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O149" s="3" t="inlineStr">
         <is>
-          <t>Ticks (15)
+          <t>Ticks (12)
 Homo sapiens (3)</t>
         </is>
       </c>
       <c r="P149" s="3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>blood</t>
         </is>
       </c>
       <c r="Q149" s="3" t="inlineStr">
         <is>
-          <t>NA (18)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="R149" s="3" t="inlineStr">
@@ -21998,8 +20295,8 @@
       </c>
       <c r="S149" s="3" t="inlineStr">
         <is>
-          <t>2015 (11)
-2014 (7)</t>
+          <t>2015.0 (8)
+2014.0 (7)</t>
         </is>
       </c>
       <c r="T149" s="3" t="inlineStr">
@@ -22009,7 +20306,7 @@
       </c>
       <c r="U149" s="3" t="inlineStr">
         <is>
-          <t>Iran (18)</t>
+          <t>Iran (15)</t>
         </is>
       </c>
       <c r="V149" s="3" t="inlineStr">
@@ -22019,64 +20316,54 @@
       </c>
       <c r="W149" s="3" t="inlineStr">
         <is>
-          <t>S (18)</t>
-        </is>
-      </c>
-      <c r="X149" s="3" t="inlineStr"/>
+          <t>NA (15)</t>
+        </is>
+      </c>
+      <c r="X149" s="3" t="inlineStr">
+        <is>
+          <t>Sanger</t>
+        </is>
+      </c>
       <c r="Y149" s="3" t="inlineStr"/>
       <c r="Z149" s="3" t="inlineStr"/>
       <c r="AA149" s="3" t="inlineStr"/>
       <c r="AB149" s="3" t="inlineStr">
         <is>
-          <t>KU242339, KU242340, and KU242341</t>
+          <t>KT588640, KT588641, KT588642</t>
         </is>
       </c>
       <c r="AC149" s="3" t="inlineStr">
         <is>
-          <t>KT588640, KT588641, KT588642, KT931948, KT931949, KT931950, KT931951, KT931952, KT931953, KT931954, KT931955, KT931956, KT931957, KT931958, KU242341, KU242339, KU242340, KU242341</t>
-        </is>
-      </c>
-      <c r="AD149" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (8)
-100-500 (7)
-528 (1)
-480 (1)
-516 (1)</t>
-        </is>
-      </c>
-      <c r="AE149" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (8)
-75%-90% (6)
-90%-95% (4)</t>
-        </is>
-      </c>
+          <t>KT588640, KT588641, KT588642, KT931948, KT931949, KT931950, KT931951, KT931952, KT931953, KT931954, KT931955, KT931956, KT931957, KT931958, KU242341</t>
+        </is>
+      </c>
+      <c r="AD149" s="3" t="inlineStr"/>
+      <c r="AE149" s="3" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="3" t="inlineStr">
         <is>
-          <t>Shahhosseini N; Chinikar S; Shams E; Nowotny N; Fooks AR</t>
+          <t>Hosseini-Vasoukolaei N; Chinikar S; Telmadarraiy Z; Faghihi F; Hosseini-Vasoukolaei M</t>
         </is>
       </c>
       <c r="B150" s="3" t="inlineStr">
         <is>
-          <t>Crimean-Congo hemorrhagic fever cases in the North of Iran have three distinct origins.</t>
+          <t>Serological and molecular epidemiology of Crimean-Congo hemorrhagic fever in Ghaemshahr county in Mazandaran province; Iran.</t>
         </is>
       </c>
       <c r="C150" s="3" t="inlineStr">
         <is>
-          <t>Virusdisease</t>
+          <t>Trop Biomed</t>
         </is>
       </c>
       <c r="D150" s="3" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>28466055</t>
+          <t>33579078</t>
         </is>
       </c>
       <c r="F150" s="3" t="inlineStr">
@@ -22141,8 +20428,8 @@
       </c>
       <c r="S150" s="3" t="inlineStr">
         <is>
-          <t>2015 (8)
-2014 (7)</t>
+          <t>2015.0 (8)
+2014.0 (7)</t>
         </is>
       </c>
       <c r="T150" s="3" t="inlineStr">
@@ -22162,7 +20449,7 @@
       </c>
       <c r="W150" s="3" t="inlineStr">
         <is>
-          <t>S (15)</t>
+          <t>NA (15)</t>
         </is>
       </c>
       <c r="X150" s="3" t="inlineStr">
@@ -22175,7 +20462,7 @@
       <c r="AA150" s="3" t="inlineStr"/>
       <c r="AB150" s="3" t="inlineStr">
         <is>
-          <t>KT588640, KT588641, KT588642</t>
+          <t>KT588640, KT588641, and KT588642</t>
         </is>
       </c>
       <c r="AC150" s="3" t="inlineStr">
@@ -22183,44 +20470,33 @@
           <t>KT588640, KT588641, KT588642, KT931948, KT931949, KT931950, KT931951, KT931952, KT931953, KT931954, KT931955, KT931956, KT931957, KT931958, KU242341</t>
         </is>
       </c>
-      <c r="AD150" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (8)
-100-500 (7)</t>
-        </is>
-      </c>
-      <c r="AE150" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (7)
-75%-90% (5)
-90%-95% (3)</t>
-        </is>
-      </c>
+      <c r="AD150" s="3" t="inlineStr"/>
+      <c r="AE150" s="3" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="3" t="inlineStr">
         <is>
-          <t>Hosseini-Vasoukolaei N; Chinikar S; Telmadarraiy Z; Faghihi F; Hosseini-Vasoukolaei M</t>
+          <t>Shahhosseini N; Jafarbekloo A; Telmadarraiy Z; Chinikar S; Haeri A; Nowotny N; Groschup MH; Fooks AR; Faghihi F</t>
         </is>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>Serological and molecular epidemiology of Crimean-Congo hemorrhagic fever in Ghaemshahr county in Mazandaran province; Iran.</t>
+          <t>Co-circulation of Crimean-Congo Hemorrhagic Fever virus strains Asia 1 and 2 between the border of Iran and Pakistan.</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
         <is>
-          <t>Trop Biomed</t>
+          <t>Heliyon</t>
         </is>
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
         <is>
-          <t>33579078</t>
+          <t>29159319</t>
         </is>
       </c>
       <c r="F151" s="3" t="inlineStr">
@@ -22246,7 +20522,7 @@
       </c>
       <c r="K151" s="3" t="inlineStr">
         <is>
-          <t>CCHF (15)</t>
+          <t>CCHF (18)</t>
         </is>
       </c>
       <c r="L151" s="3" t="inlineStr">
@@ -22255,27 +20531,27 @@
         </is>
       </c>
       <c r="M151" s="3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N151" s="3" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Cow and Goat and Livestock and Sheep and Ticks</t>
         </is>
       </c>
       <c r="O151" s="3" t="inlineStr">
         <is>
-          <t>Ticks (12)
+          <t>Ticks (15)
 Homo sapiens (3)</t>
         </is>
       </c>
       <c r="P151" s="3" t="inlineStr">
         <is>
-          <t>blood</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Q151" s="3" t="inlineStr">
         <is>
-          <t>NA (15)</t>
+          <t>NA (18)</t>
         </is>
       </c>
       <c r="R151" s="3" t="inlineStr">
@@ -22285,8 +20561,8 @@
       </c>
       <c r="S151" s="3" t="inlineStr">
         <is>
-          <t>2015 (8)
-2014 (7)</t>
+          <t>2015.0 (11)
+2014.0 (7)</t>
         </is>
       </c>
       <c r="T151" s="3" t="inlineStr">
@@ -22296,7 +20572,7 @@
       </c>
       <c r="U151" s="3" t="inlineStr">
         <is>
-          <t>Iran (15)</t>
+          <t>Iran (18)</t>
         </is>
       </c>
       <c r="V151" s="3" t="inlineStr">
@@ -22306,40 +20582,25 @@
       </c>
       <c r="W151" s="3" t="inlineStr">
         <is>
-          <t>S (15)</t>
-        </is>
-      </c>
-      <c r="X151" s="3" t="inlineStr">
-        <is>
-          <t>Sanger</t>
-        </is>
-      </c>
+          <t>NA (18)</t>
+        </is>
+      </c>
+      <c r="X151" s="3" t="inlineStr"/>
       <c r="Y151" s="3" t="inlineStr"/>
       <c r="Z151" s="3" t="inlineStr"/>
       <c r="AA151" s="3" t="inlineStr"/>
       <c r="AB151" s="3" t="inlineStr">
         <is>
-          <t>KT588640, KT588641, and KT588642</t>
+          <t>KU242339, KU242340, and KU242341</t>
         </is>
       </c>
       <c r="AC151" s="3" t="inlineStr">
         <is>
-          <t>KT588640, KT588641, KT588642, KT931948, KT931949, KT931950, KT931951, KT931952, KT931953, KT931954, KT931955, KT931956, KT931957, KT931958, KU242341</t>
-        </is>
-      </c>
-      <c r="AD151" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (8)
-100-500 (7)</t>
-        </is>
-      </c>
-      <c r="AE151" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (7)
-75%-90% (5)
-90%-95% (3)</t>
-        </is>
-      </c>
+          <t>KT588640, KT588641, KT588642, KT931948, KT931949, KT931950, KT931951, KT931952, KT931953, KT931954, KT931955, KT931956, KT931957, KT931958, KU242341, KU242339, KU242340, KU242341</t>
+        </is>
+      </c>
+      <c r="AD151" s="3" t="inlineStr"/>
+      <c r="AE151" s="3" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="3" t="inlineStr">
@@ -22428,7 +20689,7 @@
       </c>
       <c r="S152" s="3" t="inlineStr">
         <is>
-          <t>2012 (3)</t>
+          <t>2012.0 (3)</t>
         </is>
       </c>
       <c r="T152" s="3" t="inlineStr">
@@ -22471,19 +20732,8 @@
           <t>KX238956, KX238957, KX238958</t>
         </is>
       </c>
-      <c r="AD152" s="3" t="inlineStr">
-        <is>
-          <t>1602 (1)
-5052 (1)
-12096 (1)</t>
-        </is>
-      </c>
-      <c r="AE152" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)
-95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD152" s="3" t="inlineStr"/>
+      <c r="AE152" s="3" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
@@ -22569,13 +20819,13 @@
       <c r="R153" s="3" t="inlineStr"/>
       <c r="S153" s="3" t="inlineStr">
         <is>
-          <t>2009 (101)
-2010 (83)
-2008 (36)
-2011 (14)
-2012 (11)
-2007 (10)
-2006 (6)</t>
+          <t>2009.0 (101)
+2010.0 (83)
+2008.0 (36)
+2011.0 (14)
+2012.0 (11)
+2007.0 (10)
+2006.0 (6)</t>
         </is>
       </c>
       <c r="T153" s="3" t="inlineStr">
@@ -22595,8 +20845,9 @@
       </c>
       <c r="W153" s="3" t="inlineStr">
         <is>
-          <t>S (218)
-M (43)</t>
+          <t>NA (181)
+M (43)
+S (37)</t>
         </is>
       </c>
       <c r="X153" s="3" t="inlineStr">
@@ -22617,20 +20868,8 @@
           <t>FJ601845, FJ601846, FJ601847, FJ601848, FJ601849, FJ601850, FJ601851, FJ601852, FJ601853, FJ601854, FJ601855, FJ601856, FJ601857, FJ601858, FJ601859, FJ601860, FJ601861, FJ601862, FJ601863, FJ601864, FJ601865, FJ601866, FJ601867, FJ601868, FJ601869, FJ601870, FJ601871, FJ601872, FJ601873, FJ601874, FJ601875, FJ601876, FJ601877, FJ601878, FJ601879, FJ601880, FJ601881, FJ601882, FJ601883, FJ601884, FJ601885, FJ601886, FJ601887, FJ601888, FJ601889, FJ601890, FJ601891, FJ601892, FJ601893, FJ601894, FJ601895, FJ601896, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, HQ166287, HQ166288, HQ173893, HQ173894, HQ173895, HQ173896, HQ173897, HQ173898, HQ173899, HQ173900, HQ173901, HQ173902, HQ188913, HQ188914, HQ188915, HQ188916, HQ188917, HQ188918, HQ188919, HQ188920, HQ188921, HQ188922, HQ659777, HQ664913, HQ675002, HQ675003, HQ675004, HQ675005, HQ675006, HQ675007, HQ675008, HQ675009, HQ675010, HQ685839, HQ685840, HQ821873, HQ821874, HQ821875, HQ829809, HQ829810, HQ829811, HQ829812, HQ829813, HQ829814, HQ829815, HQ829816, HQ829817, HQ829818, HQ829819, HQ833034, HQ833035, HQ864321, HQ864322, HQ891305, HQ891306, HQ891307, HQ891308, JF523541, JF523542, JF523543, JF523544, JF523545, KR059957, KR059958, KR059959, KR059960, KR059961, KR059962, KR059963, KR059964, KR059965, KR059966, KR059967, KR059968, KR059969, KR059970, KR059971, KR059972, KR059973, KR059974, KR059975, KR059976, KR092375, KR092376, KR092377, KR092378, KR092380</t>
         </is>
       </c>
-      <c r="AD153" s="3" t="inlineStr">
-        <is>
-          <t>500-1000 (208)
-100-500 (45)
-1000-3000 (8)</t>
-        </is>
-      </c>
-      <c r="AE153" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (228)
-75%-90% (21)
-95%-100% (12)</t>
-        </is>
-      </c>
+      <c r="AD153" s="3" t="inlineStr"/>
+      <c r="AE153" s="3" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="3" t="inlineStr">
@@ -22719,7 +20958,7 @@
       </c>
       <c r="S154" s="3" t="inlineStr">
         <is>
-          <t>2007 (6)</t>
+          <t>2007.0 (6)</t>
         </is>
       </c>
       <c r="T154" s="3" t="inlineStr">
@@ -22756,19 +20995,8 @@
           <t>GU456723, GU456724, GU456725, GU456726, GU456727, GU456728</t>
         </is>
       </c>
-      <c r="AD154" s="3" t="inlineStr">
-        <is>
-          <t>493 (3)
-494 (2)
-489 (1)</t>
-        </is>
-      </c>
-      <c r="AE154" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (5)
-90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD154" s="3" t="inlineStr"/>
+      <c r="AE154" s="3" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
@@ -22857,7 +21085,7 @@
       </c>
       <c r="S155" s="3" t="inlineStr">
         <is>
-          <t>2017 (1)</t>
+          <t>2017.0 (1)</t>
         </is>
       </c>
       <c r="T155" s="3" t="inlineStr">
@@ -22877,7 +21105,7 @@
       </c>
       <c r="W155" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X155" s="3" t="inlineStr">
@@ -22898,16 +21126,8 @@
           <t>MG456911</t>
         </is>
       </c>
-      <c r="AD155" s="3" t="inlineStr">
-        <is>
-          <t>402 (1)</t>
-        </is>
-      </c>
-      <c r="AE155" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD155" s="3" t="inlineStr"/>
+      <c r="AE155" s="3" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
@@ -22996,7 +21216,7 @@
       </c>
       <c r="S156" s="3" t="inlineStr">
         <is>
-          <t>2016 (3)</t>
+          <t>2016.0 (3)</t>
         </is>
       </c>
       <c r="T156" s="3" t="inlineStr">
@@ -23039,19 +21259,8 @@
           <t>KY354080, KY354081, KY354082</t>
         </is>
       </c>
-      <c r="AD156" s="3" t="inlineStr">
-        <is>
-          <t>12060 (1)
-5118 (1)
-1674 (1)</t>
-        </is>
-      </c>
-      <c r="AE156" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2)
-50%-75% (1)</t>
-        </is>
-      </c>
+      <c r="AD156" s="3" t="inlineStr"/>
+      <c r="AE156" s="3" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="3" t="inlineStr">
@@ -23140,7 +21349,7 @@
       </c>
       <c r="S157" s="3" t="inlineStr">
         <is>
-          <t>2007 (3)</t>
+          <t>2007.0 (3)</t>
         </is>
       </c>
       <c r="T157" s="3" t="inlineStr">
@@ -23181,18 +21390,8 @@
           <t>KC867272, KC867273, KC867274</t>
         </is>
       </c>
-      <c r="AD157" s="3" t="inlineStr">
-        <is>
-          <t>1679 (1)
-5371 (1)
-11926 (1)</t>
-        </is>
-      </c>
-      <c r="AE157" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD157" s="3" t="inlineStr"/>
+      <c r="AE157" s="3" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
@@ -23278,14 +21477,14 @@
       <c r="R158" s="3" t="inlineStr"/>
       <c r="S158" s="3" t="inlineStr">
         <is>
-          <t>1956 (3)
-1981 (3)
-1987 (3)
-1965 (3)
-1996 (3)
-1968 (3)
-1967 (3)
-1969 (3)</t>
+          <t>1956.0 (3)
+1981.0 (3)
+1987.0 (3)
+1965.0 (3)
+1996.0 (3)
+1968.0 (3)
+1967.0 (3)
+1969.0 (3)</t>
         </is>
       </c>
       <c r="T158" s="3" t="inlineStr"/>
@@ -23331,22 +21530,8 @@
           <t>KY484025, KY484026, KY484027, KY484028, KY484029, KY484030, KY484031, KY484032, KY484033, KY484034, KY484035, KY484036, KY484037, KY484038, KY484039, KY484040, KY484041, KY484042, KY484043, KY484044, KY484045, KY484046, KY484047, KY484048</t>
         </is>
       </c>
-      <c r="AD158" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (8)
-&gt;10000 (8)
-5000-10000 (7)
-3000-5000 (1)</t>
-        </is>
-      </c>
-      <c r="AE158" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (13)
-95%-100% (6)
-90%-95% (4)
-50%-75% (1)</t>
-        </is>
-      </c>
+      <c r="AD158" s="3" t="inlineStr"/>
+      <c r="AE158" s="3" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
@@ -23432,14 +21617,14 @@
       <c r="R159" s="3" t="inlineStr"/>
       <c r="S159" s="3" t="inlineStr">
         <is>
-          <t>1956 (3)
-1981 (3)
-1987 (3)
-1965 (3)
-1996 (3)
-1968 (3)
-1967 (3)
-1969 (3)</t>
+          <t>1956.0 (3)
+1981.0 (3)
+1987.0 (3)
+1965.0 (3)
+1996.0 (3)
+1968.0 (3)
+1967.0 (3)
+1969.0 (3)</t>
         </is>
       </c>
       <c r="T159" s="3" t="inlineStr"/>
@@ -23492,22 +21677,8 @@
           <t>KY484025, KY484026, KY484027, KY484028, KY484029, KY484030, KY484031, KY484032, KY484033, KY484034, KY484035, KY484036, KY484037, KY484038, KY484039, KY484040, KY484041, KY484042, KY484043, KY484044, KY484045, KY484046, KY484047, KY484048</t>
         </is>
       </c>
-      <c r="AD159" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (8)
-&gt;10000 (8)
-5000-10000 (7)
-3000-5000 (1)</t>
-        </is>
-      </c>
-      <c r="AE159" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (13)
-95%-100% (6)
-90%-95% (4)
-50%-75% (1)</t>
-        </is>
-      </c>
+      <c r="AD159" s="3" t="inlineStr"/>
+      <c r="AE159" s="3" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
@@ -23638,19 +21809,8 @@
           <t>DQ446212, DQ446213, DQ446214, DQ446215, DQ446216</t>
         </is>
       </c>
-      <c r="AD160" s="3" t="inlineStr">
-        <is>
-          <t>1638 (2)
-5365 (1)
-5282 (1)
-1640 (1)</t>
-        </is>
-      </c>
-      <c r="AE160" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (5)</t>
-        </is>
-      </c>
+      <c r="AD160" s="3" t="inlineStr"/>
+      <c r="AE160" s="3" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
@@ -23739,7 +21899,7 @@
       </c>
       <c r="S161" s="3" t="inlineStr">
         <is>
-          <t>2014 (1)</t>
+          <t>2014.0 (1)</t>
         </is>
       </c>
       <c r="T161" s="3" t="inlineStr">
@@ -23759,7 +21919,7 @@
       </c>
       <c r="W161" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X161" s="3" t="inlineStr"/>
@@ -23776,16 +21936,8 @@
           <t>KM201260</t>
         </is>
       </c>
-      <c r="AD161" s="3" t="inlineStr">
-        <is>
-          <t>1681 (1)</t>
-        </is>
-      </c>
-      <c r="AE161" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD161" s="3" t="inlineStr"/>
+      <c r="AE161" s="3" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
@@ -23874,7 +22026,7 @@
       </c>
       <c r="S162" s="3" t="inlineStr">
         <is>
-          <t>2012 (8)</t>
+          <t>2012.0 (8)</t>
         </is>
       </c>
       <c r="T162" s="3" t="inlineStr">
@@ -23894,7 +22046,8 @@
       </c>
       <c r="W162" s="3" t="inlineStr">
         <is>
-          <t>S (8)</t>
+          <t>NA (4)
+S (4)</t>
         </is>
       </c>
       <c r="X162" s="3" t="inlineStr">
@@ -23915,16 +22068,8 @@
           <t>KP682503, KP742979, KP682503, KP742979, KP682503, KP742979, KP682503, KP742979</t>
         </is>
       </c>
-      <c r="AD162" s="3" t="inlineStr">
-        <is>
-          <t>497 (8)</t>
-        </is>
-      </c>
-      <c r="AE162" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (8)</t>
-        </is>
-      </c>
+      <c r="AD162" s="3" t="inlineStr"/>
+      <c r="AE162" s="3" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
@@ -24050,16 +22195,8 @@
           <t>EU057975</t>
         </is>
       </c>
-      <c r="AD163" s="3" t="inlineStr">
-        <is>
-          <t>438 (1)</t>
-        </is>
-      </c>
-      <c r="AE163" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD163" s="3" t="inlineStr"/>
+      <c r="AE163" s="3" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
@@ -24148,8 +22285,8 @@
       </c>
       <c r="S164" s="3" t="inlineStr">
         <is>
-          <t>2011 (2)
-2013 (1)</t>
+          <t>2011.0 (2)
+2013.0 (1)</t>
         </is>
       </c>
       <c r="T164" s="3" t="inlineStr">
@@ -24190,16 +22327,8 @@
           <t>MH337845, MH337846, MH337847</t>
         </is>
       </c>
-      <c r="AD164" s="3" t="inlineStr">
-        <is>
-          <t>495 (3)</t>
-        </is>
-      </c>
-      <c r="AE164" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD164" s="3" t="inlineStr"/>
+      <c r="AE164" s="3" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
@@ -24329,19 +22458,8 @@
           <t>MN689739, MN689740, MN689741</t>
         </is>
       </c>
-      <c r="AD165" s="3" t="inlineStr">
-        <is>
-          <t>12078 (1)
-5324 (1)
-1638 (1)</t>
-        </is>
-      </c>
-      <c r="AE165" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)
-75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD165" s="3" t="inlineStr"/>
+      <c r="AE165" s="3" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
@@ -24430,7 +22548,7 @@
       </c>
       <c r="S166" s="3" t="inlineStr">
         <is>
-          <t>2018 (3)</t>
+          <t>2018.0 (3)</t>
         </is>
       </c>
       <c r="T166" s="3" t="inlineStr">
@@ -24473,18 +22591,8 @@
           <t>MN987247, MN987248, MN987249</t>
         </is>
       </c>
-      <c r="AD166" s="3" t="inlineStr">
-        <is>
-          <t>1456 (1)
-5374 (1)
-11933 (1)</t>
-        </is>
-      </c>
-      <c r="AE166" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD166" s="3" t="inlineStr"/>
+      <c r="AE166" s="3" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
@@ -24593,7 +22701,7 @@
       </c>
       <c r="W167" s="3" t="inlineStr">
         <is>
-          <t>S (54)</t>
+          <t>NA (54)</t>
         </is>
       </c>
       <c r="X167" s="3" t="inlineStr">
@@ -24614,17 +22722,8 @@
           <t>KX425593, KX425594, KX425595, KX425596, KX425597, KX425598, KX425599, KX425600, KX425601, KX425602, KX425603, KX425604, KX425605, KX425606, KX425607, KX425608, KX425609, KX425610, KX425611, KX425612, KX425613, KX425614, KX425615, KX425616, KX425617, KX425618, KX425619, KX425593, KX425594, KX425595, KX425596, KX425597, KX425598, KX425599, KX425600, KX425601, KX425602, KX425603, KX425604, KX425605, KX425606, KX425607, KX425608, KX425609, KX425610, KX425611, KX425612, KX425613, KX425614, KX425615, KX425616, KX425617, KX425618, KX425619</t>
         </is>
       </c>
-      <c r="AD167" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (54)</t>
-        </is>
-      </c>
-      <c r="AE167" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (46)
-95%-100% (8)</t>
-        </is>
-      </c>
+      <c r="AD167" s="3" t="inlineStr"/>
+      <c r="AE167" s="3" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
@@ -24720,7 +22819,7 @@
       <c r="S168" s="3" t="inlineStr">
         <is>
           <t>NA (6)
-2006 (3)</t>
+2006.0 (3)</t>
         </is>
       </c>
       <c r="T168" s="3" t="inlineStr">
@@ -24742,9 +22841,11 @@
       </c>
       <c r="W168" s="3" t="inlineStr">
         <is>
-          <t>S (7)
+          <t>S (5)
 L (1)
-M (1)</t>
+M (1)
+small (1)
+NA (1)</t>
         </is>
       </c>
       <c r="X168" s="3" t="inlineStr"/>
@@ -24761,22 +22862,8 @@
           <t>GQ337053, GQ337054, GQ337055, AJ010648, AJ010649, AF354296, AF358784, AF362080, AY029157</t>
         </is>
       </c>
-      <c r="AD168" s="3" t="inlineStr">
-        <is>
-          <t>1676 (3)
-12078 (1)
-5397 (1)
-1680 (1)
-1675 (1)
-1677 (1)
-1674 (1)</t>
-        </is>
-      </c>
-      <c r="AE168" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (9)</t>
-        </is>
-      </c>
+      <c r="AD168" s="3" t="inlineStr"/>
+      <c r="AE168" s="3" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="3" t="inlineStr">
@@ -24865,7 +22952,7 @@
       </c>
       <c r="S169" s="3" t="inlineStr">
         <is>
-          <t>2009 (12)</t>
+          <t>2009.0 (12)</t>
         </is>
       </c>
       <c r="T169" s="3" t="inlineStr">
@@ -24906,18 +22993,8 @@
           <t>JQ421100, JQ421101, JQ421102, JN402313, JN402314, JN402315, JN402316, JN402317, JN402318, JN402319, JN402320, JN402321</t>
         </is>
       </c>
-      <c r="AD169" s="3" t="inlineStr">
-        <is>
-          <t>285 (9)
-286 (2)
-283 (1)</t>
-        </is>
-      </c>
-      <c r="AE169" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (12)</t>
-        </is>
-      </c>
+      <c r="AD169" s="3" t="inlineStr"/>
+      <c r="AE169" s="3" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="3" t="inlineStr">
@@ -25008,15 +23085,15 @@
       </c>
       <c r="S170" s="3" t="inlineStr">
         <is>
-          <t>2015 (12)
-2007 (9)
-2014 (9)
-2012 (9)
-2011 (6)
-2009 (6)
-2008 (6)
-2010 (6)
-2013 (6)</t>
+          <t>2015.0 (12)
+2007.0 (9)
+2014.0 (9)
+2012.0 (9)
+2011.0 (6)
+2009.0 (6)
+2008.0 (6)
+2010.0 (6)
+2013.0 (6)</t>
         </is>
       </c>
       <c r="T170" s="3" t="inlineStr">
@@ -25059,21 +23136,8 @@
           <t>KR814837, KR814838, KR814839, KR814840, KR814841, KR814842, KR814843, KR814844, KR814845, KR814846, KR814847, KR814848, KR814849, KR814850, KR814851, KR814852, KR814853, KR814854, KR814855, KR814856, KR814857, KR814858, KR814859, KR814860, KR814861, KR814862, KR814863, KR814864, KR814865, KR814866, KR814867, KR814868, KR814869, KR814870, KR814871, KR814872, KR814873, KR814874, KR814875, KR814876, KR814877, KR814878, KR814879, KR814880, KR814881, KR814882, KR814883, KR814884, KR814885, KR814886, KR814887, KR814888, KR814889, KR814890, KR814891, KR814892, KR814893, KU161576, KU161577, KU161578, KU161579, KU161580, KU161581, KU161582, KU161583, KU161584, KU161585, KU161586, KU161587</t>
         </is>
       </c>
-      <c r="AD170" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (21)
-5000-10000 (21)
-&gt;10000 (21)
-100-500 (4)
-500-1000 (2)</t>
-        </is>
-      </c>
-      <c r="AE170" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (65)
-90%-95% (4)</t>
-        </is>
-      </c>
+      <c r="AD170" s="3" t="inlineStr"/>
+      <c r="AE170" s="3" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
@@ -25162,7 +23226,7 @@
       </c>
       <c r="S171" s="3" t="inlineStr">
         <is>
-          <t>2016 (3)</t>
+          <t>2016.0 (3)</t>
         </is>
       </c>
       <c r="T171" s="3" t="inlineStr">
@@ -25203,19 +23267,8 @@
           <t>MF287636, MF287637, MF287638</t>
         </is>
       </c>
-      <c r="AD171" s="3" t="inlineStr">
-        <is>
-          <t>5368 (1)
-12096 (1)
-1673 (1)</t>
-        </is>
-      </c>
-      <c r="AE171" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)
-90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD171" s="3" t="inlineStr"/>
+      <c r="AE171" s="3" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="3" t="inlineStr">
@@ -25306,14 +23359,14 @@
       </c>
       <c r="S172" s="3" t="inlineStr">
         <is>
-          <t>2019 (120)
-2018 (9)
-2017 (9)
-2016 (9)
-2015 (9)
-2014 (3)
-2013 (3)
-2010 (3)</t>
+          <t>2019.0 (120)
+2018.0 (9)
+2017.0 (9)
+2016.0 (9)
+2015.0 (9)
+2014.0 (3)
+2013.0 (3)
+2010.0 (3)</t>
         </is>
       </c>
       <c r="T172" s="3" t="inlineStr">
@@ -25333,9 +23386,10 @@
       </c>
       <c r="W172" s="3" t="inlineStr">
         <is>
-          <t>M (55)
-L (55)
-S (55)</t>
+          <t>M (53)
+L (53)
+S (53)
+NA (6)</t>
         </is>
       </c>
       <c r="X172" s="3" t="inlineStr">
@@ -25358,22 +23412,8 @@
           <t>MH396640, MH396641, MH396642, MH396643, MH396644, MH396645, MH396646, MH396647, MH396648, MH396649, MH396650, MH396651, MH396652, MH396653, MH396654, MH396655, MH396656, MH396657, MH396658, MH396659, MH396660, MH396661, MH396662, MH396663, MH396664, MH396665, MH396666, MH396667, MH396668, MH396669, MH396670, MH396671, MH396672, MH396673, MH396674, MH396675, MK330132, MK330133, MK330134, MK330135, MK330136, MK330137, MN866126, MN866127, MN866128, MN866129, MN866130, MN866131, MN866132, MN866133, MN866134, MN866135, MN866136, MN866137, MN866138, MN866139, MN866140, MN866141, MN866142, MN866143, MN866144, MN866145, MN866146, MN866147, MN866148, MN866149, MN866150, MN866151, MN866152, MN866153, MN866154, MN866155, MN866156, MN866157, MN866158, MN866159, MN866160, MN866161, MN866162, MN866163, MN866164, MN866165, MN866166, MN866167, MN866168, MN866169, MN866170, MN866171, MN866172, MN866173, MN866174, MN866175, MN866176, MN866177, MN866178, MN866179, MN866180, MN866181, MN866182, MN866183, MN866184, MN866185, MN866186, MN866187, MN866188, MN866189, MN866190, MN866191, MN866192, MN866193, MN866194, MN866195, MN866196, MN866197, MN866198, MN866199, MN866200, MN866201, MN866202, MN866203, MN866204, MN866205, MN866206, MN866207, MN866208, MN866209, MN866210, MN866211, MN866212, MN866213, MN866214, MN866215, MN866216, MN866217, MN866218, MN930401, MN930402, MN930403, MN930404, MN930405, MN930406, MN930407, MN930408, MN930409, MN930410, MN930411, MN930412, MN930413, MN930414, MN930415, MN930416, MN930417, MN930418, MN930419, MN930420, MN930421, MN930422, MN930423, MN930424, MN930425, MN930426, MN930427, MN930428, MN930429, MN930430</t>
         </is>
       </c>
-      <c r="AD172" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (56)
-&gt;10000 (55)
-5000-10000 (48)
-3000-5000 (6)</t>
-        </is>
-      </c>
-      <c r="AE172" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (160)
-90%-95% (2)
-95%-100% (2)
-50%-75% (1)</t>
-        </is>
-      </c>
+      <c r="AD172" s="3" t="inlineStr"/>
+      <c r="AE172" s="3" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
@@ -25462,7 +23502,7 @@
       </c>
       <c r="S173" s="3" t="inlineStr">
         <is>
-          <t>2015 (1)</t>
+          <t>2015.0 (1)</t>
         </is>
       </c>
       <c r="T173" s="3" t="inlineStr">
@@ -25499,16 +23539,8 @@
           <t>KT899991</t>
         </is>
       </c>
-      <c r="AD173" s="3" t="inlineStr">
-        <is>
-          <t>513 (1)</t>
-        </is>
-      </c>
-      <c r="AE173" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD173" s="3" t="inlineStr"/>
+      <c r="AE173" s="3" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="3" t="inlineStr">
@@ -25597,7 +23629,7 @@
       </c>
       <c r="S174" s="3" t="inlineStr">
         <is>
-          <t>2011 (14)</t>
+          <t>2011.0 (14)</t>
         </is>
       </c>
       <c r="T174" s="3" t="inlineStr">
@@ -25638,16 +23670,8 @@
           <t>KF425575, KF425576, KF425577, KF425578, KF425579, KF425580, KF425581, KF425582, KF425583, KF425584, KF425585, KF425586, KF425587, KF425588</t>
         </is>
       </c>
-      <c r="AD174" s="3" t="inlineStr">
-        <is>
-          <t>321 (14)</t>
-        </is>
-      </c>
-      <c r="AE174" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (14)</t>
-        </is>
-      </c>
+      <c r="AD174" s="3" t="inlineStr"/>
+      <c r="AE174" s="3" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
@@ -25736,7 +23760,7 @@
       </c>
       <c r="S175" s="3" t="inlineStr">
         <is>
-          <t>2021 (22)</t>
+          <t>2021.0 (22)</t>
         </is>
       </c>
       <c r="T175" s="3" t="inlineStr">
@@ -25756,7 +23780,7 @@
       </c>
       <c r="W175" s="3" t="inlineStr">
         <is>
-          <t>S (22)</t>
+          <t>NA (22)</t>
         </is>
       </c>
       <c r="X175" s="3" t="inlineStr">
@@ -25777,20 +23801,8 @@
           <t>OP312072, OP312073, OP312074, OP312075, OP312076, OQ377559, OQ377560, OQ377561, OQ377562, OQ377563, OQ377564, OP312072, OP312073, OP312074, OP312075, OP312076, OQ377559, OQ377560, OQ377561, OQ377562, OQ377563, OQ377564</t>
         </is>
       </c>
-      <c r="AD175" s="3" t="inlineStr">
-        <is>
-          <t>213 (10)
-174 (6)
-168 (4)
-210 (2)</t>
-        </is>
-      </c>
-      <c r="AE175" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (16)
-75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD175" s="3" t="inlineStr"/>
+      <c r="AE175" s="3" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
@@ -25881,11 +23893,11 @@
       </c>
       <c r="S176" s="3" t="inlineStr">
         <is>
-          <t>2004 (66)
-1984 (12)
-1985 (6)
-1981 (6)
-1987 (6)</t>
+          <t>2004.0 (66)
+1984.0 (12)
+1985.0 (6)
+1981.0 (6)
+1987.0 (6)</t>
         </is>
       </c>
       <c r="T176" s="3" t="inlineStr">
@@ -25945,20 +23957,8 @@
           <t>MF511190, MF511191, MF511192, MF511193, MF511194, MF511195, MF511196, MF511197, MF511198, MF511199, MF511200, MF511201, MF511202, MF511204, MF511205, MF511206, MF511207, MF511208, MF511209, MF511210, MF511211, MF511212, MF511213, MF511214, MF511215, MF511216, MF511217, MF511218, MF511219, MF511221, MF511222, MF511223, MF511224, MF511225, MF511226, MF511227, MF511228, MF511229, MF511230, MF511231, MF511232, MF511233, MF511234, MF511235, MF511236, MF511238, MF511239, MF511240, MF511190, MF511191, MF511192, MF511193, MF511194, MF511195, MF511196, MF511197, MF511198, MF511199, MF511200, MF511201, MF511202, MF511204, MF511205, MF511206, MF511207, MF511208, MF511209, MF511210, MF511211, MF511212, MF511213, MF511214, MF511215, MF511216, MF511217, MF511218, MF511219, MF511221, MF511222, MF511223, MF511224, MF511225, MF511226, MF511227, MF511228, MF511229, MF511230, MF511231, MF511232, MF511233, MF511234, MF511235, MF511236, MF511238, MF511239, MF511240</t>
         </is>
       </c>
-      <c r="AD176" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (32)
-5000-10000 (32)
-&gt;10000 (32)</t>
-        </is>
-      </c>
-      <c r="AE176" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (74)
-90%-95% (18)
-95%-100% (4)</t>
-        </is>
-      </c>
+      <c r="AD176" s="3" t="inlineStr"/>
+      <c r="AE176" s="3" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="3" t="inlineStr">
@@ -29541,7 +27541,7 @@
       <c r="V215" s="3" t="inlineStr"/>
       <c r="W215" s="3" t="inlineStr">
         <is>
-          <t>L (1), S (1), M (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X215" s="3" t="inlineStr"/>
@@ -29554,16 +27554,8 @@
           <t>GN358814, GN358812, GN358810</t>
         </is>
       </c>
-      <c r="AD215" s="3" t="inlineStr">
-        <is>
-          <t>60 (2), 19 (1)</t>
-        </is>
-      </c>
-      <c r="AE215" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD215" s="3" t="inlineStr"/>
+      <c r="AE215" s="3" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
@@ -29624,7 +27616,7 @@
       <c r="R216" s="3" t="inlineStr"/>
       <c r="S216" s="3" t="inlineStr">
         <is>
-          <t>2014 (17)</t>
+          <t>2014.0 (17)</t>
         </is>
       </c>
       <c r="T216" s="3" t="inlineStr"/>
@@ -29649,16 +27641,8 @@
           <t>KT266848, KT266847, KT266846, KT266845, KT266844, KT266843, KT266842, KT266841, KT266840, KT266839, KT266838, KT266837, KT266836, KT266835, KT266834, KT266833, KT266832</t>
         </is>
       </c>
-      <c r="AD216" s="3" t="inlineStr">
-        <is>
-          <t>519 (8), 528 (7), 522 (1), 513 (1)</t>
-        </is>
-      </c>
-      <c r="AE216" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (17)</t>
-        </is>
-      </c>
+      <c r="AD216" s="3" t="inlineStr"/>
+      <c r="AE216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
@@ -29731,7 +27715,7 @@
       <c r="V217" s="3" t="inlineStr"/>
       <c r="W217" s="3" t="inlineStr">
         <is>
-          <t>M (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X217" s="3" t="inlineStr"/>
@@ -29744,16 +27728,8 @@
           <t>JC606540, JC606539, JC606538</t>
         </is>
       </c>
-      <c r="AD217" s="3" t="inlineStr">
-        <is>
-          <t>1947 (1), 876 (1), 5055 (1)</t>
-        </is>
-      </c>
-      <c r="AE217" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD217" s="3" t="inlineStr"/>
+      <c r="AE217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
@@ -29839,16 +27815,8 @@
           <t>DQ144418</t>
         </is>
       </c>
-      <c r="AD218" s="3" t="inlineStr">
-        <is>
-          <t>1497 (1)</t>
-        </is>
-      </c>
-      <c r="AE218" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD218" s="3" t="inlineStr"/>
+      <c r="AE218" s="3" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
@@ -29909,7 +27877,7 @@
       <c r="R219" s="3" t="inlineStr"/>
       <c r="S219" s="3" t="inlineStr">
         <is>
-          <t>2011 (1)</t>
+          <t>2011.0 (1)</t>
         </is>
       </c>
       <c r="T219" s="3" t="inlineStr"/>
@@ -29934,16 +27902,8 @@
           <t>JX308616</t>
         </is>
       </c>
-      <c r="AD219" s="3" t="inlineStr">
-        <is>
-          <t>759 (1)</t>
-        </is>
-      </c>
-      <c r="AE219" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD219" s="3" t="inlineStr"/>
+      <c r="AE219" s="3" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
@@ -30000,7 +27960,7 @@
       <c r="R220" s="3" t="inlineStr"/>
       <c r="S220" s="3" t="inlineStr">
         <is>
-          <t>2016 (1)</t>
+          <t>2016.0 (1)</t>
         </is>
       </c>
       <c r="T220" s="3" t="inlineStr"/>
@@ -30012,7 +27972,7 @@
       <c r="V220" s="3" t="inlineStr"/>
       <c r="W220" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X220" s="3" t="inlineStr"/>
@@ -30025,16 +27985,8 @@
           <t>KX458022</t>
         </is>
       </c>
-      <c r="AD220" s="3" t="inlineStr">
-        <is>
-          <t>501 (1)</t>
-        </is>
-      </c>
-      <c r="AE220" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD220" s="3" t="inlineStr"/>
+      <c r="AE220" s="3" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
@@ -30091,7 +28043,7 @@
       <c r="R221" s="3" t="inlineStr"/>
       <c r="S221" s="3" t="inlineStr">
         <is>
-          <t>2016 (1)</t>
+          <t>2016.0 (1)</t>
         </is>
       </c>
       <c r="T221" s="3" t="inlineStr"/>
@@ -30103,7 +28055,7 @@
       <c r="V221" s="3" t="inlineStr"/>
       <c r="W221" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X221" s="3" t="inlineStr"/>
@@ -30116,16 +28068,8 @@
           <t>KX458023</t>
         </is>
       </c>
-      <c r="AD221" s="3" t="inlineStr">
-        <is>
-          <t>501 (1)</t>
-        </is>
-      </c>
-      <c r="AE221" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD221" s="3" t="inlineStr"/>
+      <c r="AE221" s="3" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
@@ -30211,16 +28155,8 @@
           <t>OP889253</t>
         </is>
       </c>
-      <c r="AD222" s="3" t="inlineStr">
-        <is>
-          <t>207 (1)</t>
-        </is>
-      </c>
-      <c r="AE222" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD222" s="3" t="inlineStr"/>
+      <c r="AE222" s="3" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
@@ -30293,7 +28229,7 @@
       <c r="V223" s="3" t="inlineStr"/>
       <c r="W223" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X223" s="3" t="inlineStr"/>
@@ -30306,16 +28242,8 @@
           <t>DL138932</t>
         </is>
       </c>
-      <c r="AD223" s="3" t="inlineStr">
-        <is>
-          <t>1672 (1)</t>
-        </is>
-      </c>
-      <c r="AE223" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD223" s="3" t="inlineStr"/>
+      <c r="AE223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
@@ -30401,16 +28329,8 @@
           <t>ON500502, ON500501, ON500500</t>
         </is>
       </c>
-      <c r="AD224" s="3" t="inlineStr">
-        <is>
-          <t>11915 (1), 5157 (1), 1657 (1)</t>
-        </is>
-      </c>
-      <c r="AE224" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD224" s="3" t="inlineStr"/>
+      <c r="AE224" s="3" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
@@ -30471,7 +28391,7 @@
       <c r="R225" s="3" t="inlineStr"/>
       <c r="S225" s="3" t="inlineStr">
         <is>
-          <t>2012 (1)</t>
+          <t>2012.0 (1)</t>
         </is>
       </c>
       <c r="T225" s="3" t="inlineStr"/>
@@ -30496,16 +28416,8 @@
           <t>KC150004</t>
         </is>
       </c>
-      <c r="AD225" s="3" t="inlineStr">
-        <is>
-          <t>824 (1)</t>
-        </is>
-      </c>
-      <c r="AE225" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD225" s="3" t="inlineStr"/>
+      <c r="AE225" s="3" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
@@ -30566,7 +28478,7 @@
       <c r="R226" s="3" t="inlineStr"/>
       <c r="S226" s="3" t="inlineStr">
         <is>
-          <t>2021 (1)</t>
+          <t>2021.0 (1)</t>
         </is>
       </c>
       <c r="T226" s="3" t="inlineStr"/>
@@ -30591,16 +28503,8 @@
           <t>ON209430</t>
         </is>
       </c>
-      <c r="AD226" s="3" t="inlineStr">
-        <is>
-          <t>1678 (1)</t>
-        </is>
-      </c>
-      <c r="AE226" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD226" s="3" t="inlineStr"/>
+      <c r="AE226" s="3" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
@@ -30661,7 +28565,7 @@
       <c r="R227" s="3" t="inlineStr"/>
       <c r="S227" s="3" t="inlineStr">
         <is>
-          <t>2009 (1)</t>
+          <t>2009.0 (1)</t>
         </is>
       </c>
       <c r="T227" s="3" t="inlineStr"/>
@@ -30686,16 +28590,8 @@
           <t>GU138618</t>
         </is>
       </c>
-      <c r="AD227" s="3" t="inlineStr">
-        <is>
-          <t>75 (1)</t>
-        </is>
-      </c>
-      <c r="AE227" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD227" s="3" t="inlineStr"/>
+      <c r="AE227" s="3" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
@@ -30768,7 +28664,7 @@
       <c r="V228" s="3" t="inlineStr"/>
       <c r="W228" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X228" s="3" t="inlineStr"/>
@@ -30781,16 +28677,8 @@
           <t>MQ039150</t>
         </is>
       </c>
-      <c r="AD228" s="3" t="inlineStr">
-        <is>
-          <t>1449 (1)</t>
-        </is>
-      </c>
-      <c r="AE228" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD228" s="3" t="inlineStr"/>
+      <c r="AE228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
@@ -30876,16 +28764,8 @@
           <t>AF338470</t>
         </is>
       </c>
-      <c r="AD229" s="3" t="inlineStr">
-        <is>
-          <t>5393 (1)</t>
-        </is>
-      </c>
-      <c r="AE229" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD229" s="3" t="inlineStr"/>
+      <c r="AE229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
@@ -30946,7 +28826,7 @@
       <c r="R230" s="3" t="inlineStr"/>
       <c r="S230" s="3" t="inlineStr">
         <is>
-          <t>2006 (1)</t>
+          <t>2006.0 (1)</t>
         </is>
       </c>
       <c r="T230" s="3" t="inlineStr"/>
@@ -30971,16 +28851,8 @@
           <t>DQ983785</t>
         </is>
       </c>
-      <c r="AD230" s="3" t="inlineStr">
-        <is>
-          <t>600 (1)</t>
-        </is>
-      </c>
-      <c r="AE230" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD230" s="3" t="inlineStr"/>
+      <c r="AE230" s="3" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
@@ -31066,16 +28938,8 @@
           <t>DQ983741, DQ983741, DQ983745, DQ983744, DQ983743, DQ983742</t>
         </is>
       </c>
-      <c r="AD231" s="3" t="inlineStr">
-        <is>
-          <t>600 (5)</t>
-        </is>
-      </c>
-      <c r="AE231" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (5)</t>
-        </is>
-      </c>
+      <c r="AD231" s="3" t="inlineStr"/>
+      <c r="AE231" s="3" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
@@ -31148,7 +29012,7 @@
       <c r="V232" s="3" t="inlineStr"/>
       <c r="W232" s="3" t="inlineStr">
         <is>
-          <t>M (4), L (4), S (4)</t>
+          <t>NA (12)</t>
         </is>
       </c>
       <c r="X232" s="3" t="inlineStr"/>
@@ -31161,16 +29025,8 @@
           <t>FV537253, FV537252, FV537251, FV537250, FV537249, FV537248, FV537247, FV537246, FV537245, FV537244, FV537243, FV537242</t>
         </is>
       </c>
-      <c r="AD232" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (4), 500-1000 (2), 3000-5000 (2), 5000-10000 (2), &gt;10000 (2)</t>
-        </is>
-      </c>
-      <c r="AE232" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (6), 75%-90% (6)</t>
-        </is>
-      </c>
+      <c r="AD232" s="3" t="inlineStr"/>
+      <c r="AE232" s="3" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
@@ -31231,7 +29087,7 @@
       <c r="R233" s="3" t="inlineStr"/>
       <c r="S233" s="3" t="inlineStr">
         <is>
-          <t>1956 (1)</t>
+          <t>1956.0 (1)</t>
         </is>
       </c>
       <c r="T233" s="3" t="inlineStr"/>
@@ -31256,16 +29112,8 @@
           <t>DQ019222</t>
         </is>
       </c>
-      <c r="AD233" s="3" t="inlineStr">
-        <is>
-          <t>5148 (1)</t>
-        </is>
-      </c>
-      <c r="AE233" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (1)</t>
-        </is>
-      </c>
+      <c r="AD233" s="3" t="inlineStr"/>
+      <c r="AE233" s="3" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
@@ -31338,7 +29186,7 @@
       <c r="V234" s="3" t="inlineStr"/>
       <c r="W234" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X234" s="3" t="inlineStr"/>
@@ -31351,16 +29199,8 @@
           <t>BD294628</t>
         </is>
       </c>
-      <c r="AD234" s="3" t="inlineStr">
-        <is>
-          <t>1445 (1)</t>
-        </is>
-      </c>
-      <c r="AE234" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD234" s="3" t="inlineStr"/>
+      <c r="AE234" s="3" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="3" t="inlineStr">
@@ -31446,16 +29286,8 @@
           <t>NC_005301, NC_005300</t>
         </is>
       </c>
-      <c r="AD235" s="3" t="inlineStr">
-        <is>
-          <t>12108 (1), 5366 (1)</t>
-        </is>
-      </c>
-      <c r="AE235" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD235" s="3" t="inlineStr"/>
+      <c r="AE235" s="3" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
@@ -31541,16 +29373,8 @@
           <t>NC_005302</t>
         </is>
       </c>
-      <c r="AD236" s="3" t="inlineStr">
-        <is>
-          <t>1672 (1)</t>
-        </is>
-      </c>
-      <c r="AE236" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD236" s="3" t="inlineStr"/>
+      <c r="AE236" s="3" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
@@ -31623,7 +29447,7 @@
       <c r="V237" s="3" t="inlineStr"/>
       <c r="W237" s="3" t="inlineStr">
         <is>
-          <t>M (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X237" s="3" t="inlineStr"/>
@@ -31636,16 +29460,8 @@
           <t>NC_014661</t>
         </is>
       </c>
-      <c r="AD237" s="3" t="inlineStr">
-        <is>
-          <t>102 (1)</t>
-        </is>
-      </c>
-      <c r="AE237" s="3" t="inlineStr">
-        <is>
-          <t>25%-50% (1)</t>
-        </is>
-      </c>
+      <c r="AD237" s="3" t="inlineStr"/>
+      <c r="AE237" s="3" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
@@ -31706,7 +29522,7 @@
       <c r="R238" s="3" t="inlineStr"/>
       <c r="S238" s="3" t="inlineStr">
         <is>
-          <t>2013 (3)</t>
+          <t>2013.0 (3)</t>
         </is>
       </c>
       <c r="T238" s="3" t="inlineStr"/>
@@ -31731,16 +29547,8 @@
           <t>NC_029124, NC_029123, NC_029122</t>
         </is>
       </c>
-      <c r="AD238" s="3" t="inlineStr">
-        <is>
-          <t>10581 (1), 2031 (1), 1455 (1)</t>
-        </is>
-      </c>
-      <c r="AE238" s="3" t="inlineStr">
-        <is>
-          <t>25%-50% (1), 50%-75% (2)</t>
-        </is>
-      </c>
+      <c r="AD238" s="3" t="inlineStr"/>
+      <c r="AE238" s="3" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
@@ -31801,7 +29609,7 @@
       <c r="R239" s="3" t="inlineStr"/>
       <c r="S239" s="3" t="inlineStr">
         <is>
-          <t>2017 (6), 1975 (3)</t>
+          <t>2017.0 (6), 1975.0 (3)</t>
         </is>
       </c>
       <c r="T239" s="3" t="inlineStr"/>
@@ -31813,7 +29621,7 @@
       <c r="V239" s="3" t="inlineStr"/>
       <c r="W239" s="3" t="inlineStr">
         <is>
-          <t>M (3), S (3), L (3)</t>
+          <t>NA (3), M (2), S (2), L (2)</t>
         </is>
       </c>
       <c r="X239" s="3" t="inlineStr"/>
@@ -31826,16 +29634,8 @@
           <t>NC_078227, NC_078226, NC_078225, NC_078322, NC_078321, NC_078320, NC_078325, NC_078324, NC_078323</t>
         </is>
       </c>
-      <c r="AD239" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (5), 3000-5000 (1), &gt;10000 (3)</t>
-        </is>
-      </c>
-      <c r="AE239" s="3" t="inlineStr">
-        <is>
-          <t>25%-50% (3), 50%-75% (3), 75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD239" s="3" t="inlineStr"/>
+      <c r="AE239" s="3" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
@@ -31908,7 +29708,7 @@
       <c r="V240" s="3" t="inlineStr"/>
       <c r="W240" s="3" t="inlineStr">
         <is>
-          <t>M (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X240" s="3" t="inlineStr"/>
@@ -31921,16 +29721,8 @@
           <t>NC_014661, GU911519</t>
         </is>
       </c>
-      <c r="AD240" s="3" t="inlineStr">
-        <is>
-          <t>102 (2)</t>
-        </is>
-      </c>
-      <c r="AE240" s="3" t="inlineStr">
-        <is>
-          <t>25%-50% (2)</t>
-        </is>
-      </c>
+      <c r="AD240" s="3" t="inlineStr"/>
+      <c r="AE240" s="3" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
@@ -32016,16 +29808,8 @@
           <t>KC880335</t>
         </is>
       </c>
-      <c r="AD241" s="3" t="inlineStr">
-        <is>
-          <t>1449 (1)</t>
-        </is>
-      </c>
-      <c r="AE241" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD241" s="3" t="inlineStr"/>
+      <c r="AE241" s="3" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
@@ -32111,16 +29895,8 @@
           <t>DQ217602</t>
         </is>
       </c>
-      <c r="AD242" s="3" t="inlineStr">
-        <is>
-          <t>1674 (1)</t>
-        </is>
-      </c>
-      <c r="AE242" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD242" s="3" t="inlineStr"/>
+      <c r="AE242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
@@ -32181,7 +29957,7 @@
       <c r="R243" s="3" t="inlineStr"/>
       <c r="S243" s="3" t="inlineStr">
         <is>
-          <t>2018 (3), 2017 (3)</t>
+          <t>2018.0 (3), 2017.0 (3)</t>
         </is>
       </c>
       <c r="T243" s="3" t="inlineStr"/>
@@ -32193,7 +29969,7 @@
       <c r="V243" s="3" t="inlineStr"/>
       <c r="W243" s="3" t="inlineStr">
         <is>
-          <t>S (6)</t>
+          <t>NA (6)</t>
         </is>
       </c>
       <c r="X243" s="3" t="inlineStr"/>
@@ -32206,16 +29982,8 @@
           <t>MZ287861, MZ287860, MZ287859, MZ287858, MZ287857, MZ287856</t>
         </is>
       </c>
-      <c r="AD243" s="3" t="inlineStr">
-        <is>
-          <t>246 (5), 249 (1)</t>
-        </is>
-      </c>
-      <c r="AE243" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 95%-100% (5)</t>
-        </is>
-      </c>
+      <c r="AD243" s="3" t="inlineStr"/>
+      <c r="AE243" s="3" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
@@ -32276,7 +30044,7 @@
       <c r="R244" s="3" t="inlineStr"/>
       <c r="S244" s="3" t="inlineStr">
         <is>
-          <t>2016 (21)</t>
+          <t>2016.0 (21)</t>
         </is>
       </c>
       <c r="T244" s="3" t="inlineStr"/>
@@ -32301,16 +30069,8 @@
           <t>MN004875, MN004874, MN004873, MN004872, MN004871, MN004870, MN004869, MN004868, MN004867, MN004866, MN004865, MN004864, MN004863, MN004862, MN004861, MN004860, MN004859, MN004858, MN004857, MN004856, MN004855</t>
         </is>
       </c>
-      <c r="AD244" s="3" t="inlineStr">
-        <is>
-          <t>437 (7), 402 (7), 537 (7)</t>
-        </is>
-      </c>
-      <c r="AE244" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (10), 90%-95% (11)</t>
-        </is>
-      </c>
+      <c r="AD244" s="3" t="inlineStr"/>
+      <c r="AE244" s="3" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
@@ -32371,7 +30131,7 @@
       <c r="R245" s="3" t="inlineStr"/>
       <c r="S245" s="3" t="inlineStr">
         <is>
-          <t>2016 (385), 2015 (288), 2017 (21)</t>
+          <t>2016.0 (385), 2015.0 (288), 2017.0 (21)</t>
         </is>
       </c>
       <c r="T245" s="3" t="inlineStr"/>
@@ -32396,16 +30156,8 @@
           <t>MN624960, MN624959, MN624958, MN624957, MN624956, MN624955, MN624954, MN624953, MN624952, MN624951, MN624950, MN624949, MN624948, MN624947, MN624946, MN624945, MN624944, MN624943, MN624942, MN624941, MN624940, MN624939, MN624938, MN624937, MN624936, MN624935, MN624934, MN624933, MN624932, MN624931, MN624930, MN624929, MN624928, MN624927, MN624926, MN624925, MN624924, MN624923, MN624922, MN624921, MN624920, MN624919, MN624918, MN624917, MN624916, MN624915, MN624914, MN624913, MN624912, MN624911, MN624910, MN624909, MN624908, MN624907, MN624906, MN624905, MN624904, MN624903, MN624902, MN624901, MN624900, MN624899, MN624898, MN624897, MN624896, MN624895, MN624894, MN624893, MN624892, MN624891, MN624890, MN624889, MN624888, MN624887, MN624886, MN624885, MN624884, MN624883, MN624882, MN624881, MN624880, MN624879, MN624878, MN624877, MN624876, MN624875, MN624874, MN624873, MN624872, MN624871, MN624870, MN624869, MN624868, MN624867, MN624866, MN624865, MN624864, MN624863, MN624862, MN624861, MN624860, MN624859, MN624858, MN624857, MN624856, MN624855, MN624854, MN624853, MN624852, MN624851, MN624850, MN624849, MN624848, MN624847, MN624846, MN624845, MN624844, MN624843, MN624842, MN624841, MN624840, MN624839, MN624838, MN624837, MN624836, MN624835, MN624834, MN624833, MN624832, MN624831, MN624830, MN624829, MN624828, MN624827, MN624826, MN624825, MN624824, MN624823, MN624822, MN624821, MN624820, MN624819, MN624818, MN624817, MN624816, MN624815, MN624814, MN624813, MN624812, MN624811, MN624810, MN624809, MN624808, MN624807, MN624806, MN624805, MN624804, MN624803, MN624802, MN624801, MN624800, MN624799, MN624798, MN624797, MN624796, MN624795, MN624794, MN624793, MN624792, MN624791, MN624790, MN624789, MN624788, MN624787, MN624786, MN624785, MN624784, MN624783, MN624782, MN624781, MN624780, MN624779, MN624778, MN624777, MN624776, MN624775, MN624774, MN624773, MN624772, MN624771, MN624770, MN624769, MN624768, MN624767, MN624766, MN624765, MN624764, MN624763, MN624762, MN624761, MN624760, MN624759, MN624758, MN624757, MN624756, MN624755, MN624754, MN624753, MN624752, MN624751, MN624750, MN624749, MN624748, MN624747, MN624746, MN624745, MN624744, MN624743, MN624742, MN624741, MN624740, MN624739, MN624738, MN624737, MN624736, MN624735, MN624734, MN624733, MN624732, MN624731, MN624730, MN624729, MN624728, MN624727, MN624726, MN624725, MN624724, MN624723, MN624722, MN624721, MN624720, MN624719, MN624718, MN624717, MN624716, MN624715, MN624714, MN624713, MN624712, MN624711, MN624710, MN624709, MN624708, MN624707, MN624706, MN624705, MN624704, MN624703, MN624702, MN624701, MN624700, MN624699, MN624698, MN624697, MN624696, MN624695, MN624694, MN624693, MN624692, MN624691, MN624690, MN624689, MN624688, MN624687, MN624686, MN624685, MN624684, MN624683, MN624682, MN624681, MN624680, MN624679, MN624678, MN624677, MN624676, MN624675, MN624674, MN624673, MN624672, MN624671, MN624670, MN624669, MN624668, MN624667, MN624666, MN624665, MN624664, MN624663, MN624662, MN624661, MN624660, MN624659, MN624658, MN624657, MN624656, MN624655, MN624654, MN624653, MN624652, MN624651, MN624650, MN624649, MN624648, MN624647, MN624646, MN624645, MN624644, MN624643, MN624642, MN624641, MN624640, MN624639, MN624638, MN624637, MN624636, MN624635, MN624634, MN624633, MN624632, MN624631, MN624630, MN624629, MN624628, MN624627, MN624626, MN624625, MN624624, MN624623, MN624622, MN624621, MN624620, MN624619, MN624618, MN624617, MN624616, MN624615, MN624614, MN624613, MN624612, MN624611, MN624610, MN624609, MN624608, MN624607, MN624606, MN624605, MN624604, MN624603, MN624602, MN624601, MN624600, MN624599, MN624598, MN624597, MN624596, MN624595, MN624594, MN624593, MN624592, MN624591, MN624590, MN624589, MN624588, MN624587, MN624586, MN624585, MN624584, MN624583, MN624582, MN624581, MN624580, MN624579, MN624578, MN624577, MN624576, MN624575, MN624574, MN624573, MN624572, MN624571, MN624570, MN624569, MN624568, MN624567, MN624566, MN624565, MN624564, MN624563, MN624562, MN624561, MN624560, MN624559, MN624558, MN624557, MN624556, MN624555, MN624554, MN624553, MN624552, MN624551, MN624550, MN624549, MN624548, MN624547, MN624546, MN624545, MN624544, MN624543, MN624542, MN624541, MN624540, MN624539, MN624538, MN624537, MN624536, MN624535, MN624534, MN624533, MN624532, MN624531, MN624530, MN624529, MN624528, MN624527, MN624526, MN624525, MN624524, MN624523, MN624522, MN624521, MN624520, MN624519, MN624518, MN624517, MN624516, MN624515, MN624514, MN624513, MN624512, MN624511, MN624510, MN624509, MN624508, MN624507, MN624506, MN624505, MN624504, MN624503, MN624502, MN624501, MN624500, MN624499, MN624498, MN624497, MN624496, MN624495, MN624494, MN624493, MN624492, MN624491, MN624490, MN624489, MN624488, MN624487, MN624486, MN624485, MN624484, MN624483, MN624482, MN624481, MN624480, MN624479, MN624478, MN624477, MN624476, MN624475, MN624474, MN624473, MN624472, MN624471, MN624470, MN624469, MN624468, MN624467, MN624466, MN624465, MN624464, MN624463, MN624462, MN624461, MN624460, MN624459, MN624458, MN624457, MN624456, MN624455, MN624454, MN624453, MN624452, MN624451, MN624450, MN624449, MN624448, MN624447, MN624446, MN624445, MN624444, MN624443, MN624442, MN624441, MN624440, MN624439, MN624438, MN624437, MN624436, MN624435, MN624434, MN624433, MN624432, MN624431, MN624430, MN624429, MN624428, MN624427, MN624426, MN624425, MN624424, MN624423, MN624422, MN624421, MN624420, MN624419, MN624418, MN624417, MN624416, MN624415, MN624414, MN624413, MN624412, MN624411, MN624410, MN624409, MN624408, MN624407, MN624406, MN624405, MN624404, MN624403, MN624402, MN624401, MN624400, MN624399, MN624398, MN624397, MN624396, MN624395, MN624394, MN624393, MN624392, MN624391, MN624390, MN624389, MN624388, MN624387, MN624386, MN624385, MN624384, MN624383, MN624382, MN624381, MN624380, MN624379, MN624378, MN624377, MN624376, MN624375, MN624374, MN624373, MN624372, MN624371, MN624370, MN624369, MN624368, MN624367, MN624366, MN624365, MN624364, MN624363, MN624362, MN624361, MN624360, MN624359, MN624358, MN624357, MN624356, MN624355, MN624354, MN624353, MN624352, MN624351, MN624350, MN624349, MN624348, MN624347, MN624346, MN624345, MN624344, MN624343, MN624342, MN624341, MN624340, MN624339, MN624338, MN624337, MN624336, MN624335, MN624334, MN624333, MN624332, MN624331, MN624330, MN624329, MN624328, MN624327, MN624326, MN624325, MN624324, MN624323, MN624322, MN624321, MN624320, MN624319, MN624318, MN624317, MN624316, MN624315, MN624314, MN624313, MN624312, MN624311, MN624310, MN624309, MN624308, MN624307, MN624306, MN624305, MN624304, MN624303, MN624302, MN624301, MN624300, MN624299, MN624298, MN624297, MN624296, MN624295, MN624294, MN624293, MN624292, MN624291, MN624290, MN624289, MN624288, MN624287, MN624286, MN624285, MN624284, MN624283, MN624282, MN624281, MN624280, MN624279, MN624278, MN624277, MN624276, MN624275, MN624274, MN624273, MN624272, MN624271, MN624270, MN624269, MN624268, MN624267</t>
         </is>
       </c>
-      <c r="AD245" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (462), 500-1000 (232)</t>
-        </is>
-      </c>
-      <c r="AE245" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (299), 90%-95% (393), 95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD245" s="3" t="inlineStr"/>
+      <c r="AE245" s="3" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
@@ -32491,16 +30243,8 @@
           <t>DQ301505, DQ301504, DQ301503, DQ301502</t>
         </is>
       </c>
-      <c r="AD246" s="3" t="inlineStr">
-        <is>
-          <t>423 (4)</t>
-        </is>
-      </c>
-      <c r="AE246" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (3), 95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD246" s="3" t="inlineStr"/>
+      <c r="AE246" s="3" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
@@ -32561,7 +30305,7 @@
       <c r="R247" s="3" t="inlineStr"/>
       <c r="S247" s="3" t="inlineStr">
         <is>
-          <t>2018 (11)</t>
+          <t>2018.0 (11)</t>
         </is>
       </c>
       <c r="T247" s="3" t="inlineStr"/>
@@ -32586,16 +30330,8 @@
           <t>OQ190959, OQ190960, OQ190961, OQ190962, OQ190963, OQ190964, OQ190965, OQ190966, OQ190967, OQ190968, OQ190969</t>
         </is>
       </c>
-      <c r="AD247" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (8), 3000-5000 (1), 5000-10000 (2)</t>
-        </is>
-      </c>
-      <c r="AE247" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (10), 90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD247" s="3" t="inlineStr"/>
+      <c r="AE247" s="3" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
@@ -32656,7 +30392,7 @@
       <c r="R248" s="3" t="inlineStr"/>
       <c r="S248" s="3" t="inlineStr">
         <is>
-          <t>2012 (2)</t>
+          <t>2012.0 (2)</t>
         </is>
       </c>
       <c r="T248" s="3" t="inlineStr"/>
@@ -32681,16 +30417,8 @@
           <t>OQ077990, OQ077991</t>
         </is>
       </c>
-      <c r="AD248" s="3" t="inlineStr">
-        <is>
-          <t>381 (1), 86 (1)</t>
-        </is>
-      </c>
-      <c r="AE248" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD248" s="3" t="inlineStr"/>
+      <c r="AE248" s="3" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
@@ -32747,7 +30475,7 @@
       <c r="R249" s="3" t="inlineStr"/>
       <c r="S249" s="3" t="inlineStr">
         <is>
-          <t>1975 (3), 1981 (3), 1960 (3), 2014 (3), 1979 (3)</t>
+          <t>1975.0 (3), 1981.0 (3), 1960.0 (3), 2014.0 (3), 1979.0 (3)</t>
         </is>
       </c>
       <c r="T249" s="3" t="inlineStr"/>
@@ -32772,16 +30500,8 @@
           <t>OL741591, OL741592, OL741593, OL741594, OL741595, OL741596, OL741597, OL741598, OL741599, OL774840, OL774841, OL774842, OL774849, OL774850, OL774851</t>
         </is>
       </c>
-      <c r="AD249" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (5), 5000-10000 (5), &gt;10000 (5)</t>
-        </is>
-      </c>
-      <c r="AE249" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (1), 75%-90% (9), 90%-95% (3), 95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD249" s="3" t="inlineStr"/>
+      <c r="AE249" s="3" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
@@ -32842,7 +30562,7 @@
       <c r="R250" s="3" t="inlineStr"/>
       <c r="S250" s="3" t="inlineStr">
         <is>
-          <t>2016 (1)</t>
+          <t>2016.0 (1)</t>
         </is>
       </c>
       <c r="T250" s="3" t="inlineStr"/>
@@ -32854,7 +30574,7 @@
       <c r="V250" s="3" t="inlineStr"/>
       <c r="W250" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X250" s="3" t="inlineStr"/>
@@ -32867,16 +30587,8 @@
           <t>KY274404</t>
         </is>
       </c>
-      <c r="AD250" s="3" t="inlineStr">
-        <is>
-          <t>534 (1)</t>
-        </is>
-      </c>
-      <c r="AE250" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD250" s="3" t="inlineStr"/>
+      <c r="AE250" s="3" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
@@ -32937,7 +30649,7 @@
       <c r="R251" s="3" t="inlineStr"/>
       <c r="S251" s="3" t="inlineStr">
         <is>
-          <t>2017 (3)</t>
+          <t>2017.0 (3)</t>
         </is>
       </c>
       <c r="T251" s="3" t="inlineStr"/>
@@ -32962,16 +30674,8 @@
           <t>MH461097, MH461098, MH461099</t>
         </is>
       </c>
-      <c r="AD251" s="3" t="inlineStr">
-        <is>
-          <t>11918 (1), 5345 (1), 1654 (1)</t>
-        </is>
-      </c>
-      <c r="AE251" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD251" s="3" t="inlineStr"/>
+      <c r="AE251" s="3" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
@@ -33032,7 +30736,7 @@
       <c r="R252" s="3" t="inlineStr"/>
       <c r="S252" s="3" t="inlineStr">
         <is>
-          <t>2015 (3)</t>
+          <t>2015.0 (3)</t>
         </is>
       </c>
       <c r="T252" s="3" t="inlineStr"/>
@@ -33057,16 +30761,8 @@
           <t>MK442893, MK442894, MK442895</t>
         </is>
       </c>
-      <c r="AD252" s="3" t="inlineStr">
-        <is>
-          <t>11835 (1), 5052 (1), 1644 (1)</t>
-        </is>
-      </c>
-      <c r="AE252" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2), 95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD252" s="3" t="inlineStr"/>
+      <c r="AE252" s="3" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
@@ -33139,7 +30835,7 @@
       <c r="V253" s="3" t="inlineStr"/>
       <c r="W253" s="3" t="inlineStr">
         <is>
-          <t>M (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X253" s="3" t="inlineStr"/>
@@ -33152,16 +30848,8 @@
           <t>BK066753</t>
         </is>
       </c>
-      <c r="AD253" s="3" t="inlineStr">
-        <is>
-          <t>144 (1)</t>
-        </is>
-      </c>
-      <c r="AE253" s="3" t="inlineStr">
-        <is>
-          <t>0%-25% (1)</t>
-        </is>
-      </c>
+      <c r="AD253" s="3" t="inlineStr"/>
+      <c r="AE253" s="3" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
@@ -33234,7 +30922,7 @@
       <c r="V254" s="3" t="inlineStr"/>
       <c r="W254" s="3" t="inlineStr">
         <is>
-          <t>S (5)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="X254" s="3" t="inlineStr"/>
@@ -33247,16 +30935,8 @@
           <t>U84635, U84636, U84637, U84638, U84639</t>
         </is>
       </c>
-      <c r="AD254" s="3" t="inlineStr">
-        <is>
-          <t>450 (3), 447 (2)</t>
-        </is>
-      </c>
-      <c r="AE254" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (3), 95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD254" s="3" t="inlineStr"/>
+      <c r="AE254" s="3" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
@@ -33317,7 +30997,7 @@
       <c r="R255" s="3" t="inlineStr"/>
       <c r="S255" s="3" t="inlineStr">
         <is>
-          <t>2008 (1)</t>
+          <t>2008.0 (1)</t>
         </is>
       </c>
       <c r="T255" s="3" t="inlineStr"/>
@@ -33342,16 +31022,8 @@
           <t>FJ472634</t>
         </is>
       </c>
-      <c r="AD255" s="3" t="inlineStr">
-        <is>
-          <t>525 (1)</t>
-        </is>
-      </c>
-      <c r="AE255" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD255" s="3" t="inlineStr"/>
+      <c r="AE255" s="3" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
@@ -33437,16 +31109,8 @@
           <t>EF123122</t>
         </is>
       </c>
-      <c r="AD256" s="3" t="inlineStr">
-        <is>
-          <t>1677 (1)</t>
-        </is>
-      </c>
-      <c r="AE256" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD256" s="3" t="inlineStr"/>
+      <c r="AE256" s="3" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
@@ -33532,16 +31196,8 @@
           <t>DQ157174, DQ157175</t>
         </is>
       </c>
-      <c r="AD257" s="3" t="inlineStr">
-        <is>
-          <t>5366 (1), 5368 (1)</t>
-        </is>
-      </c>
-      <c r="AE257" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD257" s="3" t="inlineStr"/>
+      <c r="AE257" s="3" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
@@ -33598,7 +31254,7 @@
       <c r="R258" s="3" t="inlineStr"/>
       <c r="S258" s="3" t="inlineStr">
         <is>
-          <t>2012 (2)</t>
+          <t>2012.0 (2)</t>
         </is>
       </c>
       <c r="T258" s="3" t="inlineStr"/>
@@ -33623,16 +31279,8 @@
           <t>JX999734, JX999735</t>
         </is>
       </c>
-      <c r="AD258" s="3" t="inlineStr">
-        <is>
-          <t>1373 (1), 1124 (1)</t>
-        </is>
-      </c>
-      <c r="AE258" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2)</t>
-        </is>
-      </c>
+      <c r="AD258" s="3" t="inlineStr"/>
+      <c r="AE258" s="3" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
@@ -33718,16 +31366,8 @@
           <t>DQ099335</t>
         </is>
       </c>
-      <c r="AD259" s="3" t="inlineStr">
-        <is>
-          <t>11932 (1)</t>
-        </is>
-      </c>
-      <c r="AE259" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD259" s="3" t="inlineStr"/>
+      <c r="AE259" s="3" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
@@ -33813,16 +31453,8 @@
           <t>DQ094832</t>
         </is>
       </c>
-      <c r="AD260" s="3" t="inlineStr">
-        <is>
-          <t>4986 (1)</t>
-        </is>
-      </c>
-      <c r="AE260" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD260" s="3" t="inlineStr"/>
+      <c r="AE260" s="3" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
@@ -33879,7 +31511,7 @@
       <c r="R261" s="3" t="inlineStr"/>
       <c r="S261" s="3" t="inlineStr">
         <is>
-          <t>2012 (1)</t>
+          <t>2012.0 (1)</t>
         </is>
       </c>
       <c r="T261" s="3" t="inlineStr"/>
@@ -33891,7 +31523,7 @@
       <c r="V261" s="3" t="inlineStr"/>
       <c r="W261" s="3" t="inlineStr">
         <is>
-          <t>S (1)</t>
+          <t>NA (1)</t>
         </is>
       </c>
       <c r="X261" s="3" t="inlineStr"/>
@@ -33904,16 +31536,8 @@
           <t>KF796639</t>
         </is>
       </c>
-      <c r="AD261" s="3" t="inlineStr">
-        <is>
-          <t>501 (1)</t>
-        </is>
-      </c>
-      <c r="AE261" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD261" s="3" t="inlineStr"/>
+      <c r="AE261" s="3" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
@@ -33974,7 +31598,7 @@
       <c r="R262" s="3" t="inlineStr"/>
       <c r="S262" s="3" t="inlineStr">
         <is>
-          <t>2022 (6), 2021 (5), 2020 (4)</t>
+          <t>2022.0 (6), 2021.0 (5), 2020.0 (4)</t>
         </is>
       </c>
       <c r="T262" s="3" t="inlineStr"/>
@@ -33999,16 +31623,8 @@
           <t>PP801019, PP801020, PP801021, PP801022, PP801023, PP801024, PP801025, PP801026, PP801027, PP801028, PP801029, PP801030, PP801031, PP801032, PP801033</t>
         </is>
       </c>
-      <c r="AD262" s="3" t="inlineStr">
-        <is>
-          <t>474 (12), 477 (2), 475 (1)</t>
-        </is>
-      </c>
-      <c r="AE262" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3), 95%-100% (12)</t>
-        </is>
-      </c>
+      <c r="AD262" s="3" t="inlineStr"/>
+      <c r="AE262" s="3" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
@@ -34069,7 +31685,7 @@
       <c r="R263" s="3" t="inlineStr"/>
       <c r="S263" s="3" t="inlineStr">
         <is>
-          <t>2015 (18)</t>
+          <t>2015.0 (18)</t>
         </is>
       </c>
       <c r="T263" s="3" t="inlineStr"/>
@@ -34081,7 +31697,7 @@
       <c r="V263" s="3" t="inlineStr"/>
       <c r="W263" s="3" t="inlineStr">
         <is>
-          <t>L (9), S (7), M (2)</t>
+          <t>L (9), S (7), NA (2)</t>
         </is>
       </c>
       <c r="X263" s="3" t="inlineStr"/>
@@ -34094,16 +31710,8 @@
           <t>KX096700, KX096701, KX096702, KX096703, KX096704, KX096705, KX096706, KX129730, KX129731, KX129732, KX129733, KX129734, KX129735, KX129736, KX129737, KX129738, KX129739, KX458183</t>
         </is>
       </c>
-      <c r="AD263" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (1), 500-1000 (15), 1000-3000 (1), 5000-10000 (1)</t>
-        </is>
-      </c>
-      <c r="AE263" s="3" t="inlineStr">
-        <is>
-          <t>25%-50% (1), 75%-90% (8), 90%-95% (4), 95%-100% (5)</t>
-        </is>
-      </c>
+      <c r="AD263" s="3" t="inlineStr"/>
+      <c r="AE263" s="3" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
@@ -34160,7 +31768,7 @@
       <c r="R264" s="3" t="inlineStr"/>
       <c r="S264" s="3" t="inlineStr">
         <is>
-          <t>2011 (3)</t>
+          <t>2011.0 (3)</t>
         </is>
       </c>
       <c r="T264" s="3" t="inlineStr"/>
@@ -34185,16 +31793,8 @@
           <t>JX308613, JX308614, JX308615</t>
         </is>
       </c>
-      <c r="AD264" s="3" t="inlineStr">
-        <is>
-          <t>504 (1), 783 (1), 789 (1)</t>
-        </is>
-      </c>
-      <c r="AE264" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD264" s="3" t="inlineStr"/>
+      <c r="AE264" s="3" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
@@ -34251,7 +31851,7 @@
       <c r="R265" s="3" t="inlineStr"/>
       <c r="S265" s="3" t="inlineStr">
         <is>
-          <t>2009 (2), 2010 (1)</t>
+          <t>2009.0 (2), 2010.0 (1)</t>
         </is>
       </c>
       <c r="T265" s="3" t="inlineStr"/>
@@ -34276,16 +31876,8 @@
           <t>HQ821873, HQ821874, HQ821875</t>
         </is>
       </c>
-      <c r="AD265" s="3" t="inlineStr">
-        <is>
-          <t>522 (2), 480 (1)</t>
-        </is>
-      </c>
-      <c r="AE265" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (3)</t>
-        </is>
-      </c>
+      <c r="AD265" s="3" t="inlineStr"/>
+      <c r="AE265" s="3" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
@@ -34342,7 +31934,7 @@
       <c r="R266" s="3" t="inlineStr"/>
       <c r="S266" s="3" t="inlineStr">
         <is>
-          <t>2010 (2)</t>
+          <t>2010.0 (2)</t>
         </is>
       </c>
       <c r="T266" s="3" t="inlineStr"/>
@@ -34367,16 +31959,8 @@
           <t>HQ864321, HQ864322</t>
         </is>
       </c>
-      <c r="AD266" s="3" t="inlineStr">
-        <is>
-          <t>614 (1), 735 (1)</t>
-        </is>
-      </c>
-      <c r="AE266" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD266" s="3" t="inlineStr"/>
+      <c r="AE266" s="3" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
@@ -34433,7 +32017,7 @@
       <c r="R267" s="3" t="inlineStr"/>
       <c r="S267" s="3" t="inlineStr">
         <is>
-          <t>2012 (2)</t>
+          <t>2012.0 (2)</t>
         </is>
       </c>
       <c r="T267" s="3" t="inlineStr"/>
@@ -34458,16 +32042,8 @@
           <t>KC150000, KC150001</t>
         </is>
       </c>
-      <c r="AD267" s="3" t="inlineStr">
-        <is>
-          <t>684 (1), 824 (1)</t>
-        </is>
-      </c>
-      <c r="AE267" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2)</t>
-        </is>
-      </c>
+      <c r="AD267" s="3" t="inlineStr"/>
+      <c r="AE267" s="3" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
@@ -34528,7 +32104,7 @@
       <c r="R268" s="3" t="inlineStr"/>
       <c r="S268" s="3" t="inlineStr">
         <is>
-          <t>2012 (5), 2011 (1)</t>
+          <t>2012.0 (5), 2011.0 (1)</t>
         </is>
       </c>
       <c r="T268" s="3" t="inlineStr"/>
@@ -34553,16 +32129,8 @@
           <t>KC150000, KC150001, KC150002, KC150003, KC150004, KC150005</t>
         </is>
       </c>
-      <c r="AD268" s="3" t="inlineStr">
-        <is>
-          <t>824 (2), 720 (1), 801 (1), 661 (1), 684 (1)</t>
-        </is>
-      </c>
-      <c r="AE268" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (5), 90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD268" s="3" t="inlineStr"/>
+      <c r="AE268" s="3" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
@@ -34623,7 +32191,7 @@
       <c r="R269" s="3" t="inlineStr"/>
       <c r="S269" s="3" t="inlineStr">
         <is>
-          <t>2016 (10)</t>
+          <t>2016.0 (10)</t>
         </is>
       </c>
       <c r="T269" s="3" t="inlineStr"/>
@@ -34635,7 +32203,7 @@
       <c r="V269" s="3" t="inlineStr"/>
       <c r="W269" s="3" t="inlineStr">
         <is>
-          <t>S (10)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="X269" s="3" t="inlineStr"/>
@@ -34648,16 +32216,8 @@
           <t>KX432283, KX432284, KX432285, KX458017, KX458018, KX458019, KX458020, KX458021, KX458022, KX458023</t>
         </is>
       </c>
-      <c r="AD269" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (3), 500-1000 (7)</t>
-        </is>
-      </c>
-      <c r="AE269" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 90%-95% (2), 95%-100% (7)</t>
-        </is>
-      </c>
+      <c r="AD269" s="3" t="inlineStr"/>
+      <c r="AE269" s="3" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
@@ -34718,7 +32278,7 @@
       <c r="R270" s="3" t="inlineStr"/>
       <c r="S270" s="3" t="inlineStr">
         <is>
-          <t>2020 (3)</t>
+          <t>2020.0 (3)</t>
         </is>
       </c>
       <c r="T270" s="3" t="inlineStr"/>
@@ -34743,16 +32303,8 @@
           <t>MW058028, MW058029, MW058030</t>
         </is>
       </c>
-      <c r="AD270" s="3" t="inlineStr">
-        <is>
-          <t>1458 (1), 5369 (1), 12009 (1)</t>
-        </is>
-      </c>
-      <c r="AE270" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (3)</t>
-        </is>
-      </c>
+      <c r="AD270" s="3" t="inlineStr"/>
+      <c r="AE270" s="3" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="3" t="inlineStr">
@@ -34838,16 +32390,8 @@
           <t>MH697878, MH697879, MH697880, MH697881, MH697882, MH697883, MH697884, MH697885, MH697886, MH697887, MH697888</t>
         </is>
       </c>
-      <c r="AD271" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (3), 500-1000 (8)</t>
-        </is>
-      </c>
-      <c r="AE271" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4), 95%-100% (7)</t>
-        </is>
-      </c>
+      <c r="AD271" s="3" t="inlineStr"/>
+      <c r="AE271" s="3" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
@@ -34908,7 +32452,7 @@
       <c r="R272" s="3" t="inlineStr"/>
       <c r="S272" s="3" t="inlineStr">
         <is>
-          <t>2019 (10), 2021 (9), 2018 (6), 2016 (3), 2017 (3), 2015 (3), 2011 (1)</t>
+          <t>2019.0 (10), 2021.0 (9), 2018.0 (6), 2016.0 (3), 2017.0 (3), 2015.0 (3), 2011.0 (1)</t>
         </is>
       </c>
       <c r="T272" s="3" t="inlineStr"/>
@@ -34933,16 +32477,8 @@
           <t>ON755121, OQ935537, OQ935538, OQ935539, OQ935540, OQ935541, OQ935542, OQ935543, OQ935544, OQ935545, OQ935546, OQ935547, OQ935548, OQ935549, OQ935550, OQ935551, OQ935552, OQ935553, OQ935554, OQ954463, OQ954464, OQ954465, OQ954466, OQ954467, OQ954468, OQ954469, OQ954470, OQ954471, OQ954472, OQ954473, OQ954474, OQ954475, OQ954476, OQ954477, OQ954478</t>
         </is>
       </c>
-      <c r="AD272" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (8), 500-1000 (26), 5000-10000 (1)</t>
-        </is>
-      </c>
-      <c r="AE272" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (15), 90%-95% (20)</t>
-        </is>
-      </c>
+      <c r="AD272" s="3" t="inlineStr"/>
+      <c r="AE272" s="3" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
@@ -35003,7 +32539,7 @@
       <c r="R273" s="3" t="inlineStr"/>
       <c r="S273" s="3" t="inlineStr">
         <is>
-          <t>2021 (29), 2011 (1)</t>
+          <t>2021.0 (29), 2011.0 (1)</t>
         </is>
       </c>
       <c r="T273" s="3" t="inlineStr"/>
@@ -35028,16 +32564,8 @@
           <t>ON142178, ON142179, ON191017, ON191018, ON191019, ON209431, ON254095, ON254096, ON254097, ON254098, ON254099, ON254100, ON623080, ON623081, ON623082, ON623083, ON623084, ON623085, ON623086, ON623087, ON623088, ON623089, ON640906, ON640907, ON640908, ON640909, ON640910, ON668033, ON668034, ON668035</t>
         </is>
       </c>
-      <c r="AD273" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (12), 5000-10000 (18)</t>
-        </is>
-      </c>
-      <c r="AE273" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (26), 95%-100% (4)</t>
-        </is>
-      </c>
+      <c r="AD273" s="3" t="inlineStr"/>
+      <c r="AE273" s="3" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
@@ -35098,7 +32626,7 @@
       <c r="R274" s="3" t="inlineStr"/>
       <c r="S274" s="3" t="inlineStr">
         <is>
-          <t>2009 (3), 2005 (2), 2006 (2), 1981 (1)</t>
+          <t>2009.0 (3), 2005.0 (2), 2006.0 (2), 1981.0 (1)</t>
         </is>
       </c>
       <c r="T274" s="3" t="inlineStr"/>
@@ -35123,16 +32651,8 @@
           <t>JF807428, JF807429, JF807430, JF807431, JF807432, JF807433, JF807434, JF807435</t>
         </is>
       </c>
-      <c r="AD274" s="3" t="inlineStr">
-        <is>
-          <t>100-500 (1), 500-1000 (5), 1000-3000 (2)</t>
-        </is>
-      </c>
-      <c r="AE274" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2), 90%-95% (6)</t>
-        </is>
-      </c>
+      <c r="AD274" s="3" t="inlineStr"/>
+      <c r="AE274" s="3" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
@@ -35193,7 +32713,7 @@
       <c r="R275" s="3" t="inlineStr"/>
       <c r="S275" s="3" t="inlineStr">
         <is>
-          <t>2012 (12)</t>
+          <t>2012.0 (12)</t>
         </is>
       </c>
       <c r="T275" s="3" t="inlineStr"/>
@@ -35218,16 +32738,8 @@
           <t>KX056050, KX056051, KX056052, KX056053, KX056054, KX056055, KX056056, KX056057, KX056058, KX056059, KX056060, KX056061</t>
         </is>
       </c>
-      <c r="AD275" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (4), 5000-10000 (4), &gt;10000 (4)</t>
-        </is>
-      </c>
-      <c r="AE275" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (12)</t>
-        </is>
-      </c>
+      <c r="AD275" s="3" t="inlineStr"/>
+      <c r="AE275" s="3" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
@@ -35288,7 +32800,7 @@
       <c r="R276" s="3" t="inlineStr"/>
       <c r="S276" s="3" t="inlineStr">
         <is>
-          <t>2015 (1)</t>
+          <t>2015.0 (1)</t>
         </is>
       </c>
       <c r="T276" s="3" t="inlineStr"/>
@@ -35313,16 +32825,8 @@
           <t>MF593474</t>
         </is>
       </c>
-      <c r="AD276" s="3" t="inlineStr">
-        <is>
-          <t>525 (1)</t>
-        </is>
-      </c>
-      <c r="AE276" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD276" s="3" t="inlineStr"/>
+      <c r="AE276" s="3" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
@@ -35383,7 +32887,7 @@
       <c r="R277" s="3" t="inlineStr"/>
       <c r="S277" s="3" t="inlineStr">
         <is>
-          <t>2010 (4)</t>
+          <t>2010.0 (4)</t>
         </is>
       </c>
       <c r="T277" s="3" t="inlineStr"/>
@@ -35408,16 +32912,8 @@
           <t>JF798866, JF798867, JF798868, JF798869</t>
         </is>
       </c>
-      <c r="AD277" s="3" t="inlineStr">
-        <is>
-          <t>222 (4)</t>
-        </is>
-      </c>
-      <c r="AE277" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (4)</t>
-        </is>
-      </c>
+      <c r="AD277" s="3" t="inlineStr"/>
+      <c r="AE277" s="3" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="3" t="inlineStr">
@@ -35478,7 +32974,7 @@
       <c r="R278" s="3" t="inlineStr"/>
       <c r="S278" s="3" t="inlineStr">
         <is>
-          <t>2017 (2)</t>
+          <t>2017.0 (2)</t>
         </is>
       </c>
       <c r="T278" s="3" t="inlineStr"/>
@@ -35503,16 +32999,8 @@
           <t>MH576575, MH595794</t>
         </is>
       </c>
-      <c r="AD278" s="3" t="inlineStr">
-        <is>
-          <t>493 (1), 418 (1)</t>
-        </is>
-      </c>
-      <c r="AE278" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD278" s="3" t="inlineStr"/>
+      <c r="AE278" s="3" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
@@ -35585,7 +33073,7 @@
       <c r="V279" s="3" t="inlineStr"/>
       <c r="W279" s="3" t="inlineStr">
         <is>
-          <t>S (10)</t>
+          <t>NA (10)</t>
         </is>
       </c>
       <c r="X279" s="3" t="inlineStr"/>
@@ -35598,16 +33086,8 @@
           <t>U15020, U15021, U15022, U15023, U15024, U15089, U15090, U15091, U15092, U15093</t>
         </is>
       </c>
-      <c r="AD279" s="3" t="inlineStr">
-        <is>
-          <t>499 (5), 498 (5)</t>
-        </is>
-      </c>
-      <c r="AE279" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (8), 95%-100% (2)</t>
-        </is>
-      </c>
+      <c r="AD279" s="3" t="inlineStr"/>
+      <c r="AE279" s="3" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
@@ -35693,16 +33173,8 @@
           <t>AY422208, AY422209</t>
         </is>
       </c>
-      <c r="AD280" s="3" t="inlineStr">
-        <is>
-          <t>12079 (1), 11955 (1)</t>
-        </is>
-      </c>
-      <c r="AE280" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD280" s="3" t="inlineStr"/>
+      <c r="AE280" s="3" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="3" t="inlineStr">
@@ -35788,16 +33260,8 @@
           <t>AF527810</t>
         </is>
       </c>
-      <c r="AD281" s="3" t="inlineStr">
-        <is>
-          <t>1675 (1)</t>
-        </is>
-      </c>
-      <c r="AE281" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD281" s="3" t="inlineStr"/>
+      <c r="AE281" s="3" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
@@ -35858,7 +33322,7 @@
       <c r="R282" s="3" t="inlineStr"/>
       <c r="S282" s="3" t="inlineStr">
         <is>
-          <t>2007 (1)</t>
+          <t>2007.0 (1)</t>
         </is>
       </c>
       <c r="T282" s="3" t="inlineStr"/>
@@ -35883,16 +33347,8 @@
           <t>EU523593</t>
         </is>
       </c>
-      <c r="AD282" s="3" t="inlineStr">
-        <is>
-          <t>165 (1)</t>
-        </is>
-      </c>
-      <c r="AE282" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD282" s="3" t="inlineStr"/>
+      <c r="AE282" s="3" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
@@ -35953,7 +33409,7 @@
       <c r="R283" s="3" t="inlineStr"/>
       <c r="S283" s="3" t="inlineStr">
         <is>
-          <t>1979 (6), 1975 (6), 1988 (6), 2004 (6), 1968 (6), 1984 (6), 1966 (3), 1970 (3), 1973 (3), 1976 (3), 1977 (3), 1980 (3), 1969 (3), 1978 (3)</t>
+          <t>1979.0 (6), 1975.0 (6), 1988.0 (6), 2004.0 (6), 1968.0 (6), 1984.0 (6), 1966.0 (3), 1970.0 (3), 1973.0 (3), 1976.0 (3), 1977.0 (3), 1980.0 (3), 1969.0 (3), 1978.0 (3)</t>
         </is>
       </c>
       <c r="T283" s="3" t="inlineStr"/>
@@ -35978,16 +33434,8 @@
           <t>OR047127, OR047128, OR047129, OR047130, OR047131, OR047132, OR047133, OR047134, OR047135, OR047136, OR047137, OR047138, OR047139, OR047140, OR047141, OR047142, OR047143, OR047144, OR047145, OR047146, OR047147, OR047148, OR047149, OR047150, OR047151, OR047152, OR047153, OR047154, OR047155, OR047156, OR047157, OR047158, OR047159, OR047160, OR047161, OR047162, OR047163, OR047164, OR047165, OR047166, OR047167, OR047168, OR047169, OR047170, OR047171, OR047172, OR047173, OR047174, OR047175, OR047176, OR047177, OR047178, OR047179, OR047180, OR047181, OR047182, OR047183, OR047184, OR047185, OR047186</t>
         </is>
       </c>
-      <c r="AD283" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (20), 5000-10000 (20), &gt;10000 (20)</t>
-        </is>
-      </c>
-      <c r="AE283" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (1), 75%-90% (59)</t>
-        </is>
-      </c>
+      <c r="AD283" s="3" t="inlineStr"/>
+      <c r="AE283" s="3" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="3" t="inlineStr">
@@ -36073,16 +33521,8 @@
           <t>OP951067, OP951068, OP951069</t>
         </is>
       </c>
-      <c r="AD284" s="3" t="inlineStr">
-        <is>
-          <t>198 (3)</t>
-        </is>
-      </c>
-      <c r="AE284" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD284" s="3" t="inlineStr"/>
+      <c r="AE284" s="3" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="3" t="inlineStr">
@@ -36143,7 +33583,7 @@
       <c r="R285" s="3" t="inlineStr"/>
       <c r="S285" s="3" t="inlineStr">
         <is>
-          <t>2020 (8)</t>
+          <t>2020.0 (8)</t>
         </is>
       </c>
       <c r="T285" s="3" t="inlineStr"/>
@@ -36155,7 +33595,7 @@
       <c r="V285" s="3" t="inlineStr"/>
       <c r="W285" s="3" t="inlineStr">
         <is>
-          <t>S (8)</t>
+          <t>NA (8)</t>
         </is>
       </c>
       <c r="X285" s="3" t="inlineStr"/>
@@ -36168,16 +33608,8 @@
           <t>OQ357265, OQ357266, OQ357267, OQ357268, OQ357269, OQ357270, OQ357271, OQ357272</t>
         </is>
       </c>
-      <c r="AD285" s="3" t="inlineStr">
-        <is>
-          <t>499 (5), 402 (1), 481 (1), 515 (1)</t>
-        </is>
-      </c>
-      <c r="AE285" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (8)</t>
-        </is>
-      </c>
+      <c r="AD285" s="3" t="inlineStr"/>
+      <c r="AE285" s="3" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
@@ -36238,7 +33670,7 @@
       <c r="R286" s="3" t="inlineStr"/>
       <c r="S286" s="3" t="inlineStr">
         <is>
-          <t>2011 (2)</t>
+          <t>2011.0 (2)</t>
         </is>
       </c>
       <c r="T286" s="3" t="inlineStr"/>
@@ -36250,7 +33682,7 @@
       <c r="V286" s="3" t="inlineStr"/>
       <c r="W286" s="3" t="inlineStr">
         <is>
-          <t>M (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X286" s="3" t="inlineStr"/>
@@ -36263,16 +33695,8 @@
           <t>JQ686212, JQ692582</t>
         </is>
       </c>
-      <c r="AD286" s="3" t="inlineStr">
-        <is>
-          <t>231 (2)</t>
-        </is>
-      </c>
-      <c r="AE286" s="3" t="inlineStr">
-        <is>
-          <t>0%-25% (2)</t>
-        </is>
-      </c>
+      <c r="AD286" s="3" t="inlineStr"/>
+      <c r="AE286" s="3" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="3" t="inlineStr">
@@ -36333,7 +33757,7 @@
       <c r="R287" s="3" t="inlineStr"/>
       <c r="S287" s="3" t="inlineStr">
         <is>
-          <t>2004 (8), 2005 (7)</t>
+          <t>2004.0 (8), 2005.0 (7)</t>
         </is>
       </c>
       <c r="T287" s="3" t="inlineStr"/>
@@ -36358,16 +33782,8 @@
           <t>EF432639, EF432640, EF432641, EF432642, EF432643, EF432644, EF432645, EF432646, EF432647, EF432648, EF432649, EF432650, EF432651, EF432652, EF432653</t>
         </is>
       </c>
-      <c r="AD287" s="3" t="inlineStr">
-        <is>
-          <t>492 (15)</t>
-        </is>
-      </c>
-      <c r="AE287" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (12), 95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD287" s="3" t="inlineStr"/>
+      <c r="AE287" s="3" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="3" t="inlineStr">
@@ -36428,7 +33844,7 @@
       <c r="R288" s="3" t="inlineStr"/>
       <c r="S288" s="3" t="inlineStr">
         <is>
-          <t>2015 (1)</t>
+          <t>2015.0 (1)</t>
         </is>
       </c>
       <c r="T288" s="3" t="inlineStr"/>
@@ -36453,16 +33869,8 @@
           <t>KU695267</t>
         </is>
       </c>
-      <c r="AD288" s="3" t="inlineStr">
-        <is>
-          <t>474 (1)</t>
-        </is>
-      </c>
-      <c r="AE288" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD288" s="3" t="inlineStr"/>
+      <c r="AE288" s="3" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="3" t="inlineStr">
@@ -36523,7 +33931,7 @@
       <c r="R289" s="3" t="inlineStr"/>
       <c r="S289" s="3" t="inlineStr">
         <is>
-          <t>2014 (1)</t>
+          <t>2014.0 (1)</t>
         </is>
       </c>
       <c r="T289" s="3" t="inlineStr"/>
@@ -36548,16 +33956,8 @@
           <t>MH346169</t>
         </is>
       </c>
-      <c r="AD289" s="3" t="inlineStr">
-        <is>
-          <t>261 (1)</t>
-        </is>
-      </c>
-      <c r="AE289" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD289" s="3" t="inlineStr"/>
+      <c r="AE289" s="3" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="3" t="inlineStr">
@@ -36618,7 +34018,7 @@
       <c r="R290" s="3" t="inlineStr"/>
       <c r="S290" s="3" t="inlineStr">
         <is>
-          <t>2015 (1)</t>
+          <t>2015.0 (1)</t>
         </is>
       </c>
       <c r="T290" s="3" t="inlineStr"/>
@@ -36643,16 +34043,8 @@
           <t>LT673890</t>
         </is>
       </c>
-      <c r="AD290" s="3" t="inlineStr">
-        <is>
-          <t>1499 (1)</t>
-        </is>
-      </c>
-      <c r="AE290" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD290" s="3" t="inlineStr"/>
+      <c r="AE290" s="3" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="3" t="inlineStr">
@@ -36738,16 +34130,8 @@
           <t>AF432115, AF432116, AF432117, AF432118, AF432119, AF432120, AF432121, AY062026, AY062027</t>
         </is>
       </c>
-      <c r="AD291" s="3" t="inlineStr">
-        <is>
-          <t>213 (9)</t>
-        </is>
-      </c>
-      <c r="AE291" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (9)</t>
-        </is>
-      </c>
+      <c r="AD291" s="3" t="inlineStr"/>
+      <c r="AE291" s="3" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="3" t="inlineStr">
@@ -36808,7 +34192,7 @@
       <c r="R292" s="3" t="inlineStr"/>
       <c r="S292" s="3" t="inlineStr">
         <is>
-          <t>2017 (1)</t>
+          <t>2017.0 (1)</t>
         </is>
       </c>
       <c r="T292" s="3" t="inlineStr"/>
@@ -36833,16 +34217,8 @@
           <t>MH557793</t>
         </is>
       </c>
-      <c r="AD292" s="3" t="inlineStr">
-        <is>
-          <t>174 (1)</t>
-        </is>
-      </c>
-      <c r="AE292" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD292" s="3" t="inlineStr"/>
+      <c r="AE292" s="3" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="3" t="inlineStr">
@@ -36903,7 +34279,7 @@
       <c r="R293" s="3" t="inlineStr"/>
       <c r="S293" s="3" t="inlineStr">
         <is>
-          <t>2015 (1)</t>
+          <t>2015.0 (1)</t>
         </is>
       </c>
       <c r="T293" s="3" t="inlineStr"/>
@@ -36928,16 +34304,8 @@
           <t>MG969426</t>
         </is>
       </c>
-      <c r="AD293" s="3" t="inlineStr">
-        <is>
-          <t>1937 (1)</t>
-        </is>
-      </c>
-      <c r="AE293" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD293" s="3" t="inlineStr"/>
+      <c r="AE293" s="3" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
@@ -37023,16 +34391,8 @@
           <t>PP496956</t>
         </is>
       </c>
-      <c r="AD294" s="3" t="inlineStr">
-        <is>
-          <t>606 (1)</t>
-        </is>
-      </c>
-      <c r="AE294" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD294" s="3" t="inlineStr"/>
+      <c r="AE294" s="3" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="3" t="inlineStr">
@@ -37093,7 +34453,7 @@
       <c r="R295" s="3" t="inlineStr"/>
       <c r="S295" s="3" t="inlineStr">
         <is>
-          <t>2022 (2)</t>
+          <t>2022.0 (2)</t>
         </is>
       </c>
       <c r="T295" s="3" t="inlineStr"/>
@@ -37105,7 +34465,7 @@
       <c r="V295" s="3" t="inlineStr"/>
       <c r="W295" s="3" t="inlineStr">
         <is>
-          <t>S (2)</t>
+          <t>NA (2)</t>
         </is>
       </c>
       <c r="X295" s="3" t="inlineStr"/>
@@ -37118,16 +34478,8 @@
           <t>PP107910, PP107911</t>
         </is>
       </c>
-      <c r="AD295" s="3" t="inlineStr">
-        <is>
-          <t>150 (1), 153 (1)</t>
-        </is>
-      </c>
-      <c r="AE295" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (2)</t>
-        </is>
-      </c>
+      <c r="AD295" s="3" t="inlineStr"/>
+      <c r="AE295" s="3" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="3" t="inlineStr">
@@ -37188,7 +34540,7 @@
       <c r="R296" s="3" t="inlineStr"/>
       <c r="S296" s="3" t="inlineStr">
         <is>
-          <t>2001 (2)</t>
+          <t>2001.0 (2)</t>
         </is>
       </c>
       <c r="T296" s="3" t="inlineStr"/>
@@ -37213,16 +34565,8 @@
           <t>DQ063581, DQ063582</t>
         </is>
       </c>
-      <c r="AD296" s="3" t="inlineStr">
-        <is>
-          <t>466 (2)</t>
-        </is>
-      </c>
-      <c r="AE296" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2)</t>
-        </is>
-      </c>
+      <c r="AD296" s="3" t="inlineStr"/>
+      <c r="AE296" s="3" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="3" t="inlineStr">
@@ -37283,7 +34627,7 @@
       <c r="R297" s="3" t="inlineStr"/>
       <c r="S297" s="3" t="inlineStr">
         <is>
-          <t>2015 (4)</t>
+          <t>2015.0 (4)</t>
         </is>
       </c>
       <c r="T297" s="3" t="inlineStr"/>
@@ -37295,7 +34639,7 @@
       <c r="V297" s="3" t="inlineStr"/>
       <c r="W297" s="3" t="inlineStr">
         <is>
-          <t>S (4)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="X297" s="3" t="inlineStr"/>
@@ -37308,16 +34652,8 @@
           <t>KU707898, KU707899, KU707900, KU707901</t>
         </is>
       </c>
-      <c r="AD297" s="3" t="inlineStr">
-        <is>
-          <t>1677 (2), 1665 (1), 1498 (1)</t>
-        </is>
-      </c>
-      <c r="AE297" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (4)</t>
-        </is>
-      </c>
+      <c r="AD297" s="3" t="inlineStr"/>
+      <c r="AE297" s="3" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
@@ -37378,7 +34714,7 @@
       <c r="R298" s="3" t="inlineStr"/>
       <c r="S298" s="3" t="inlineStr">
         <is>
-          <t>2016 (3)</t>
+          <t>2016.0 (3)</t>
         </is>
       </c>
       <c r="T298" s="3" t="inlineStr"/>
@@ -37403,16 +34739,8 @@
           <t>MH688497, MH688498, MH688499</t>
         </is>
       </c>
-      <c r="AD298" s="3" t="inlineStr">
-        <is>
-          <t>12060 (1), 5118 (1), 1674 (1)</t>
-        </is>
-      </c>
-      <c r="AE298" s="3" t="inlineStr">
-        <is>
-          <t>50%-75% (1), 75%-90% (2)</t>
-        </is>
-      </c>
+      <c r="AD298" s="3" t="inlineStr"/>
+      <c r="AE298" s="3" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
@@ -37473,7 +34801,7 @@
       <c r="R299" s="3" t="inlineStr"/>
       <c r="S299" s="3" t="inlineStr">
         <is>
-          <t>2015 (3)</t>
+          <t>2015.0 (3)</t>
         </is>
       </c>
       <c r="T299" s="3" t="inlineStr"/>
@@ -37485,7 +34813,7 @@
       <c r="V299" s="3" t="inlineStr"/>
       <c r="W299" s="3" t="inlineStr">
         <is>
-          <t>S (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X299" s="3" t="inlineStr"/>
@@ -37498,16 +34826,8 @@
           <t>KU041806, KU041807, KU041808</t>
         </is>
       </c>
-      <c r="AD299" s="3" t="inlineStr">
-        <is>
-          <t>219 (3)</t>
-        </is>
-      </c>
-      <c r="AE299" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD299" s="3" t="inlineStr"/>
+      <c r="AE299" s="3" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
@@ -37568,7 +34888,7 @@
       <c r="R300" s="3" t="inlineStr"/>
       <c r="S300" s="3" t="inlineStr">
         <is>
-          <t>2023 (3)</t>
+          <t>2023.0 (3)</t>
         </is>
       </c>
       <c r="T300" s="3" t="inlineStr"/>
@@ -37580,7 +34900,7 @@
       <c r="V300" s="3" t="inlineStr"/>
       <c r="W300" s="3" t="inlineStr">
         <is>
-          <t>S (3)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X300" s="3" t="inlineStr"/>
@@ -37593,16 +34913,8 @@
           <t>OR713752, OR713753, OR713754</t>
         </is>
       </c>
-      <c r="AD300" s="3" t="inlineStr">
-        <is>
-          <t>516 (3)</t>
-        </is>
-      </c>
-      <c r="AE300" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (3)</t>
-        </is>
-      </c>
+      <c r="AD300" s="3" t="inlineStr"/>
+      <c r="AE300" s="3" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="3" t="inlineStr">
@@ -37684,16 +34996,8 @@
           <t>DQ227495, DQ227496</t>
         </is>
       </c>
-      <c r="AD301" s="3" t="inlineStr">
-        <is>
-          <t>1676 (1), 1674 (1)</t>
-        </is>
-      </c>
-      <c r="AE301" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2)</t>
-        </is>
-      </c>
+      <c r="AD301" s="3" t="inlineStr"/>
+      <c r="AE301" s="3" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="3" t="inlineStr">
@@ -37766,7 +35070,7 @@
       <c r="V302" s="3" t="inlineStr"/>
       <c r="W302" s="3" t="inlineStr">
         <is>
-          <t>M (3), S (1), L (1)</t>
+          <t>NA (5)</t>
         </is>
       </c>
       <c r="X302" s="3" t="inlineStr"/>
@@ -37779,16 +35083,8 @@
           <t>OK573218, OK573219, OK573220, OK573221, OK573222</t>
         </is>
       </c>
-      <c r="AD302" s="3" t="inlineStr">
-        <is>
-          <t>346 (1), 477 (1), 1577 (1), 4476 (1), 11938 (1)</t>
-        </is>
-      </c>
-      <c r="AE302" s="3" t="inlineStr">
-        <is>
-          <t>95%-100% (5)</t>
-        </is>
-      </c>
+      <c r="AD302" s="3" t="inlineStr"/>
+      <c r="AE302" s="3" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="3" t="inlineStr">
@@ -37849,7 +35145,7 @@
       <c r="R303" s="3" t="inlineStr"/>
       <c r="S303" s="3" t="inlineStr">
         <is>
-          <t>2007 (1)</t>
+          <t>2007.0 (1)</t>
         </is>
       </c>
       <c r="T303" s="3" t="inlineStr"/>
@@ -37874,16 +35170,8 @@
           <t>EU727456</t>
         </is>
       </c>
-      <c r="AD303" s="3" t="inlineStr">
-        <is>
-          <t>1421 (1)</t>
-        </is>
-      </c>
-      <c r="AE303" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1)</t>
-        </is>
-      </c>
+      <c r="AD303" s="3" t="inlineStr"/>
+      <c r="AE303" s="3" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="3" t="inlineStr">
@@ -37944,7 +35232,7 @@
       <c r="R304" s="3" t="inlineStr"/>
       <c r="S304" s="3" t="inlineStr">
         <is>
-          <t>2016 (4)</t>
+          <t>2016.0 (4)</t>
         </is>
       </c>
       <c r="T304" s="3" t="inlineStr"/>
@@ -37956,7 +35244,7 @@
       <c r="V304" s="3" t="inlineStr"/>
       <c r="W304" s="3" t="inlineStr">
         <is>
-          <t>S (4)</t>
+          <t>NA (4)</t>
         </is>
       </c>
       <c r="X304" s="3" t="inlineStr"/>
@@ -37969,16 +35257,8 @@
           <t>MN218693, MN218694, MN218695, MN218696</t>
         </is>
       </c>
-      <c r="AD304" s="3" t="inlineStr">
-        <is>
-          <t>191 (4)</t>
-        </is>
-      </c>
-      <c r="AE304" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 90%-95% (3)</t>
-        </is>
-      </c>
+      <c r="AD304" s="3" t="inlineStr"/>
+      <c r="AE304" s="3" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="3" t="inlineStr">
@@ -38039,7 +35319,7 @@
       <c r="R305" s="3" t="inlineStr"/>
       <c r="S305" s="3" t="inlineStr">
         <is>
-          <t>2015 (25), 2012 (25)</t>
+          <t>2015.0 (25), 2012.0 (25)</t>
         </is>
       </c>
       <c r="T305" s="3" t="inlineStr"/>
@@ -38051,7 +35331,7 @@
       <c r="V305" s="3" t="inlineStr"/>
       <c r="W305" s="3" t="inlineStr">
         <is>
-          <t>M (25), S (25)</t>
+          <t>M (25), NA (25)</t>
         </is>
       </c>
       <c r="X305" s="3" t="inlineStr"/>
@@ -38064,16 +35344,8 @@
           <t>MT178278, MT178279, MT178280, MT178281, MT178282, MT178283, MT178284, MT178285, MT178286, MT178287, MT178288, MT178289, MT178290, MT178291, MT178292, MT178293, MT178294, MT178295, MT178296, MT178297, MT178298, MT178299, MT178300, MT178301, MT178302, MT178303, MT178304, MT178305, MT178306, MT178307, MT178308, MT178309, MT178310, MT178311, MT178312, MT178313, MT178314, MT178315, MT178316, MT178317, MT178318, MT178319, MT178320, MT178321, MT178322, MT178323, MT178324, MT178325, MT178326, MT178327</t>
         </is>
       </c>
-      <c r="AD305" s="3" t="inlineStr">
-        <is>
-          <t>333 (24), 420 (22), 421 (2), 375 (1), 330 (1)</t>
-        </is>
-      </c>
-      <c r="AE305" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (26), 90%-95% (24)</t>
-        </is>
-      </c>
+      <c r="AD305" s="3" t="inlineStr"/>
+      <c r="AE305" s="3" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
@@ -38134,7 +35406,7 @@
       <c r="R306" s="3" t="inlineStr"/>
       <c r="S306" s="3" t="inlineStr">
         <is>
-          <t>2013 (1)</t>
+          <t>2013.0 (1)</t>
         </is>
       </c>
       <c r="T306" s="3" t="inlineStr"/>
@@ -38159,16 +35431,8 @@
           <t>KX228865</t>
         </is>
       </c>
-      <c r="AD306" s="3" t="inlineStr">
-        <is>
-          <t>777 (1)</t>
-        </is>
-      </c>
-      <c r="AE306" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (1)</t>
-        </is>
-      </c>
+      <c r="AD306" s="3" t="inlineStr"/>
+      <c r="AE306" s="3" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
@@ -38229,7 +35493,7 @@
       <c r="R307" s="3" t="inlineStr"/>
       <c r="S307" s="3" t="inlineStr">
         <is>
-          <t>2011 (3)</t>
+          <t>2011.0 (3)</t>
         </is>
       </c>
       <c r="T307" s="3" t="inlineStr"/>
@@ -38241,7 +35505,7 @@
       <c r="V307" s="3" t="inlineStr"/>
       <c r="W307" s="3" t="inlineStr">
         <is>
-          <t>S (2), M (1)</t>
+          <t>NA (3)</t>
         </is>
       </c>
       <c r="X307" s="3" t="inlineStr"/>
@@ -38254,16 +35518,8 @@
           <t>KF494375, KF496920, KF496921</t>
         </is>
       </c>
-      <c r="AD307" s="3" t="inlineStr">
-        <is>
-          <t>402 (1), 483 (1), 537 (1)</t>
-        </is>
-      </c>
-      <c r="AE307" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (1), 90%-95% (1), 95%-100% (1)</t>
-        </is>
-      </c>
+      <c r="AD307" s="3" t="inlineStr"/>
+      <c r="AE307" s="3" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
@@ -38349,16 +35605,8 @@
           <t>EF012360, EF012361, EF012362</t>
         </is>
       </c>
-      <c r="AD308" s="3" t="inlineStr">
-        <is>
-          <t>258 (1), 261 (1), 201 (1)</t>
-        </is>
-      </c>
-      <c r="AE308" s="3" t="inlineStr">
-        <is>
-          <t>90%-95% (3)</t>
-        </is>
-      </c>
+      <c r="AD308" s="3" t="inlineStr"/>
+      <c r="AE308" s="3" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
@@ -38419,7 +35667,7 @@
       <c r="R309" s="3" t="inlineStr"/>
       <c r="S309" s="3" t="inlineStr">
         <is>
-          <t>2019 (21)</t>
+          <t>2019.0 (21)</t>
         </is>
       </c>
       <c r="T309" s="3" t="inlineStr"/>
@@ -38444,16 +35692,8 @@
           <t>MW298533, MW298534, MW298535, MW298536, MW298537, MW298538, MW298539, MW298540, MW298541, MW298542, MW298543, MW298544, MW298545, MW298546, MW298547, MW298548, MW298549, MW298550, MW298551, MW298552, MW298553</t>
         </is>
       </c>
-      <c r="AD309" s="3" t="inlineStr">
-        <is>
-          <t>1000-3000 (7), 3000-5000 (1), 5000-10000 (6), &gt;10000 (7)</t>
-        </is>
-      </c>
-      <c r="AE309" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (21)</t>
-        </is>
-      </c>
+      <c r="AD309" s="3" t="inlineStr"/>
+      <c r="AE309" s="3" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
@@ -38539,16 +35779,8 @@
           <t>AH010751, AH010752</t>
         </is>
       </c>
-      <c r="AD310" s="3" t="inlineStr">
-        <is>
-          <t>466 (2)</t>
-        </is>
-      </c>
-      <c r="AE310" s="3" t="inlineStr">
-        <is>
-          <t>75%-90% (2)</t>
-        </is>
-      </c>
+      <c r="AD310" s="3" t="inlineStr"/>
+      <c r="AE310" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
